--- a/pycondor/out/Provence-Oisans2.xlsx
+++ b/pycondor/out/Provence-Oisans2.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Ref" sheetId="1" r:id="rId1"/>
-    <sheet name="Measures" sheetId="2" r:id="rId2"/>
+    <sheet name="ref" sheetId="1" r:id="rId1"/>
+    <sheet name="measures" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -32,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,12 +389,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
@@ -416,10 +421,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>43.2233009338379</v>
+        <v>43.223300933837898</v>
       </c>
       <c r="E2" s="2">
-        <v>7.80754041671753</v>
+        <v>7.8075404167175302</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -433,10 +438,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>43.1682662963867</v>
+        <v>43.168266296386697</v>
       </c>
       <c r="E3" s="2">
-        <v>5.25774049758911</v>
+        <v>5.2577404975891104</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -450,10 +455,10 @@
         <v>345600</v>
       </c>
       <c r="D4" s="2">
-        <v>46.3341865539551</v>
+        <v>46.334186553955099</v>
       </c>
       <c r="E4" s="2">
-        <v>7.74171733856201</v>
+        <v>7.7417173385620099</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -467,24 +472,31 @@
         <v>345600</v>
       </c>
       <c r="D5" s="2">
-        <v>46.272891998291</v>
+        <v>46.272891998291001</v>
       </c>
       <c r="E5" s="2">
-        <v>5.05174160003662</v>
+        <v>5.0517416000366202</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E401"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
@@ -511,10 +523,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>43.2233009338379</v>
+        <v>43.223300933837898</v>
       </c>
       <c r="E2" s="2">
-        <v>7.80754041671753</v>
+        <v>7.8075404167175302</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -525,13 +537,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>18189.4736842105</v>
+        <v>18189.473684210501</v>
       </c>
       <c r="D3" s="2">
-        <v>43.387077331543</v>
+        <v>43.387077331542997</v>
       </c>
       <c r="E3" s="2">
-        <v>7.80433416366577</v>
+        <v>7.8043341636657697</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -542,13 +554,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>36378.9473684211</v>
+        <v>36378.947368421097</v>
       </c>
       <c r="D4" s="2">
-        <v>43.5508460998535</v>
+        <v>43.550846099853501</v>
       </c>
       <c r="E4" s="2">
-        <v>7.80110120773315</v>
+        <v>7.8011012077331499</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -559,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="D5" s="2">
-        <v>43.7146072387695</v>
+        <v>43.714607238769503</v>
       </c>
       <c r="E5" s="2">
-        <v>7.79784107208252</v>
+        <v>7.7978410720825204</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -576,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>72757.8947368421</v>
+        <v>72757.894736842107</v>
       </c>
       <c r="D6" s="2">
-        <v>43.8783683776855</v>
+        <v>43.878368377685497</v>
       </c>
       <c r="E6" s="2">
-        <v>7.79455280303955</v>
+        <v>7.7945528030395499</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -593,13 +605,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>90947.3684210526</v>
+        <v>90947.368421052597</v>
       </c>
       <c r="D7" s="2">
-        <v>44.0421257019043</v>
+        <v>44.042125701904297</v>
       </c>
       <c r="E7" s="2">
-        <v>7.79123687744141</v>
+        <v>7.7912368774414098</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -613,10 +625,10 @@
         <v>109136.842105263</v>
       </c>
       <c r="D8" s="2">
-        <v>44.2058792114258</v>
+        <v>44.205879211425803</v>
       </c>
       <c r="E8" s="2">
-        <v>7.78789281845093</v>
+        <v>7.7878928184509304</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -630,10 +642,10 @@
         <v>127326.315789474</v>
       </c>
       <c r="D9" s="2">
-        <v>44.3696250915527</v>
+        <v>44.369625091552699</v>
       </c>
       <c r="E9" s="2">
-        <v>7.78452014923096</v>
+        <v>7.7845201492309597</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -644,13 +656,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>145515.789473684</v>
+        <v>145515.78947368401</v>
       </c>
       <c r="D10" s="2">
-        <v>44.5333633422852</v>
+        <v>44.533363342285199</v>
       </c>
       <c r="E10" s="2">
-        <v>7.78111886978149</v>
+        <v>7.7811188697814897</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -661,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="D11" s="2">
-        <v>44.6970977783203</v>
+        <v>44.697097778320298</v>
       </c>
       <c r="E11" s="2">
         <v>7.77768850326538</v>
@@ -678,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>181894.736842105</v>
+        <v>181894.73684210499</v>
       </c>
       <c r="D12" s="2">
-        <v>44.8608322143555</v>
+        <v>44.860832214355497</v>
       </c>
       <c r="E12" s="2">
-        <v>7.77422857284546</v>
+        <v>7.7742285728454599</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -695,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>200084.210526316</v>
+        <v>200084.21052631599</v>
       </c>
       <c r="D13" s="2">
-        <v>45.0245590209961</v>
+        <v>45.024559020996101</v>
       </c>
       <c r="E13" s="2">
-        <v>7.77073907852173</v>
+        <v>7.7707390785217303</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -715,10 +727,10 @@
         <v>218273.684210526</v>
       </c>
       <c r="D14" s="2">
-        <v>45.1882820129395</v>
+        <v>45.188282012939503</v>
       </c>
       <c r="E14" s="2">
-        <v>7.76722002029419</v>
+        <v>7.7672200202941903</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -732,10 +744,10 @@
         <v>236463.157894737</v>
       </c>
       <c r="D15" s="2">
-        <v>45.351993560791</v>
+        <v>45.351993560791001</v>
       </c>
       <c r="E15" s="2">
-        <v>7.76366996765137</v>
+        <v>7.7636699676513699</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -746,13 +758,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>254652.631578947</v>
+        <v>254652.63157894701</v>
       </c>
       <c r="D16" s="2">
-        <v>45.5157051086426</v>
+        <v>45.515705108642599</v>
       </c>
       <c r="E16" s="2">
-        <v>7.76008987426758</v>
+        <v>7.7600898742675799</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -763,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>272842.105263158</v>
+        <v>272842.10526315798</v>
       </c>
       <c r="D17" s="2">
-        <v>45.6794128417969</v>
+        <v>45.679412841796903</v>
       </c>
       <c r="E17" s="2">
-        <v>7.75647830963135</v>
+        <v>7.7564783096313503</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -780,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>291031.578947368</v>
+        <v>291031.57894736802</v>
       </c>
       <c r="D18" s="2">
-        <v>45.8431167602539</v>
+        <v>45.843116760253899</v>
       </c>
       <c r="E18" s="2">
-        <v>7.75283575057983</v>
+        <v>7.7528357505798304</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -797,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>309221.052631579</v>
+        <v>309221.05263157899</v>
       </c>
       <c r="D19" s="2">
-        <v>46.0068092346191</v>
+        <v>46.006809234619098</v>
       </c>
       <c r="E19" s="2">
-        <v>7.74916172027588</v>
+        <v>7.7491617202758798</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -814,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>327410.526315789</v>
+        <v>327410.52631578897</v>
       </c>
       <c r="D20" s="2">
-        <v>46.1705017089844</v>
+        <v>46.170501708984403</v>
       </c>
       <c r="E20" s="2">
-        <v>7.74545574188232</v>
+        <v>7.7454557418823198</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -834,10 +846,10 @@
         <v>345600</v>
       </c>
       <c r="D21" s="2">
-        <v>46.3341865539551</v>
+        <v>46.334186553955099</v>
       </c>
       <c r="E21" s="2">
-        <v>7.74171733856201</v>
+        <v>7.7417173385620099</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -854,7 +866,7 @@
         <v>43.2218208312988</v>
       </c>
       <c r="E22" s="2">
-        <v>7.67318868637085</v>
+        <v>7.6731886863708496</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -865,13 +877,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C23" s="2">
-        <v>18189.4736842105</v>
+        <v>18189.473684210501</v>
       </c>
       <c r="D23" s="2">
-        <v>43.3855857849121</v>
+        <v>43.385585784912102</v>
       </c>
       <c r="E23" s="2">
-        <v>7.66962194442749</v>
+        <v>7.6696219444274902</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -882,13 +894,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C24" s="2">
-        <v>36378.9473684211</v>
+        <v>36378.947368421097</v>
       </c>
       <c r="D24" s="2">
-        <v>43.5493507385254</v>
+        <v>43.549350738525398</v>
       </c>
       <c r="E24" s="2">
-        <v>7.66602468490601</v>
+        <v>7.6660246849060103</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -899,13 +911,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C25" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="D25" s="2">
-        <v>43.7131042480469</v>
+        <v>43.713104248046903</v>
       </c>
       <c r="E25" s="2">
-        <v>7.66239738464355</v>
+        <v>7.6623973846435502</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -916,13 +928,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C26" s="2">
-        <v>72757.8947368421</v>
+        <v>72757.894736842107</v>
       </c>
       <c r="D26" s="2">
-        <v>43.8768577575684</v>
+        <v>43.876857757568402</v>
       </c>
       <c r="E26" s="2">
-        <v>7.65873908996582</v>
+        <v>7.6587390899658203</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -933,13 +945,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C27" s="2">
-        <v>90947.3684210526</v>
+        <v>90947.368421052597</v>
       </c>
       <c r="D27" s="2">
-        <v>44.0406036376953</v>
+        <v>44.040603637695298</v>
       </c>
       <c r="E27" s="2">
-        <v>7.6550498008728</v>
+        <v>7.6550498008728001</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -956,7 +968,7 @@
         <v>44.204345703125</v>
       </c>
       <c r="E28" s="2">
-        <v>7.65132904052734</v>
+        <v>7.6513290405273402</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -970,10 +982,10 @@
         <v>127326.315789474</v>
       </c>
       <c r="D29" s="2">
-        <v>44.3680839538574</v>
+        <v>44.368083953857401</v>
       </c>
       <c r="E29" s="2">
-        <v>7.64757680892944</v>
+        <v>7.6475768089294398</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -984,13 +996,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C30" s="2">
-        <v>145515.789473684</v>
+        <v>145515.78947368401</v>
       </c>
       <c r="D30" s="2">
-        <v>44.5318145751953</v>
+        <v>44.531814575195298</v>
       </c>
       <c r="E30" s="2">
-        <v>7.64379262924194</v>
+        <v>7.6437926292419398</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1001,10 +1013,10 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C31" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="D31" s="2">
-        <v>44.6955413818359</v>
+        <v>44.695541381835902</v>
       </c>
       <c r="E31" s="2">
         <v>7.63997602462769</v>
@@ -1018,13 +1030,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C32" s="2">
-        <v>181894.736842105</v>
+        <v>181894.73684210499</v>
       </c>
       <c r="D32" s="2">
-        <v>44.8592643737793</v>
+        <v>44.859264373779297</v>
       </c>
       <c r="E32" s="2">
-        <v>7.63612651824951</v>
+        <v>7.6361265182495099</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1035,13 +1047,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C33" s="2">
-        <v>200084.210526316</v>
+        <v>200084.21052631599</v>
       </c>
       <c r="D33" s="2">
-        <v>45.0229835510254</v>
+        <v>45.022983551025398</v>
       </c>
       <c r="E33" s="2">
-        <v>7.63224458694458</v>
+        <v>7.6322445869445801</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1055,10 +1067,10 @@
         <v>218273.684210526</v>
       </c>
       <c r="D34" s="2">
-        <v>45.186695098877</v>
+        <v>45.186695098877003</v>
       </c>
       <c r="E34" s="2">
-        <v>7.62832880020142</v>
+        <v>7.6283288002014196</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1072,10 +1084,10 @@
         <v>236463.157894737</v>
       </c>
       <c r="D35" s="2">
-        <v>45.350399017334</v>
+        <v>45.350399017333999</v>
       </c>
       <c r="E35" s="2">
-        <v>7.62437915802002</v>
+        <v>7.6243791580200204</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1086,13 +1098,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C36" s="2">
-        <v>254652.631578947</v>
+        <v>254652.63157894701</v>
       </c>
       <c r="D36" s="2">
-        <v>45.514102935791</v>
+        <v>45.514102935791001</v>
       </c>
       <c r="E36" s="2">
-        <v>7.62039613723755</v>
+        <v>7.6203961372375497</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1103,13 +1115,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C37" s="2">
-        <v>272842.105263158</v>
+        <v>272842.10526315798</v>
       </c>
       <c r="D37" s="2">
-        <v>45.6778030395508</v>
+        <v>45.677803039550803</v>
       </c>
       <c r="E37" s="2">
-        <v>7.61637783050537</v>
+        <v>7.6163778305053702</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1120,13 +1132,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C38" s="2">
-        <v>291031.578947368</v>
+        <v>291031.57894736802</v>
       </c>
       <c r="D38" s="2">
-        <v>45.841495513916</v>
+        <v>45.841495513916001</v>
       </c>
       <c r="E38" s="2">
-        <v>7.6123251914978</v>
+        <v>7.6123251914978001</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1137,10 +1149,10 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C39" s="2">
-        <v>309221.052631579</v>
+        <v>309221.05263157899</v>
       </c>
       <c r="D39" s="2">
-        <v>46.0051803588867</v>
+        <v>46.005180358886697</v>
       </c>
       <c r="E39" s="2">
         <v>7.60823774337769</v>
@@ -1154,13 +1166,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C40" s="2">
-        <v>327410.526315789</v>
+        <v>327410.52631578897</v>
       </c>
       <c r="D40" s="2">
-        <v>46.1688613891602</v>
+        <v>46.168861389160199</v>
       </c>
       <c r="E40" s="2">
-        <v>7.60411405563354</v>
+        <v>7.6041140556335396</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1177,7 +1189,7 @@
         <v>46.3325386047363</v>
       </c>
       <c r="E41" s="2">
-        <v>7.5999550819397</v>
+        <v>7.5999550819396999</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1185,16 +1197,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>21827.3684210526</v>
+        <v>21827.368421052601</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
       </c>
       <c r="D42" s="2">
-        <v>43.2201843261719</v>
+        <v>43.220184326171903</v>
       </c>
       <c r="E42" s="2">
-        <v>7.53884744644165</v>
+        <v>7.5388474464416504</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1202,16 +1214,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>21827.3684210526</v>
+        <v>21827.368421052601</v>
       </c>
       <c r="C43" s="2">
-        <v>18189.4736842105</v>
+        <v>18189.473684210501</v>
       </c>
       <c r="D43" s="2">
-        <v>43.3839416503906</v>
+        <v>43.383941650390597</v>
       </c>
       <c r="E43" s="2">
-        <v>7.53491973876953</v>
+        <v>7.5349197387695304</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1219,16 +1231,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>21827.3684210526</v>
+        <v>21827.368421052601</v>
       </c>
       <c r="C44" s="2">
-        <v>36378.9473684211</v>
+        <v>36378.947368421097</v>
       </c>
       <c r="D44" s="2">
-        <v>43.5476951599121</v>
+        <v>43.547695159912102</v>
       </c>
       <c r="E44" s="2">
-        <v>7.53095865249634</v>
+        <v>7.5309586524963397</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1236,16 +1248,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>21827.3684210526</v>
+        <v>21827.368421052601</v>
       </c>
       <c r="C45" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="D45" s="2">
-        <v>43.7114372253418</v>
+        <v>43.711437225341797</v>
       </c>
       <c r="E45" s="2">
-        <v>7.52696418762207</v>
+        <v>7.5269641876220703</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1253,16 +1265,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>21827.3684210526</v>
+        <v>21827.368421052601</v>
       </c>
       <c r="C46" s="2">
-        <v>72757.8947368421</v>
+        <v>72757.894736842107</v>
       </c>
       <c r="D46" s="2">
         <v>43.8751831054688</v>
       </c>
       <c r="E46" s="2">
-        <v>7.52293586730957</v>
+        <v>7.5229358673095703</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1270,16 +1282,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>21827.3684210526</v>
+        <v>21827.368421052601</v>
       </c>
       <c r="C47" s="2">
-        <v>90947.3684210526</v>
+        <v>90947.368421052597</v>
       </c>
       <c r="D47" s="2">
         <v>44.0389213562012</v>
       </c>
       <c r="E47" s="2">
-        <v>7.51887369155884</v>
+        <v>7.5188736915588397</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1287,16 +1299,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>21827.3684210526</v>
+        <v>21827.368421052601</v>
       </c>
       <c r="C48" s="2">
         <v>109136.842105263</v>
       </c>
       <c r="D48" s="2">
-        <v>44.2026519775391</v>
+        <v>44.202651977539098</v>
       </c>
       <c r="E48" s="2">
-        <v>7.51477670669556</v>
+        <v>7.5147767066955602</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1304,16 +1316,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>21827.3684210526</v>
+        <v>21827.368421052601</v>
       </c>
       <c r="C49" s="2">
         <v>127326.315789474</v>
       </c>
       <c r="D49" s="2">
-        <v>44.366382598877</v>
+        <v>44.366382598877003</v>
       </c>
       <c r="E49" s="2">
-        <v>7.51064443588257</v>
+        <v>7.5106444358825701</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1321,16 +1333,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>21827.3684210526</v>
+        <v>21827.368421052601</v>
       </c>
       <c r="C50" s="2">
-        <v>145515.789473684</v>
+        <v>145515.78947368401</v>
       </c>
       <c r="D50" s="2">
-        <v>44.530101776123</v>
+        <v>44.530101776122997</v>
       </c>
       <c r="E50" s="2">
-        <v>7.50647735595703</v>
+        <v>7.5064773559570304</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1338,16 +1350,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>21827.3684210526</v>
+        <v>21827.368421052601</v>
       </c>
       <c r="C51" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="D51" s="2">
-        <v>44.6938209533691</v>
+        <v>44.693820953369098</v>
       </c>
       <c r="E51" s="2">
-        <v>7.50227499008179</v>
+        <v>7.5022749900817898</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1355,16 +1367,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>21827.3684210526</v>
+        <v>21827.368421052601</v>
       </c>
       <c r="C52" s="2">
-        <v>181894.736842105</v>
+        <v>181894.73684210499</v>
       </c>
       <c r="D52" s="2">
-        <v>44.8575325012207</v>
+        <v>44.857532501220703</v>
       </c>
       <c r="E52" s="2">
-        <v>7.49803590774536</v>
+        <v>7.4980359077453604</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1372,16 +1384,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>21827.3684210526</v>
+        <v>21827.368421052601</v>
       </c>
       <c r="C53" s="2">
-        <v>200084.210526316</v>
+        <v>200084.21052631599</v>
       </c>
       <c r="D53" s="2">
         <v>45.021240234375</v>
       </c>
       <c r="E53" s="2">
-        <v>7.49376106262207</v>
+        <v>7.4937610626220703</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1389,16 +1401,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>21827.3684210526</v>
+        <v>21827.368421052601</v>
       </c>
       <c r="C54" s="2">
         <v>218273.684210526</v>
       </c>
       <c r="D54" s="2">
-        <v>45.184944152832</v>
+        <v>45.184944152832003</v>
       </c>
       <c r="E54" s="2">
-        <v>7.48944902420044</v>
+        <v>7.4894490242004403</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1406,16 +1418,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>21827.3684210526</v>
+        <v>21827.368421052601</v>
       </c>
       <c r="C55" s="2">
         <v>236463.157894737</v>
       </c>
       <c r="D55" s="2">
-        <v>45.3486366271973</v>
+        <v>45.348636627197301</v>
       </c>
       <c r="E55" s="2">
-        <v>7.48510026931763</v>
+        <v>7.4851002693176296</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1423,10 +1435,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>21827.3684210526</v>
+        <v>21827.368421052601</v>
       </c>
       <c r="C56" s="2">
-        <v>254652.631578947</v>
+        <v>254652.63157894701</v>
       </c>
       <c r="D56" s="2">
         <v>45.5123291015625</v>
@@ -1440,16 +1452,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>21827.3684210526</v>
+        <v>21827.368421052601</v>
       </c>
       <c r="C57" s="2">
-        <v>272842.105263158</v>
+        <v>272842.10526315798</v>
       </c>
       <c r="D57" s="2">
-        <v>45.6760177612305</v>
+        <v>45.676017761230497</v>
       </c>
       <c r="E57" s="2">
-        <v>7.47628974914551</v>
+        <v>7.4762897491455096</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1457,16 +1469,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>21827.3684210526</v>
+        <v>21827.368421052601</v>
       </c>
       <c r="C58" s="2">
-        <v>291031.578947368</v>
+        <v>291031.57894736802</v>
       </c>
       <c r="D58" s="2">
         <v>45.8397026062012</v>
       </c>
       <c r="E58" s="2">
-        <v>7.47182703018188</v>
+        <v>7.4718270301818803</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1474,16 +1486,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>21827.3684210526</v>
+        <v>21827.368421052601</v>
       </c>
       <c r="C59" s="2">
-        <v>309221.052631579</v>
+        <v>309221.05263157899</v>
       </c>
       <c r="D59" s="2">
-        <v>46.0033760070801</v>
+        <v>46.003376007080099</v>
       </c>
       <c r="E59" s="2">
-        <v>7.46732568740845</v>
+        <v>7.4673256874084499</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1491,16 +1503,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>21827.3684210526</v>
+        <v>21827.368421052601</v>
       </c>
       <c r="C60" s="2">
-        <v>327410.526315789</v>
+        <v>327410.52631578897</v>
       </c>
       <c r="D60" s="2">
-        <v>46.167049407959</v>
+        <v>46.167049407958999</v>
       </c>
       <c r="E60" s="2">
-        <v>7.46278524398804</v>
+        <v>7.4627852439880398</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1508,16 +1520,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>21827.3684210526</v>
+        <v>21827.368421052601</v>
       </c>
       <c r="C61" s="2">
         <v>345600</v>
       </c>
       <c r="D61" s="2">
-        <v>46.3307151794434</v>
+        <v>46.330715179443402</v>
       </c>
       <c r="E61" s="2">
-        <v>7.4582052230835</v>
+        <v>7.4582052230834996</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1525,13 +1537,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>32741.0526315789</v>
+        <v>32741.052631578899</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
       </c>
       <c r="D62" s="2">
-        <v>43.2183876037598</v>
+        <v>43.218387603759801</v>
       </c>
       <c r="E62" s="2">
         <v>7.40451860427856</v>
@@ -1542,13 +1554,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>32741.0526315789</v>
+        <v>32741.052631578899</v>
       </c>
       <c r="C63" s="2">
-        <v>18189.4736842105</v>
+        <v>18189.473684210501</v>
       </c>
       <c r="D63" s="2">
-        <v>43.382137298584</v>
+        <v>43.382137298583999</v>
       </c>
       <c r="E63" s="2">
         <v>7.40022993087769</v>
@@ -1559,16 +1571,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>32741.0526315789</v>
+        <v>32741.052631578899</v>
       </c>
       <c r="C64" s="2">
-        <v>36378.9473684211</v>
+        <v>36378.947368421097</v>
       </c>
       <c r="D64" s="2">
         <v>43.5458793640137</v>
       </c>
       <c r="E64" s="2">
-        <v>7.39590501785278</v>
+        <v>7.3959050178527797</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1576,16 +1588,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>32741.0526315789</v>
+        <v>32741.052631578899</v>
       </c>
       <c r="C65" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="D65" s="2">
         <v>43.7096138000488</v>
       </c>
       <c r="E65" s="2">
-        <v>7.39154386520386</v>
+        <v>7.3915438652038601</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1593,13 +1605,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>32741.0526315789</v>
+        <v>32741.052631578899</v>
       </c>
       <c r="C66" s="2">
-        <v>72757.8947368421</v>
+        <v>72757.894736842107</v>
       </c>
       <c r="D66" s="2">
-        <v>43.8733444213867</v>
+        <v>43.873344421386697</v>
       </c>
       <c r="E66" s="2">
         <v>7.38714551925659</v>
@@ -1610,16 +1622,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>32741.0526315789</v>
+        <v>32741.052631578899</v>
       </c>
       <c r="C67" s="2">
-        <v>90947.3684210526</v>
+        <v>90947.368421052597</v>
       </c>
       <c r="D67" s="2">
-        <v>44.0370750427246</v>
+        <v>44.037075042724602</v>
       </c>
       <c r="E67" s="2">
-        <v>7.38270998001099</v>
+        <v>7.3827099800109899</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1627,16 +1639,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>32741.0526315789</v>
+        <v>32741.052631578899</v>
       </c>
       <c r="C68" s="2">
         <v>109136.842105263</v>
       </c>
       <c r="D68" s="2">
-        <v>44.200798034668</v>
+        <v>44.200798034667997</v>
       </c>
       <c r="E68" s="2">
-        <v>7.37823677062988</v>
+        <v>7.3782367706298801</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1644,16 +1656,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>32741.0526315789</v>
+        <v>32741.052631578899</v>
       </c>
       <c r="C69" s="2">
         <v>127326.315789474</v>
       </c>
       <c r="D69" s="2">
-        <v>44.3645133972168</v>
+        <v>44.364513397216797</v>
       </c>
       <c r="E69" s="2">
-        <v>7.37372541427612</v>
+        <v>7.3737254142761204</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1661,16 +1673,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>32741.0526315789</v>
+        <v>32741.052631578899</v>
       </c>
       <c r="C70" s="2">
-        <v>145515.789473684</v>
+        <v>145515.78947368401</v>
       </c>
       <c r="D70" s="2">
-        <v>44.5282211303711</v>
+        <v>44.528221130371101</v>
       </c>
       <c r="E70" s="2">
-        <v>7.36917543411255</v>
+        <v>7.3691754341125497</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1678,16 +1690,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>32741.0526315789</v>
+        <v>32741.052631578899</v>
       </c>
       <c r="C71" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="D71" s="2">
-        <v>44.6919288635254</v>
+        <v>44.691928863525398</v>
       </c>
       <c r="E71" s="2">
-        <v>7.36458683013916</v>
+        <v>7.3645868301391602</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1695,16 +1707,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>32741.0526315789</v>
+        <v>32741.052631578899</v>
       </c>
       <c r="C72" s="2">
-        <v>181894.736842105</v>
+        <v>181894.73684210499</v>
       </c>
       <c r="D72" s="2">
-        <v>44.8556327819824</v>
+        <v>44.855632781982401</v>
       </c>
       <c r="E72" s="2">
-        <v>7.3599591255188</v>
+        <v>7.3599591255187997</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1712,16 +1724,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>32741.0526315789</v>
+        <v>32741.052631578899</v>
       </c>
       <c r="C73" s="2">
-        <v>200084.210526316</v>
+        <v>200084.21052631599</v>
       </c>
       <c r="D73" s="2">
-        <v>45.0193290710449</v>
+        <v>45.019329071044901</v>
       </c>
       <c r="E73" s="2">
-        <v>7.35529136657715</v>
+        <v>7.3552913665771502</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1729,16 +1741,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>32741.0526315789</v>
+        <v>32741.052631578899</v>
       </c>
       <c r="C74" s="2">
         <v>218273.684210526</v>
       </c>
       <c r="D74" s="2">
-        <v>45.1830215454102</v>
+        <v>45.183021545410199</v>
       </c>
       <c r="E74" s="2">
-        <v>7.35058355331421</v>
+        <v>7.3505835533142099</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1746,16 +1758,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>32741.0526315789</v>
+        <v>32741.052631578899</v>
       </c>
       <c r="C75" s="2">
         <v>236463.157894737</v>
       </c>
       <c r="D75" s="2">
-        <v>45.3467063903809</v>
+        <v>45.346706390380902</v>
       </c>
       <c r="E75" s="2">
-        <v>7.34583520889282</v>
+        <v>7.3458352088928196</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1763,16 +1775,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>32741.0526315789</v>
+        <v>32741.052631578899</v>
       </c>
       <c r="C76" s="2">
-        <v>254652.631578947</v>
+        <v>254652.63157894701</v>
       </c>
       <c r="D76" s="2">
-        <v>45.5103874206543</v>
+        <v>45.510387420654297</v>
       </c>
       <c r="E76" s="2">
-        <v>7.34104633331299</v>
+        <v>7.3410463333129901</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1780,16 +1792,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>32741.0526315789</v>
+        <v>32741.052631578899</v>
       </c>
       <c r="C77" s="2">
-        <v>272842.105263158</v>
+        <v>272842.10526315798</v>
       </c>
       <c r="D77" s="2">
-        <v>45.6740646362305</v>
+        <v>45.674064636230497</v>
       </c>
       <c r="E77" s="2">
-        <v>7.33621549606323</v>
+        <v>7.3362154960632298</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1797,16 +1809,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>32741.0526315789</v>
+        <v>32741.052631578899</v>
       </c>
       <c r="C78" s="2">
-        <v>291031.578947368</v>
+        <v>291031.57894736802</v>
       </c>
       <c r="D78" s="2">
-        <v>45.8377380371094</v>
+        <v>45.837738037109403</v>
       </c>
       <c r="E78" s="2">
-        <v>7.33134317398071</v>
+        <v>7.3313431739807102</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1814,16 +1826,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>32741.0526315789</v>
+        <v>32741.052631578899</v>
       </c>
       <c r="C79" s="2">
-        <v>309221.052631579</v>
+        <v>309221.05263157899</v>
       </c>
       <c r="D79" s="2">
-        <v>46.0013999938965</v>
+        <v>46.001399993896499</v>
       </c>
       <c r="E79" s="2">
-        <v>7.32642841339111</v>
+        <v>7.3264284133911097</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1831,13 +1843,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>32741.0526315789</v>
+        <v>32741.052631578899</v>
       </c>
       <c r="C80" s="2">
-        <v>327410.526315789</v>
+        <v>327410.52631578897</v>
       </c>
       <c r="D80" s="2">
-        <v>46.1650619506836</v>
+        <v>46.165061950683601</v>
       </c>
       <c r="E80" s="2">
         <v>7.32147121429443</v>
@@ -1848,7 +1860,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>32741.0526315789</v>
+        <v>32741.052631578899</v>
       </c>
       <c r="C81" s="2">
         <v>345600</v>
@@ -1857,7 +1869,7 @@
         <v>46.3287162780762</v>
       </c>
       <c r="E81" s="2">
-        <v>7.31647062301636</v>
+        <v>7.3164706230163601</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1865,13 +1877,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>43654.7368421053</v>
+        <v>43654.736842105303</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
       </c>
       <c r="D82" s="2">
-        <v>43.2164344787598</v>
+        <v>43.216434478759801</v>
       </c>
       <c r="E82" s="2">
         <v>7.27020215988159</v>
@@ -1882,16 +1894,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>43654.7368421053</v>
+        <v>43654.736842105303</v>
       </c>
       <c r="C83" s="2">
-        <v>18189.4736842105</v>
+        <v>18189.473684210501</v>
       </c>
       <c r="D83" s="2">
-        <v>43.3801727294922</v>
+        <v>43.380172729492202</v>
       </c>
       <c r="E83" s="2">
-        <v>7.26555252075195</v>
+        <v>7.2655525207519496</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1899,13 +1911,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>43654.7368421053</v>
+        <v>43654.736842105303</v>
       </c>
       <c r="C84" s="2">
-        <v>36378.9473684211</v>
+        <v>36378.947368421097</v>
       </c>
       <c r="D84" s="2">
-        <v>43.5439033508301</v>
+        <v>43.543903350830099</v>
       </c>
       <c r="E84" s="2">
         <v>7.2608642578125</v>
@@ -1916,16 +1928,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>43654.7368421053</v>
+        <v>43654.736842105303</v>
       </c>
       <c r="C85" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="D85" s="2">
-        <v>43.7076263427734</v>
+        <v>43.707626342773402</v>
       </c>
       <c r="E85" s="2">
-        <v>7.25613641738892</v>
+        <v>7.2561364173889196</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1933,16 +1945,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>43654.7368421053</v>
+        <v>43654.736842105303</v>
       </c>
       <c r="C86" s="2">
-        <v>72757.8947368421</v>
+        <v>72757.894736842107</v>
       </c>
       <c r="D86" s="2">
-        <v>43.8713493347168</v>
+        <v>43.871349334716797</v>
       </c>
       <c r="E86" s="2">
-        <v>7.25136852264404</v>
+        <v>7.2513685226440403</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1950,13 +1962,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>43654.7368421053</v>
+        <v>43654.736842105303</v>
       </c>
       <c r="C87" s="2">
-        <v>90947.3684210526</v>
+        <v>90947.368421052597</v>
       </c>
       <c r="D87" s="2">
-        <v>44.0350646972656</v>
+        <v>44.035064697265597</v>
       </c>
       <c r="E87" s="2">
         <v>7.24655961990356</v>
@@ -1967,16 +1979,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>43654.7368421053</v>
+        <v>43654.736842105303</v>
       </c>
       <c r="C88" s="2">
         <v>109136.842105263</v>
       </c>
       <c r="D88" s="2">
-        <v>44.1987762451172</v>
+        <v>44.198776245117202</v>
       </c>
       <c r="E88" s="2">
-        <v>7.24171018600464</v>
+        <v>7.2417101860046396</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1984,16 +1996,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>43654.7368421053</v>
+        <v>43654.736842105303</v>
       </c>
       <c r="C89" s="2">
         <v>127326.315789474</v>
       </c>
       <c r="D89" s="2">
-        <v>44.3624839782715</v>
+        <v>44.362483978271499</v>
       </c>
       <c r="E89" s="2">
-        <v>7.23681974411011</v>
+        <v>7.2368197441101101</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2001,16 +2013,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>43654.7368421053</v>
+        <v>43654.736842105303</v>
       </c>
       <c r="C90" s="2">
-        <v>145515.789473684</v>
+        <v>145515.78947368401</v>
       </c>
       <c r="D90" s="2">
-        <v>44.526180267334</v>
+        <v>44.526180267333999</v>
       </c>
       <c r="E90" s="2">
-        <v>7.23188734054565</v>
+        <v>7.2318873405456499</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2018,16 +2030,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>43654.7368421053</v>
+        <v>43654.736842105303</v>
       </c>
       <c r="C91" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="D91" s="2">
-        <v>44.6898765563965</v>
+        <v>44.689876556396499</v>
       </c>
       <c r="E91" s="2">
-        <v>7.22691297531128</v>
+        <v>7.2269129753112802</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2035,16 +2047,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>43654.7368421053</v>
+        <v>43654.736842105303</v>
       </c>
       <c r="C92" s="2">
-        <v>181894.736842105</v>
+        <v>181894.73684210499</v>
       </c>
       <c r="D92" s="2">
-        <v>44.8535652160645</v>
+        <v>44.853565216064503</v>
       </c>
       <c r="E92" s="2">
-        <v>7.22189569473267</v>
+        <v>7.2218956947326696</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2052,13 +2064,13 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>43654.7368421053</v>
+        <v>43654.736842105303</v>
       </c>
       <c r="C93" s="2">
-        <v>200084.210526316</v>
+        <v>200084.21052631599</v>
       </c>
       <c r="D93" s="2">
-        <v>45.0172500610352</v>
+        <v>45.017250061035199</v>
       </c>
       <c r="E93" s="2">
         <v>7.21683549880981</v>
@@ -2069,13 +2081,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>43654.7368421053</v>
+        <v>43654.736842105303</v>
       </c>
       <c r="C94" s="2">
         <v>218273.684210526</v>
       </c>
       <c r="D94" s="2">
-        <v>45.1809310913086</v>
+        <v>45.180931091308601</v>
       </c>
       <c r="E94" s="2">
         <v>7.21173191070557</v>
@@ -2086,7 +2098,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>43654.7368421053</v>
+        <v>43654.736842105303</v>
       </c>
       <c r="C95" s="2">
         <v>236463.157894737</v>
@@ -2095,7 +2107,7 @@
         <v>45.3446044921875</v>
       </c>
       <c r="E95" s="2">
-        <v>7.20658493041992</v>
+        <v>7.2065849304199201</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2103,16 +2115,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>43654.7368421053</v>
+        <v>43654.736842105303</v>
       </c>
       <c r="C96" s="2">
-        <v>254652.631578947</v>
+        <v>254652.63157894701</v>
       </c>
       <c r="D96" s="2">
-        <v>45.5082740783691</v>
+        <v>45.508274078369098</v>
       </c>
       <c r="E96" s="2">
-        <v>7.20139265060425</v>
+        <v>7.2013926506042498</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2120,16 +2132,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>43654.7368421053</v>
+        <v>43654.736842105303</v>
       </c>
       <c r="C97" s="2">
-        <v>272842.105263158</v>
+        <v>272842.10526315798</v>
       </c>
       <c r="D97" s="2">
-        <v>45.6719398498535</v>
+        <v>45.671939849853501</v>
       </c>
       <c r="E97" s="2">
-        <v>7.19615602493286</v>
+        <v>7.1961560249328604</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2137,16 +2149,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>43654.7368421053</v>
+        <v>43654.736842105303</v>
       </c>
       <c r="C98" s="2">
-        <v>291031.578947368</v>
+        <v>291031.57894736802</v>
       </c>
       <c r="D98" s="2">
-        <v>45.8355979919434</v>
+        <v>45.835597991943402</v>
       </c>
       <c r="E98" s="2">
-        <v>7.19087409973145</v>
+        <v>7.1908740997314498</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2154,10 +2166,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>43654.7368421053</v>
+        <v>43654.736842105303</v>
       </c>
       <c r="C99" s="2">
-        <v>309221.052631579</v>
+        <v>309221.05263157899</v>
       </c>
       <c r="D99" s="2">
         <v>45.9992485046387</v>
@@ -2171,16 +2183,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>43654.7368421053</v>
+        <v>43654.736842105303</v>
       </c>
       <c r="C100" s="2">
-        <v>327410.526315789</v>
+        <v>327410.52631578897</v>
       </c>
       <c r="D100" s="2">
-        <v>46.162899017334</v>
+        <v>46.162899017333999</v>
       </c>
       <c r="E100" s="2">
-        <v>7.18017196655273</v>
+        <v>7.1801719665527299</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2188,16 +2200,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>43654.7368421053</v>
+        <v>43654.736842105303</v>
       </c>
       <c r="C101" s="2">
         <v>345600</v>
       </c>
       <c r="D101" s="2">
-        <v>46.3265419006348</v>
+        <v>46.326541900634801</v>
       </c>
       <c r="E101" s="2">
-        <v>7.17475080490112</v>
+        <v>7.1747508049011204</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2205,16 +2217,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
       </c>
       <c r="D102" s="2">
-        <v>43.2143249511719</v>
+        <v>43.214324951171903</v>
       </c>
       <c r="E102" s="2">
-        <v>7.13589954376221</v>
+        <v>7.1358995437622097</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2222,16 +2234,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="C103" s="2">
-        <v>18189.4736842105</v>
+        <v>18189.473684210501</v>
       </c>
       <c r="D103" s="2">
         <v>43.3780517578125</v>
       </c>
       <c r="E103" s="2">
-        <v>7.13088989257812</v>
+        <v>7.1308898925781197</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2239,16 +2251,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="C104" s="2">
-        <v>36378.9473684211</v>
+        <v>36378.947368421097</v>
       </c>
       <c r="D104" s="2">
-        <v>43.5417709350586</v>
+        <v>43.541770935058601</v>
       </c>
       <c r="E104" s="2">
-        <v>7.12583827972412</v>
+        <v>7.1258382797241202</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2256,16 +2268,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="C105" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="D105" s="2">
-        <v>43.7054786682129</v>
+        <v>43.705478668212898</v>
       </c>
       <c r="E105" s="2">
-        <v>7.12074375152588</v>
+        <v>7.1207437515258798</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2273,16 +2285,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="C106" s="2">
-        <v>72757.8947368421</v>
+        <v>72757.894736842107</v>
       </c>
       <c r="D106" s="2">
-        <v>43.8691902160645</v>
+        <v>43.869190216064503</v>
       </c>
       <c r="E106" s="2">
-        <v>7.11560583114624</v>
+        <v>7.1156058311462402</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2290,16 +2302,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="C107" s="2">
-        <v>90947.3684210526</v>
+        <v>90947.368421052597</v>
       </c>
       <c r="D107" s="2">
-        <v>44.0328941345215</v>
+        <v>44.032894134521499</v>
       </c>
       <c r="E107" s="2">
-        <v>7.11042451858521</v>
+        <v>7.1104245185852104</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2307,7 +2319,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="C108" s="2">
         <v>109136.842105263</v>
@@ -2316,7 +2328,7 @@
         <v>44.1965942382812</v>
       </c>
       <c r="E108" s="2">
-        <v>7.10519933700562</v>
+        <v>7.1051993370056197</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2324,16 +2336,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="C109" s="2">
         <v>127326.315789474</v>
       </c>
       <c r="D109" s="2">
-        <v>44.3602867126465</v>
+        <v>44.360286712646499</v>
       </c>
       <c r="E109" s="2">
-        <v>7.09992933273315</v>
+        <v>7.0999293327331499</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2341,16 +2353,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="C110" s="2">
-        <v>145515.789473684</v>
+        <v>145515.78947368401</v>
       </c>
       <c r="D110" s="2">
-        <v>44.5239715576172</v>
+        <v>44.523971557617202</v>
       </c>
       <c r="E110" s="2">
-        <v>7.09461450576782</v>
+        <v>7.0946145057678196</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2358,13 +2370,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="C111" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="D111" s="2">
-        <v>44.6876525878906</v>
+        <v>44.687652587890597</v>
       </c>
       <c r="E111" s="2">
         <v>7.08925437927246</v>
@@ -2375,16 +2387,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="C112" s="2">
-        <v>181894.736842105</v>
+        <v>181894.73684210499</v>
       </c>
       <c r="D112" s="2">
-        <v>44.8513336181641</v>
+        <v>44.851333618164098</v>
       </c>
       <c r="E112" s="2">
-        <v>7.08384847640991</v>
+        <v>7.0838484764099103</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2392,16 +2404,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="C113" s="2">
-        <v>200084.210526316</v>
+        <v>200084.21052631599</v>
       </c>
       <c r="D113" s="2">
-        <v>45.015007019043</v>
+        <v>45.015007019042997</v>
       </c>
       <c r="E113" s="2">
-        <v>7.07839584350586</v>
+        <v>7.0783958435058603</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2409,13 +2421,13 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="C114" s="2">
         <v>218273.684210526</v>
       </c>
       <c r="D114" s="2">
-        <v>45.1786727905273</v>
+        <v>45.178672790527301</v>
       </c>
       <c r="E114" s="2">
         <v>7.07289695739746</v>
@@ -2426,16 +2438,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="C115" s="2">
         <v>236463.157894737</v>
       </c>
       <c r="D115" s="2">
-        <v>45.3423309326172</v>
+        <v>45.342330932617202</v>
       </c>
       <c r="E115" s="2">
-        <v>7.06735038757324</v>
+        <v>7.0673503875732404</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2443,16 +2455,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="C116" s="2">
-        <v>254652.631578947</v>
+        <v>254652.63157894701</v>
       </c>
       <c r="D116" s="2">
-        <v>45.505989074707</v>
+        <v>45.505989074707003</v>
       </c>
       <c r="E116" s="2">
-        <v>7.0617561340332</v>
+        <v>7.0617561340331996</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2460,13 +2472,13 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="C117" s="2">
-        <v>272842.105263158</v>
+        <v>272842.10526315798</v>
       </c>
       <c r="D117" s="2">
-        <v>45.6696395874023</v>
+        <v>45.669639587402301</v>
       </c>
       <c r="E117" s="2">
         <v>7.05611324310303</v>
@@ -2477,16 +2489,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="C118" s="2">
-        <v>291031.578947368</v>
+        <v>291031.57894736802</v>
       </c>
       <c r="D118" s="2">
-        <v>45.8332862854004</v>
+        <v>45.833286285400398</v>
       </c>
       <c r="E118" s="2">
-        <v>7.05042171478271</v>
+        <v>7.0504217147827104</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2494,16 +2506,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="C119" s="2">
-        <v>309221.052631579</v>
+        <v>309221.05263157899</v>
       </c>
       <c r="D119" s="2">
-        <v>45.9969253540039</v>
+        <v>45.996925354003899</v>
       </c>
       <c r="E119" s="2">
-        <v>7.04468107223511</v>
+        <v>7.0446810722351101</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2511,16 +2523,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="C120" s="2">
-        <v>327410.526315789</v>
+        <v>327410.52631578897</v>
       </c>
       <c r="D120" s="2">
-        <v>46.1605606079102</v>
+        <v>46.160560607910199</v>
       </c>
       <c r="E120" s="2">
-        <v>7.03889036178589</v>
+        <v>7.0388903617858896</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2528,16 +2540,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="C121" s="2">
         <v>345600</v>
       </c>
       <c r="D121" s="2">
-        <v>46.3241920471191</v>
+        <v>46.324192047119098</v>
       </c>
       <c r="E121" s="2">
-        <v>7.0330491065979</v>
+        <v>7.0330491065979004</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2551,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="D122" s="2">
-        <v>43.2120590209961</v>
+        <v>43.212059020996101</v>
       </c>
       <c r="E122" s="2">
-        <v>7.00161266326904</v>
+        <v>7.0016126632690403</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2565,13 +2577,13 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C123" s="2">
-        <v>18189.4736842105</v>
+        <v>18189.473684210501</v>
       </c>
       <c r="D123" s="2">
-        <v>43.3757705688477</v>
+        <v>43.375770568847699</v>
       </c>
       <c r="E123" s="2">
-        <v>6.99624252319336</v>
+        <v>6.9962425231933603</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2582,13 +2594,13 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C124" s="2">
-        <v>36378.9473684211</v>
+        <v>36378.947368421097</v>
       </c>
       <c r="D124" s="2">
-        <v>43.5394744873047</v>
+        <v>43.539474487304702</v>
       </c>
       <c r="E124" s="2">
-        <v>6.9908275604248</v>
+        <v>6.9908275604248002</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2599,13 +2611,13 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C125" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="D125" s="2">
-        <v>43.7031745910645</v>
+        <v>43.703174591064503</v>
       </c>
       <c r="E125" s="2">
-        <v>6.9853663444519</v>
+        <v>6.9853663444518999</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2616,10 +2628,10 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C126" s="2">
-        <v>72757.8947368421</v>
+        <v>72757.894736842107</v>
       </c>
       <c r="D126" s="2">
-        <v>43.866870880127</v>
+        <v>43.866870880127003</v>
       </c>
       <c r="E126" s="2">
         <v>6.97985935211182</v>
@@ -2633,10 +2645,10 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C127" s="2">
-        <v>90947.3684210526</v>
+        <v>90947.368421052597</v>
       </c>
       <c r="D127" s="2">
-        <v>44.0305595397949</v>
+        <v>44.030559539794901</v>
       </c>
       <c r="E127" s="2">
         <v>6.97430515289307</v>
@@ -2653,10 +2665,10 @@
         <v>109136.842105263</v>
       </c>
       <c r="D128" s="2">
-        <v>44.1942481994629</v>
+        <v>44.194248199462898</v>
       </c>
       <c r="E128" s="2">
-        <v>6.96870374679565</v>
+        <v>6.9687037467956499</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2670,10 +2682,10 @@
         <v>127326.315789474</v>
       </c>
       <c r="D129" s="2">
-        <v>44.3579254150391</v>
+        <v>44.357925415039098</v>
       </c>
       <c r="E129" s="2">
-        <v>6.96305513381958</v>
+        <v>6.9630551338195801</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2684,10 +2696,10 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C130" s="2">
-        <v>145515.789473684</v>
+        <v>145515.78947368401</v>
       </c>
       <c r="D130" s="2">
-        <v>44.521598815918</v>
+        <v>44.521598815917997</v>
       </c>
       <c r="E130" s="2">
         <v>6.95735836029053</v>
@@ -2701,13 +2713,13 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C131" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="D131" s="2">
-        <v>44.6852684020996</v>
+        <v>44.685268402099602</v>
       </c>
       <c r="E131" s="2">
-        <v>6.95161247253418</v>
+        <v>6.9516124725341797</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2718,13 +2730,13 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C132" s="2">
-        <v>181894.736842105</v>
+        <v>181894.73684210499</v>
       </c>
       <c r="D132" s="2">
-        <v>44.8489303588867</v>
+        <v>44.848930358886697</v>
       </c>
       <c r="E132" s="2">
-        <v>6.9458179473877</v>
+        <v>6.9458179473876998</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2735,13 +2747,13 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C133" s="2">
-        <v>200084.210526316</v>
+        <v>200084.21052631599</v>
       </c>
       <c r="D133" s="2">
         <v>45.0125923156738</v>
       </c>
       <c r="E133" s="2">
-        <v>6.9399733543396</v>
+        <v>6.9399733543395996</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2755,10 +2767,10 @@
         <v>218273.684210526</v>
       </c>
       <c r="D134" s="2">
-        <v>45.1762466430664</v>
+        <v>45.176246643066399</v>
       </c>
       <c r="E134" s="2">
-        <v>6.93407869338989</v>
+        <v>6.9340786933898899</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2772,10 +2784,10 @@
         <v>236463.157894737</v>
       </c>
       <c r="D135" s="2">
-        <v>45.3398895263672</v>
+        <v>45.339889526367202</v>
       </c>
       <c r="E135" s="2">
-        <v>6.92813301086426</v>
+        <v>6.9281330108642596</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2786,10 +2798,10 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C136" s="2">
-        <v>254652.631578947</v>
+        <v>254652.63157894701</v>
       </c>
       <c r="D136" s="2">
-        <v>45.503532409668</v>
+        <v>45.503532409667997</v>
       </c>
       <c r="E136" s="2">
         <v>6.92213678359985</v>
@@ -2803,13 +2815,13 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C137" s="2">
-        <v>272842.105263158</v>
+        <v>272842.10526315798</v>
       </c>
       <c r="D137" s="2">
-        <v>45.6671714782715</v>
+        <v>45.667171478271499</v>
       </c>
       <c r="E137" s="2">
-        <v>6.91608810424805</v>
+        <v>6.9160881042480504</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2820,13 +2832,13 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C138" s="2">
-        <v>291031.578947368</v>
+        <v>291031.57894736802</v>
       </c>
       <c r="D138" s="2">
-        <v>45.8308029174805</v>
+        <v>45.830802917480497</v>
       </c>
       <c r="E138" s="2">
-        <v>6.909987449646</v>
+        <v>6.9099874496459996</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2837,13 +2849,13 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C139" s="2">
-        <v>309221.052631579</v>
+        <v>309221.05263157899</v>
       </c>
       <c r="D139" s="2">
-        <v>45.9944267272949</v>
+        <v>45.994426727294901</v>
       </c>
       <c r="E139" s="2">
-        <v>6.90383386611938</v>
+        <v>6.9038338661193803</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2854,10 +2866,10 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C140" s="2">
-        <v>327410.526315789</v>
+        <v>327410.52631578897</v>
       </c>
       <c r="D140" s="2">
-        <v>46.1580505371094</v>
+        <v>46.158050537109403</v>
       </c>
       <c r="E140" s="2">
         <v>6.8976263999939</v>
@@ -2874,10 +2886,10 @@
         <v>345600</v>
       </c>
       <c r="D141" s="2">
-        <v>46.3216667175293</v>
+        <v>46.321666717529297</v>
       </c>
       <c r="E141" s="2">
-        <v>6.89136505126953</v>
+        <v>6.8913650512695304</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2885,16 +2897,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>76395.7894736842</v>
+        <v>76395.789473684199</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
       </c>
       <c r="D142" s="2">
-        <v>43.2096328735352</v>
+        <v>43.209632873535199</v>
       </c>
       <c r="E142" s="2">
-        <v>6.8673415184021</v>
+        <v>6.8673415184020996</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2902,13 +2914,13 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>76395.7894736842</v>
+        <v>76395.789473684199</v>
       </c>
       <c r="C143" s="2">
-        <v>18189.4736842105</v>
+        <v>18189.473684210501</v>
       </c>
       <c r="D143" s="2">
-        <v>43.3733291625977</v>
+        <v>43.373329162597699</v>
       </c>
       <c r="E143" s="2">
         <v>6.86161136627197</v>
@@ -2919,16 +2931,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>76395.7894736842</v>
+        <v>76395.789473684199</v>
       </c>
       <c r="C144" s="2">
-        <v>36378.9473684211</v>
+        <v>36378.947368421097</v>
       </c>
       <c r="D144" s="2">
-        <v>43.5370216369629</v>
+        <v>43.537021636962898</v>
       </c>
       <c r="E144" s="2">
-        <v>6.85583257675171</v>
+        <v>6.8558325767517099</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2936,16 +2948,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>76395.7894736842</v>
+        <v>76395.789473684199</v>
       </c>
       <c r="C145" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="D145" s="2">
-        <v>43.7007064819336</v>
+        <v>43.700706481933601</v>
       </c>
       <c r="E145" s="2">
-        <v>6.85000562667847</v>
+        <v>6.8500056266784703</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2953,16 +2965,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>76395.7894736842</v>
+        <v>76395.789473684199</v>
       </c>
       <c r="C146" s="2">
-        <v>72757.8947368421</v>
+        <v>72757.894736842107</v>
       </c>
       <c r="D146" s="2">
-        <v>43.864387512207</v>
+        <v>43.864387512207003</v>
       </c>
       <c r="E146" s="2">
-        <v>6.84412908554077</v>
+        <v>6.8441290855407697</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2970,16 +2982,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>76395.7894736842</v>
+        <v>76395.789473684199</v>
       </c>
       <c r="C147" s="2">
-        <v>90947.3684210526</v>
+        <v>90947.368421052597</v>
       </c>
       <c r="D147" s="2">
-        <v>44.0280647277832</v>
+        <v>44.028064727783203</v>
       </c>
       <c r="E147" s="2">
-        <v>6.83820247650146</v>
+        <v>6.8382024765014604</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2987,16 +2999,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>76395.7894736842</v>
+        <v>76395.789473684199</v>
       </c>
       <c r="C148" s="2">
         <v>109136.842105263</v>
       </c>
       <c r="D148" s="2">
-        <v>44.1917381286621</v>
+        <v>44.191738128662102</v>
       </c>
       <c r="E148" s="2">
-        <v>6.83222579956055</v>
+        <v>6.8322257995605504</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3004,16 +3016,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>76395.7894736842</v>
+        <v>76395.789473684199</v>
       </c>
       <c r="C149" s="2">
         <v>127326.315789474</v>
       </c>
       <c r="D149" s="2">
-        <v>44.3554039001465</v>
+        <v>44.355403900146499</v>
       </c>
       <c r="E149" s="2">
-        <v>6.8261981010437</v>
+        <v>6.8261981010437003</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3021,16 +3033,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>76395.7894736842</v>
+        <v>76395.789473684199</v>
       </c>
       <c r="C150" s="2">
-        <v>145515.789473684</v>
+        <v>145515.78947368401</v>
       </c>
       <c r="D150" s="2">
-        <v>44.5190582275391</v>
+        <v>44.519058227539098</v>
       </c>
       <c r="E150" s="2">
-        <v>6.82011890411377</v>
+        <v>6.8201189041137704</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3038,16 +3050,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>76395.7894736842</v>
+        <v>76395.789473684199</v>
       </c>
       <c r="C151" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="D151" s="2">
-        <v>44.6827163696289</v>
+        <v>44.682716369628899</v>
       </c>
       <c r="E151" s="2">
-        <v>6.81398773193359</v>
+        <v>6.8139877319335902</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3055,16 +3067,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>76395.7894736842</v>
+        <v>76395.789473684199</v>
       </c>
       <c r="C152" s="2">
-        <v>181894.736842105</v>
+        <v>181894.73684210499</v>
       </c>
       <c r="D152" s="2">
-        <v>44.8463668823242</v>
+        <v>44.846366882324197</v>
       </c>
       <c r="E152" s="2">
-        <v>6.80780458450317</v>
+        <v>6.8078045845031703</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3072,16 +3084,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>76395.7894736842</v>
+        <v>76395.789473684199</v>
       </c>
       <c r="C153" s="2">
-        <v>200084.210526316</v>
+        <v>200084.21052631599</v>
       </c>
       <c r="D153" s="2">
         <v>45.010009765625</v>
       </c>
       <c r="E153" s="2">
-        <v>6.80156803131104</v>
+        <v>6.8015680313110396</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3089,16 +3101,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>76395.7894736842</v>
+        <v>76395.789473684199</v>
       </c>
       <c r="C154" s="2">
         <v>218273.684210526</v>
       </c>
       <c r="D154" s="2">
-        <v>45.1736488342285</v>
+        <v>45.173648834228501</v>
       </c>
       <c r="E154" s="2">
-        <v>6.79527807235718</v>
+        <v>6.7952780723571804</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3106,7 +3118,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>76395.7894736842</v>
+        <v>76395.789473684199</v>
       </c>
       <c r="C155" s="2">
         <v>236463.157894737</v>
@@ -3115,7 +3127,7 @@
         <v>45.3372802734375</v>
       </c>
       <c r="E155" s="2">
-        <v>6.78893423080444</v>
+        <v>6.7889342308044398</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3123,16 +3135,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>76395.7894736842</v>
+        <v>76395.789473684199</v>
       </c>
       <c r="C156" s="2">
-        <v>254652.631578947</v>
+        <v>254652.63157894701</v>
       </c>
       <c r="D156" s="2">
-        <v>45.5009078979492</v>
+        <v>45.500907897949197</v>
       </c>
       <c r="E156" s="2">
-        <v>6.78253555297852</v>
+        <v>6.7825355529785201</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3140,16 +3152,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>76395.7894736842</v>
+        <v>76395.789473684199</v>
       </c>
       <c r="C157" s="2">
-        <v>272842.105263158</v>
+        <v>272842.10526315798</v>
       </c>
       <c r="D157" s="2">
         <v>45.6645317077637</v>
       </c>
       <c r="E157" s="2">
-        <v>6.77608156204224</v>
+        <v>6.7760815620422399</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3157,13 +3169,13 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>76395.7894736842</v>
+        <v>76395.789473684199</v>
       </c>
       <c r="C158" s="2">
-        <v>291031.578947368</v>
+        <v>291031.57894736802</v>
       </c>
       <c r="D158" s="2">
-        <v>45.8281478881836</v>
+        <v>45.828147888183601</v>
       </c>
       <c r="E158" s="2">
         <v>6.76957130432129</v>
@@ -3174,16 +3186,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>76395.7894736842</v>
+        <v>76395.789473684199</v>
       </c>
       <c r="C159" s="2">
-        <v>309221.052631579</v>
+        <v>309221.05263157899</v>
       </c>
       <c r="D159" s="2">
-        <v>45.991756439209</v>
+        <v>45.991756439208999</v>
       </c>
       <c r="E159" s="2">
-        <v>6.76300525665283</v>
+        <v>6.7630052566528303</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3191,16 +3203,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>76395.7894736842</v>
+        <v>76395.789473684199</v>
       </c>
       <c r="C160" s="2">
-        <v>327410.526315789</v>
+        <v>327410.52631578897</v>
       </c>
       <c r="D160" s="2">
-        <v>46.1553611755371</v>
+        <v>46.155361175537102</v>
       </c>
       <c r="E160" s="2">
-        <v>6.75638198852539</v>
+        <v>6.7563819885253897</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3208,16 +3220,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>76395.7894736842</v>
+        <v>76395.789473684199</v>
       </c>
       <c r="C161" s="2">
         <v>345600</v>
       </c>
       <c r="D161" s="2">
-        <v>46.318962097168</v>
+        <v>46.318962097167997</v>
       </c>
       <c r="E161" s="2">
-        <v>6.74970102310181</v>
+        <v>6.7497010231018102</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3225,7 +3237,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>87309.4736842105</v>
+        <v>87309.473684210505</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -3234,7 +3246,7 @@
         <v>43.2070503234863</v>
       </c>
       <c r="E162" s="2">
-        <v>6.73308753967285</v>
+        <v>6.7330875396728498</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3242,16 +3254,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>87309.4736842105</v>
+        <v>87309.473684210505</v>
       </c>
       <c r="C163" s="2">
-        <v>18189.4736842105</v>
+        <v>18189.473684210501</v>
       </c>
       <c r="D163" s="2">
-        <v>43.3707313537598</v>
+        <v>43.370731353759801</v>
       </c>
       <c r="E163" s="2">
-        <v>6.72699737548828</v>
+        <v>6.7269973754882804</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3259,16 +3271,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>87309.4736842105</v>
+        <v>87309.473684210505</v>
       </c>
       <c r="C164" s="2">
-        <v>36378.9473684211</v>
+        <v>36378.947368421097</v>
       </c>
       <c r="D164" s="2">
-        <v>43.5344123840332</v>
+        <v>43.534412384033203</v>
       </c>
       <c r="E164" s="2">
-        <v>6.72085618972778</v>
+        <v>6.7208561897277797</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3276,16 +3288,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>87309.4736842105</v>
+        <v>87309.473684210505</v>
       </c>
       <c r="C165" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="D165" s="2">
-        <v>43.6980781555176</v>
+        <v>43.698078155517599</v>
       </c>
       <c r="E165" s="2">
-        <v>6.71466255187988</v>
+        <v>6.7146625518798801</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3293,16 +3305,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>87309.4736842105</v>
+        <v>87309.473684210505</v>
       </c>
       <c r="C166" s="2">
-        <v>72757.8947368421</v>
+        <v>72757.894736842107</v>
       </c>
       <c r="D166" s="2">
-        <v>43.8617477416992</v>
+        <v>43.861747741699197</v>
       </c>
       <c r="E166" s="2">
-        <v>6.70841693878174</v>
+        <v>6.7084169387817401</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3310,16 +3322,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>87309.4736842105</v>
+        <v>87309.473684210505</v>
       </c>
       <c r="C167" s="2">
-        <v>90947.3684210526</v>
+        <v>90947.368421052597</v>
       </c>
       <c r="D167" s="2">
         <v>44.0254096984863</v>
       </c>
       <c r="E167" s="2">
-        <v>6.70211791992188</v>
+        <v>6.7021179199218803</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3327,16 +3339,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>87309.4736842105</v>
+        <v>87309.473684210505</v>
       </c>
       <c r="C168" s="2">
         <v>109136.842105263</v>
       </c>
       <c r="D168" s="2">
-        <v>44.1890640258789</v>
+        <v>44.189064025878899</v>
       </c>
       <c r="E168" s="2">
-        <v>6.69576597213745</v>
+        <v>6.6957659721374503</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3344,16 +3356,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>87309.4736842105</v>
+        <v>87309.473684210505</v>
       </c>
       <c r="C169" s="2">
         <v>127326.315789474</v>
       </c>
       <c r="D169" s="2">
-        <v>44.3527145385742</v>
+        <v>44.352714538574197</v>
       </c>
       <c r="E169" s="2">
-        <v>6.68935966491699</v>
+        <v>6.6893596649169904</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3361,16 +3373,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>87309.4736842105</v>
+        <v>87309.473684210505</v>
       </c>
       <c r="C170" s="2">
-        <v>145515.789473684</v>
+        <v>145515.78947368401</v>
       </c>
       <c r="D170" s="2">
         <v>44.516357421875</v>
       </c>
       <c r="E170" s="2">
-        <v>6.68289852142334</v>
+        <v>6.6828985214233398</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3378,16 +3390,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>87309.4736842105</v>
+        <v>87309.473684210505</v>
       </c>
       <c r="C171" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="D171" s="2">
-        <v>44.6799964904785</v>
+        <v>44.679996490478501</v>
       </c>
       <c r="E171" s="2">
-        <v>6.67638254165649</v>
+        <v>6.6763825416564897</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3395,16 +3407,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>87309.4736842105</v>
+        <v>87309.473684210505</v>
       </c>
       <c r="C172" s="2">
-        <v>181894.736842105</v>
+        <v>181894.73684210499</v>
       </c>
       <c r="D172" s="2">
-        <v>44.8436317443848</v>
+        <v>44.843631744384801</v>
       </c>
       <c r="E172" s="2">
-        <v>6.66981077194214</v>
+        <v>6.6698107719421396</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3412,16 +3424,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>87309.4736842105</v>
+        <v>87309.473684210505</v>
       </c>
       <c r="C173" s="2">
-        <v>200084.210526316</v>
+        <v>200084.21052631599</v>
       </c>
       <c r="D173" s="2">
-        <v>45.0072593688965</v>
+        <v>45.007259368896499</v>
       </c>
       <c r="E173" s="2">
-        <v>6.66318273544312</v>
+        <v>6.6631827354431197</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3429,16 +3441,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>87309.4736842105</v>
+        <v>87309.473684210505</v>
       </c>
       <c r="C174" s="2">
         <v>218273.684210526</v>
       </c>
       <c r="D174" s="2">
-        <v>45.1708831787109</v>
+        <v>45.170883178710902</v>
       </c>
       <c r="E174" s="2">
-        <v>6.65649747848511</v>
+        <v>6.6564974784851101</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3446,16 +3458,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>87309.4736842105</v>
+        <v>87309.473684210505</v>
       </c>
       <c r="C175" s="2">
         <v>236463.157894737</v>
       </c>
       <c r="D175" s="2">
-        <v>45.3344993591309</v>
+        <v>45.334499359130902</v>
       </c>
       <c r="E175" s="2">
-        <v>6.64975500106812</v>
+        <v>6.6497550010681197</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3463,16 +3475,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>87309.4736842105</v>
+        <v>87309.473684210505</v>
       </c>
       <c r="C176" s="2">
-        <v>254652.631578947</v>
+        <v>254652.63157894701</v>
       </c>
       <c r="D176" s="2">
-        <v>45.4981117248535</v>
+        <v>45.498111724853501</v>
       </c>
       <c r="E176" s="2">
-        <v>6.64295434951782</v>
+        <v>6.6429543495178196</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3480,16 +3492,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>87309.4736842105</v>
+        <v>87309.473684210505</v>
       </c>
       <c r="C177" s="2">
-        <v>272842.105263158</v>
+        <v>272842.10526315798</v>
       </c>
       <c r="D177" s="2">
-        <v>45.6617164611816</v>
+        <v>45.661716461181598</v>
       </c>
       <c r="E177" s="2">
-        <v>6.63609504699707</v>
+        <v>6.6360950469970703</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3497,16 +3509,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>87309.4736842105</v>
+        <v>87309.473684210505</v>
       </c>
       <c r="C178" s="2">
-        <v>291031.578947368</v>
+        <v>291031.57894736802</v>
       </c>
       <c r="D178" s="2">
-        <v>45.8253211975098</v>
+        <v>45.825321197509801</v>
       </c>
       <c r="E178" s="2">
-        <v>6.62917613983154</v>
+        <v>6.6291761398315403</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3514,16 +3526,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>87309.4736842105</v>
+        <v>87309.473684210505</v>
       </c>
       <c r="C179" s="2">
-        <v>309221.052631579</v>
+        <v>309221.05263157899</v>
       </c>
       <c r="D179" s="2">
         <v>45.9889106750488</v>
       </c>
       <c r="E179" s="2">
-        <v>6.62219762802124</v>
+        <v>6.6221976280212402</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3531,16 +3543,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>87309.4736842105</v>
+        <v>87309.473684210505</v>
       </c>
       <c r="C180" s="2">
-        <v>327410.526315789</v>
+        <v>327410.52631578897</v>
       </c>
       <c r="D180" s="2">
-        <v>46.1525001525879</v>
+        <v>46.152500152587898</v>
       </c>
       <c r="E180" s="2">
-        <v>6.61515855789185</v>
+        <v>6.6151585578918501</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3548,16 +3560,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>87309.4736842105</v>
+        <v>87309.473684210505</v>
       </c>
       <c r="C181" s="2">
         <v>345600</v>
       </c>
       <c r="D181" s="2">
-        <v>46.3160858154297</v>
+        <v>46.316085815429702</v>
       </c>
       <c r="E181" s="2">
-        <v>6.60805749893188</v>
+        <v>6.6080574989318803</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3565,16 +3577,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>98223.1578947368</v>
+        <v>98223.157894736796</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
       </c>
       <c r="D182" s="2">
-        <v>43.2043075561523</v>
+        <v>43.204307556152301</v>
       </c>
       <c r="E182" s="2">
-        <v>6.59885215759277</v>
+        <v>6.5988521575927699</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3582,16 +3594,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>98223.1578947368</v>
+        <v>98223.157894736796</v>
       </c>
       <c r="C183" s="2">
-        <v>18189.4736842105</v>
+        <v>18189.473684210501</v>
       </c>
       <c r="D183" s="2">
-        <v>43.367977142334</v>
+        <v>43.367977142333999</v>
       </c>
       <c r="E183" s="2">
-        <v>6.59240245819092</v>
+        <v>6.5924024581909197</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3599,13 +3611,13 @@
         <v>182</v>
       </c>
       <c r="B184" s="2">
-        <v>98223.1578947368</v>
+        <v>98223.157894736796</v>
       </c>
       <c r="C184" s="2">
-        <v>36378.9473684211</v>
+        <v>36378.947368421097</v>
       </c>
       <c r="D184" s="2">
-        <v>43.5316390991211</v>
+        <v>43.531639099121101</v>
       </c>
       <c r="E184" s="2">
         <v>6.58589792251587</v>
@@ -3616,16 +3628,16 @@
         <v>183</v>
       </c>
       <c r="B185" s="2">
-        <v>98223.1578947368</v>
+        <v>98223.157894736796</v>
       </c>
       <c r="C185" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="D185" s="2">
         <v>43.6952934265137</v>
       </c>
       <c r="E185" s="2">
-        <v>6.57933902740479</v>
+        <v>6.5793390274047896</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3633,16 +3645,16 @@
         <v>184</v>
       </c>
       <c r="B186" s="2">
-        <v>98223.1578947368</v>
+        <v>98223.157894736796</v>
       </c>
       <c r="C186" s="2">
-        <v>72757.8947368421</v>
+        <v>72757.894736842107</v>
       </c>
       <c r="D186" s="2">
-        <v>43.858943939209</v>
+        <v>43.858943939208999</v>
       </c>
       <c r="E186" s="2">
-        <v>6.57272386550903</v>
+        <v>6.5727238655090297</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3650,16 +3662,16 @@
         <v>185</v>
       </c>
       <c r="B187" s="2">
-        <v>98223.1578947368</v>
+        <v>98223.157894736796</v>
       </c>
       <c r="C187" s="2">
-        <v>90947.3684210526</v>
+        <v>90947.368421052597</v>
       </c>
       <c r="D187" s="2">
-        <v>44.022590637207</v>
+        <v>44.022590637207003</v>
       </c>
       <c r="E187" s="2">
-        <v>6.56605339050293</v>
+        <v>6.5660533905029297</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3667,13 +3679,13 @@
         <v>186</v>
       </c>
       <c r="B188" s="2">
-        <v>98223.1578947368</v>
+        <v>98223.157894736796</v>
       </c>
       <c r="C188" s="2">
         <v>109136.842105263</v>
       </c>
       <c r="D188" s="2">
-        <v>44.1862297058105</v>
+        <v>44.186229705810497</v>
       </c>
       <c r="E188" s="2">
         <v>6.55932569503784</v>
@@ -3684,16 +3696,16 @@
         <v>187</v>
       </c>
       <c r="B189" s="2">
-        <v>98223.1578947368</v>
+        <v>98223.157894736796</v>
       </c>
       <c r="C189" s="2">
         <v>127326.315789474</v>
       </c>
       <c r="D189" s="2">
-        <v>44.3498649597168</v>
+        <v>44.349864959716797</v>
       </c>
       <c r="E189" s="2">
-        <v>6.55254077911377</v>
+        <v>6.5525407791137704</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3701,16 +3713,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="2">
-        <v>98223.1578947368</v>
+        <v>98223.157894736796</v>
       </c>
       <c r="C190" s="2">
-        <v>145515.789473684</v>
+        <v>145515.78947368401</v>
       </c>
       <c r="D190" s="2">
         <v>44.5134887695312</v>
       </c>
       <c r="E190" s="2">
-        <v>6.54569864273071</v>
+        <v>6.5456986427307102</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3718,13 +3730,13 @@
         <v>189</v>
       </c>
       <c r="B191" s="2">
-        <v>98223.1578947368</v>
+        <v>98223.157894736796</v>
       </c>
       <c r="C191" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="D191" s="2">
-        <v>44.6771125793457</v>
+        <v>44.677112579345703</v>
       </c>
       <c r="E191" s="2">
         <v>6.53879737854004</v>
@@ -3735,16 +3747,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="2">
-        <v>98223.1578947368</v>
+        <v>98223.157894736796</v>
       </c>
       <c r="C192" s="2">
-        <v>181894.736842105</v>
+        <v>181894.73684210499</v>
       </c>
       <c r="D192" s="2">
-        <v>44.8407325744629</v>
+        <v>44.840732574462898</v>
       </c>
       <c r="E192" s="2">
-        <v>6.53183746337891</v>
+        <v>6.5318374633789098</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3752,16 +3764,16 @@
         <v>191</v>
       </c>
       <c r="B193" s="2">
-        <v>98223.1578947368</v>
+        <v>98223.157894736796</v>
       </c>
       <c r="C193" s="2">
-        <v>200084.210526316</v>
+        <v>200084.21052631599</v>
       </c>
       <c r="D193" s="2">
-        <v>45.0043449401855</v>
+        <v>45.004344940185497</v>
       </c>
       <c r="E193" s="2">
-        <v>6.52481746673584</v>
+        <v>6.5248174667358398</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3769,7 +3781,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="2">
-        <v>98223.1578947368</v>
+        <v>98223.157894736796</v>
       </c>
       <c r="C194" s="2">
         <v>218273.684210526</v>
@@ -3778,7 +3790,7 @@
         <v>45.1679496765137</v>
       </c>
       <c r="E194" s="2">
-        <v>6.517737865448</v>
+        <v>6.5177378654479998</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3786,16 +3798,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="2">
-        <v>98223.1578947368</v>
+        <v>98223.157894736796</v>
       </c>
       <c r="C195" s="2">
         <v>236463.157894737</v>
       </c>
       <c r="D195" s="2">
-        <v>45.3315467834473</v>
+        <v>45.331546783447301</v>
       </c>
       <c r="E195" s="2">
-        <v>6.51059722900391</v>
+        <v>6.5105972290039098</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3803,16 +3815,16 @@
         <v>194</v>
       </c>
       <c r="B196" s="2">
-        <v>98223.1578947368</v>
+        <v>98223.157894736796</v>
       </c>
       <c r="C196" s="2">
-        <v>254652.631578947</v>
+        <v>254652.63157894701</v>
       </c>
       <c r="D196" s="2">
-        <v>45.4951438903809</v>
+        <v>45.495143890380902</v>
       </c>
       <c r="E196" s="2">
-        <v>6.50339460372925</v>
+        <v>6.5033946037292498</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3820,16 +3832,16 @@
         <v>195</v>
       </c>
       <c r="B197" s="2">
-        <v>98223.1578947368</v>
+        <v>98223.157894736796</v>
       </c>
       <c r="C197" s="2">
-        <v>272842.105263158</v>
+        <v>272842.10526315798</v>
       </c>
       <c r="D197" s="2">
-        <v>45.6587333679199</v>
+        <v>45.658733367919901</v>
       </c>
       <c r="E197" s="2">
-        <v>6.49612998962402</v>
+        <v>6.4961299896240199</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3837,16 +3849,16 @@
         <v>196</v>
       </c>
       <c r="B198" s="2">
-        <v>98223.1578947368</v>
+        <v>98223.157894736796</v>
       </c>
       <c r="C198" s="2">
-        <v>291031.578947368</v>
+        <v>291031.57894736802</v>
       </c>
       <c r="D198" s="2">
-        <v>45.8223190307617</v>
+        <v>45.822319030761697</v>
       </c>
       <c r="E198" s="2">
-        <v>6.48880290985107</v>
+        <v>6.4888029098510698</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3854,16 +3866,16 @@
         <v>197</v>
       </c>
       <c r="B199" s="2">
-        <v>98223.1578947368</v>
+        <v>98223.157894736796</v>
       </c>
       <c r="C199" s="2">
-        <v>309221.052631579</v>
+        <v>309221.05263157899</v>
       </c>
       <c r="D199" s="2">
-        <v>45.9858932495117</v>
+        <v>45.985893249511697</v>
       </c>
       <c r="E199" s="2">
-        <v>6.48141193389893</v>
+        <v>6.4814119338989302</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3871,16 +3883,16 @@
         <v>198</v>
       </c>
       <c r="B200" s="2">
-        <v>98223.1578947368</v>
+        <v>98223.157894736796</v>
       </c>
       <c r="C200" s="2">
-        <v>327410.526315789</v>
+        <v>327410.52631578897</v>
       </c>
       <c r="D200" s="2">
-        <v>46.1494674682617</v>
+        <v>46.149467468261697</v>
       </c>
       <c r="E200" s="2">
-        <v>6.47395706176758</v>
+        <v>6.4739570617675799</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3888,16 +3900,16 @@
         <v>199</v>
       </c>
       <c r="B201" s="2">
-        <v>98223.1578947368</v>
+        <v>98223.157894736796</v>
       </c>
       <c r="C201" s="2">
         <v>345600</v>
       </c>
       <c r="D201" s="2">
-        <v>46.3130340576172</v>
+        <v>46.313034057617202</v>
       </c>
       <c r="E201" s="2">
-        <v>6.46643686294556</v>
+        <v>6.4664368629455602</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3911,10 +3923,10 @@
         <v>0</v>
       </c>
       <c r="D202" s="2">
-        <v>43.2014122009277</v>
+        <v>43.201412200927699</v>
       </c>
       <c r="E202" s="2">
-        <v>6.46463584899902</v>
+        <v>6.4646358489990199</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3925,13 +3937,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C203" s="2">
-        <v>18189.4736842105</v>
+        <v>18189.473684210501</v>
       </c>
       <c r="D203" s="2">
-        <v>43.365062713623</v>
+        <v>43.365062713622997</v>
       </c>
       <c r="E203" s="2">
-        <v>6.45782613754272</v>
+        <v>6.4578261375427202</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3942,13 +3954,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C204" s="2">
-        <v>36378.9473684211</v>
+        <v>36378.947368421097</v>
       </c>
       <c r="D204" s="2">
-        <v>43.5287094116211</v>
+        <v>43.528709411621101</v>
       </c>
       <c r="E204" s="2">
-        <v>6.45095920562744</v>
+        <v>6.4509592056274396</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3959,13 +3971,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C205" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="D205" s="2">
-        <v>43.6923446655273</v>
+        <v>43.692344665527301</v>
       </c>
       <c r="E205" s="2">
-        <v>6.44403457641602</v>
+        <v>6.4440345764160201</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3976,10 +3988,10 @@
         <v>109136.842105263</v>
       </c>
       <c r="C206" s="2">
-        <v>72757.8947368421</v>
+        <v>72757.894736842107</v>
       </c>
       <c r="D206" s="2">
-        <v>43.8559799194336</v>
+        <v>43.855979919433601</v>
       </c>
       <c r="E206" s="2">
         <v>6.43705081939697</v>
@@ -3993,13 +4005,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C207" s="2">
-        <v>90947.3684210526</v>
+        <v>90947.368421052597</v>
       </c>
       <c r="D207" s="2">
-        <v>44.0196075439453</v>
+        <v>44.019607543945298</v>
       </c>
       <c r="E207" s="2">
-        <v>6.43000793457031</v>
+        <v>6.4300079345703098</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4013,10 +4025,10 @@
         <v>109136.842105263</v>
       </c>
       <c r="D208" s="2">
-        <v>44.1832313537598</v>
+        <v>44.183231353759801</v>
       </c>
       <c r="E208" s="2">
-        <v>6.42290544509888</v>
+        <v>6.4229054450988796</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4030,10 +4042,10 @@
         <v>127326.315789474</v>
       </c>
       <c r="D209" s="2">
-        <v>44.346851348877</v>
+        <v>44.346851348877003</v>
       </c>
       <c r="E209" s="2">
-        <v>6.41574239730835</v>
+        <v>6.4157423973083496</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4044,13 +4056,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C210" s="2">
-        <v>145515.789473684</v>
+        <v>145515.78947368401</v>
       </c>
       <c r="D210" s="2">
-        <v>44.5104560852051</v>
+        <v>44.510456085205099</v>
       </c>
       <c r="E210" s="2">
-        <v>6.40851879119873</v>
+        <v>6.4085187911987296</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4061,13 +4073,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C211" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="D211" s="2">
-        <v>44.6740646362305</v>
+        <v>44.674064636230497</v>
       </c>
       <c r="E211" s="2">
-        <v>6.40123319625854</v>
+        <v>6.4012331962585396</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4078,13 +4090,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C212" s="2">
-        <v>181894.736842105</v>
+        <v>181894.73684210499</v>
       </c>
       <c r="D212" s="2">
         <v>44.8376655578613</v>
       </c>
       <c r="E212" s="2">
-        <v>6.39388513565063</v>
+        <v>6.3938851356506303</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4095,10 +4107,10 @@
         <v>109136.842105263</v>
       </c>
       <c r="C213" s="2">
-        <v>200084.210526316</v>
+        <v>200084.21052631599</v>
       </c>
       <c r="D213" s="2">
-        <v>45.0012588500977</v>
+        <v>45.001258850097699</v>
       </c>
       <c r="E213" s="2">
         <v>6.38647413253784</v>
@@ -4115,10 +4127,10 @@
         <v>218273.684210526</v>
       </c>
       <c r="D214" s="2">
-        <v>45.1648483276367</v>
+        <v>45.164848327636697</v>
       </c>
       <c r="E214" s="2">
-        <v>6.37899923324585</v>
+        <v>6.3789992332458496</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4146,13 +4158,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C216" s="2">
-        <v>254652.631578947</v>
+        <v>254652.63157894701</v>
       </c>
       <c r="D216" s="2">
-        <v>45.4920082092285</v>
+        <v>45.492008209228501</v>
       </c>
       <c r="E216" s="2">
-        <v>6.36385679244995</v>
+        <v>6.3638567924499503</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4163,13 +4175,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C217" s="2">
-        <v>272842.105263158</v>
+        <v>272842.10526315798</v>
       </c>
       <c r="D217" s="2">
         <v>45.6555786132812</v>
       </c>
       <c r="E217" s="2">
-        <v>6.35618734359741</v>
+        <v>6.3561873435974103</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4180,13 +4192,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C218" s="2">
-        <v>291031.578947368</v>
+        <v>291031.57894736802</v>
       </c>
       <c r="D218" s="2">
-        <v>45.8191452026367</v>
+        <v>45.819145202636697</v>
       </c>
       <c r="E218" s="2">
-        <v>6.34845161437988</v>
+        <v>6.3484516143798801</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4197,13 +4209,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C219" s="2">
-        <v>309221.052631579</v>
+        <v>309221.05263157899</v>
       </c>
       <c r="D219" s="2">
-        <v>45.9827041625977</v>
+        <v>45.982704162597699</v>
       </c>
       <c r="E219" s="2">
-        <v>6.34064912796021</v>
+        <v>6.3406491279602104</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4214,13 +4226,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C220" s="2">
-        <v>327410.526315789</v>
+        <v>327410.52631578897</v>
       </c>
       <c r="D220" s="2">
         <v>46.1462593078613</v>
       </c>
       <c r="E220" s="2">
-        <v>6.3327784538269</v>
+        <v>6.3327784538268999</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4234,10 +4246,10 @@
         <v>345600</v>
       </c>
       <c r="D221" s="2">
-        <v>46.3098068237305</v>
+        <v>46.309806823730497</v>
       </c>
       <c r="E221" s="2">
-        <v>6.32483911514282</v>
+        <v>6.3248391151428196</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4251,10 +4263,10 @@
         <v>0</v>
       </c>
       <c r="D222" s="2">
-        <v>43.198356628418</v>
+        <v>43.198356628417997</v>
       </c>
       <c r="E222" s="2">
-        <v>6.33044052124023</v>
+        <v>6.3304405212402299</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4265,13 +4277,13 @@
         <v>120050.526315789</v>
       </c>
       <c r="C223" s="2">
-        <v>18189.4736842105</v>
+        <v>18189.473684210501</v>
       </c>
       <c r="D223" s="2">
-        <v>43.3619918823242</v>
+        <v>43.361991882324197</v>
       </c>
       <c r="E223" s="2">
-        <v>6.32327127456665</v>
+        <v>6.3232712745666504</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4282,13 +4294,13 @@
         <v>120050.526315789</v>
       </c>
       <c r="C224" s="2">
-        <v>36378.9473684211</v>
+        <v>36378.947368421097</v>
       </c>
       <c r="D224" s="2">
-        <v>43.5256195068359</v>
+        <v>43.525619506835902</v>
       </c>
       <c r="E224" s="2">
-        <v>6.31604194641113</v>
+        <v>6.3160419464111301</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4299,13 +4311,13 @@
         <v>120050.526315789</v>
       </c>
       <c r="C225" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="D225" s="2">
-        <v>43.6892356872559</v>
+        <v>43.689235687255902</v>
       </c>
       <c r="E225" s="2">
-        <v>6.30875158309937</v>
+        <v>6.3087515830993697</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4316,13 +4328,13 @@
         <v>120050.526315789</v>
       </c>
       <c r="C226" s="2">
-        <v>72757.8947368421</v>
+        <v>72757.894736842107</v>
       </c>
       <c r="D226" s="2">
-        <v>43.852855682373</v>
+        <v>43.852855682372997</v>
       </c>
       <c r="E226" s="2">
-        <v>6.30139970779419</v>
+        <v>6.3013997077941903</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4333,10 +4345,10 @@
         <v>120050.526315789</v>
       </c>
       <c r="C227" s="2">
-        <v>90947.3684210526</v>
+        <v>90947.368421052597</v>
       </c>
       <c r="D227" s="2">
-        <v>44.0164642333984</v>
+        <v>44.016464233398402</v>
       </c>
       <c r="E227" s="2">
         <v>6.29398488998413</v>
@@ -4356,7 +4368,7 @@
         <v>44.1800727844238</v>
       </c>
       <c r="E228" s="2">
-        <v>6.28650760650635</v>
+        <v>6.2865076065063503</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4370,10 +4382,10 @@
         <v>127326.315789474</v>
       </c>
       <c r="D229" s="2">
-        <v>44.3436698913574</v>
+        <v>44.343669891357401</v>
       </c>
       <c r="E229" s="2">
-        <v>6.27896642684937</v>
+        <v>6.2789664268493697</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4384,10 +4396,10 @@
         <v>120050.526315789</v>
       </c>
       <c r="C230" s="2">
-        <v>145515.789473684</v>
+        <v>145515.78947368401</v>
       </c>
       <c r="D230" s="2">
-        <v>44.5072593688965</v>
+        <v>44.507259368896499</v>
       </c>
       <c r="E230" s="2">
         <v>6.27136135101318</v>
@@ -4401,13 +4413,13 @@
         <v>120050.526315789</v>
       </c>
       <c r="C231" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="D231" s="2">
-        <v>44.6708488464355</v>
+        <v>44.670848846435497</v>
       </c>
       <c r="E231" s="2">
-        <v>6.26369142532349</v>
+        <v>6.2636914253234899</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4418,13 +4430,13 @@
         <v>120050.526315789</v>
       </c>
       <c r="C232" s="2">
-        <v>181894.736842105</v>
+        <v>181894.73684210499</v>
       </c>
       <c r="D232" s="2">
-        <v>44.8344306945801</v>
+        <v>44.834430694580099</v>
       </c>
       <c r="E232" s="2">
-        <v>6.25595569610596</v>
+        <v>6.2559556961059597</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4435,13 +4447,13 @@
         <v>120050.526315789</v>
       </c>
       <c r="C233" s="2">
-        <v>200084.210526316</v>
+        <v>200084.21052631599</v>
       </c>
       <c r="D233" s="2">
-        <v>44.9980087280273</v>
+        <v>44.998008728027301</v>
       </c>
       <c r="E233" s="2">
-        <v>6.24815368652344</v>
+        <v>6.2481536865234402</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4455,10 +4467,10 @@
         <v>218273.684210526</v>
       </c>
       <c r="D234" s="2">
-        <v>45.1615791320801</v>
+        <v>45.161579132080099</v>
       </c>
       <c r="E234" s="2">
-        <v>6.24028444290161</v>
+        <v>6.2402844429016104</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4472,10 +4484,10 @@
         <v>236463.157894737</v>
       </c>
       <c r="D235" s="2">
-        <v>45.3251419067383</v>
+        <v>45.325141906738303</v>
       </c>
       <c r="E235" s="2">
-        <v>6.23234844207764</v>
+        <v>6.2323484420776403</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4486,10 +4498,10 @@
         <v>120050.526315789</v>
       </c>
       <c r="C236" s="2">
-        <v>254652.631578947</v>
+        <v>254652.63157894701</v>
       </c>
       <c r="D236" s="2">
-        <v>45.4887008666992</v>
+        <v>45.488700866699197</v>
       </c>
       <c r="E236" s="2">
         <v>6.22434329986572</v>
@@ -4503,10 +4515,10 @@
         <v>120050.526315789</v>
       </c>
       <c r="C237" s="2">
-        <v>272842.105263158</v>
+        <v>272842.10526315798</v>
       </c>
       <c r="D237" s="2">
-        <v>45.6522521972656</v>
+        <v>45.652252197265597</v>
       </c>
       <c r="E237" s="2">
         <v>6.21626901626587</v>
@@ -4520,13 +4532,13 @@
         <v>120050.526315789</v>
       </c>
       <c r="C238" s="2">
-        <v>291031.578947368</v>
+        <v>291031.57894736802</v>
       </c>
       <c r="D238" s="2">
-        <v>45.8157997131348</v>
+        <v>45.815799713134801</v>
       </c>
       <c r="E238" s="2">
-        <v>6.20812511444092</v>
+        <v>6.2081251144409197</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4537,10 +4549,10 @@
         <v>120050.526315789</v>
       </c>
       <c r="C239" s="2">
-        <v>309221.052631579</v>
+        <v>309221.05263157899</v>
       </c>
       <c r="D239" s="2">
-        <v>45.9793395996094</v>
+        <v>45.979339599609403</v>
       </c>
       <c r="E239" s="2">
         <v>6.19991111755371</v>
@@ -4554,13 +4566,13 @@
         <v>120050.526315789</v>
       </c>
       <c r="C240" s="2">
-        <v>327410.526315789</v>
+        <v>327410.52631578897</v>
       </c>
       <c r="D240" s="2">
-        <v>46.1428756713867</v>
+        <v>46.142875671386697</v>
       </c>
       <c r="E240" s="2">
-        <v>6.19162511825562</v>
+        <v>6.1916251182556197</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4574,7 +4586,7 @@
         <v>345600</v>
       </c>
       <c r="D241" s="2">
-        <v>46.3064041137695</v>
+        <v>46.306404113769503</v>
       </c>
       <c r="E241" s="2">
         <v>6.18326711654663</v>
@@ -4591,10 +4603,10 @@
         <v>0</v>
       </c>
       <c r="D242" s="2">
-        <v>43.1951446533203</v>
+        <v>43.195144653320298</v>
       </c>
       <c r="E242" s="2">
-        <v>6.19626569747925</v>
+        <v>6.1962656974792498</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4605,13 +4617,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C243" s="2">
-        <v>18189.4736842105</v>
+        <v>18189.473684210501</v>
       </c>
       <c r="D243" s="2">
-        <v>43.3587608337402</v>
+        <v>43.358760833740199</v>
       </c>
       <c r="E243" s="2">
-        <v>6.1887378692627</v>
+        <v>6.1887378692626998</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4622,13 +4634,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C244" s="2">
-        <v>36378.9473684211</v>
+        <v>36378.947368421097</v>
       </c>
       <c r="D244" s="2">
-        <v>43.5223693847656</v>
+        <v>43.522369384765597</v>
       </c>
       <c r="E244" s="2">
-        <v>6.18114614486694</v>
+        <v>6.1811461448669398</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4639,13 +4651,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C245" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="D245" s="2">
-        <v>43.6859703063965</v>
+        <v>43.685970306396499</v>
       </c>
       <c r="E245" s="2">
-        <v>6.17349052429199</v>
+        <v>6.1734905242919904</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4656,13 +4668,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C246" s="2">
-        <v>72757.8947368421</v>
+        <v>72757.894736842107</v>
       </c>
       <c r="D246" s="2">
-        <v>43.8495674133301</v>
+        <v>43.849567413330099</v>
       </c>
       <c r="E246" s="2">
-        <v>6.16577005386353</v>
+        <v>6.1657700538635298</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4673,13 +4685,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C247" s="2">
-        <v>90947.3684210526</v>
+        <v>90947.368421052597</v>
       </c>
       <c r="D247" s="2">
-        <v>44.0131607055664</v>
+        <v>44.013160705566399</v>
       </c>
       <c r="E247" s="2">
-        <v>6.15798425674438</v>
+        <v>6.1579842567443803</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4693,10 +4705,10 @@
         <v>109136.842105263</v>
       </c>
       <c r="D248" s="2">
-        <v>44.1767463684082</v>
+        <v>44.176746368408203</v>
       </c>
       <c r="E248" s="2">
-        <v>6.15013217926025</v>
+        <v>6.1501321792602504</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4710,10 +4722,10 @@
         <v>127326.315789474</v>
       </c>
       <c r="D249" s="2">
-        <v>44.3403282165527</v>
+        <v>44.340328216552699</v>
       </c>
       <c r="E249" s="2">
-        <v>6.14221334457397</v>
+        <v>6.1422133445739702</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4724,13 +4736,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C250" s="2">
-        <v>145515.789473684</v>
+        <v>145515.78947368401</v>
       </c>
       <c r="D250" s="2">
-        <v>44.5038986206055</v>
+        <v>44.503898620605497</v>
       </c>
       <c r="E250" s="2">
-        <v>6.13422727584839</v>
+        <v>6.1342272758483896</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4741,13 +4753,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C251" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="D251" s="2">
-        <v>44.6674690246582</v>
+        <v>44.667469024658203</v>
       </c>
       <c r="E251" s="2">
-        <v>6.12617301940918</v>
+        <v>6.1261730194091797</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4758,13 +4770,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C252" s="2">
-        <v>181894.736842105</v>
+        <v>181894.73684210499</v>
       </c>
       <c r="D252" s="2">
-        <v>44.8310317993164</v>
+        <v>44.831031799316399</v>
       </c>
       <c r="E252" s="2">
-        <v>6.11804962158203</v>
+        <v>6.1180496215820304</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4775,13 +4787,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C253" s="2">
-        <v>200084.210526316</v>
+        <v>200084.21052631599</v>
       </c>
       <c r="D253" s="2">
-        <v>44.9945907592773</v>
+        <v>44.994590759277301</v>
       </c>
       <c r="E253" s="2">
-        <v>6.10985708236694</v>
+        <v>6.1098570823669398</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4798,7 +4810,7 @@
         <v>45.1581420898438</v>
       </c>
       <c r="E254" s="2">
-        <v>6.10159397125244</v>
+        <v>6.1015939712524396</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4812,10 +4824,10 @@
         <v>236463.157894737</v>
       </c>
       <c r="D255" s="2">
-        <v>45.3216819763184</v>
+        <v>45.321681976318402</v>
       </c>
       <c r="E255" s="2">
-        <v>6.09325981140137</v>
+        <v>6.0932598114013699</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4826,13 +4838,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C256" s="2">
-        <v>254652.631578947</v>
+        <v>254652.63157894701</v>
       </c>
       <c r="D256" s="2">
-        <v>45.485221862793</v>
+        <v>45.485221862792997</v>
       </c>
       <c r="E256" s="2">
-        <v>6.08485412597656</v>
+        <v>6.0848541259765598</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4843,13 +4855,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C257" s="2">
-        <v>272842.105263158</v>
+        <v>272842.10526315798</v>
       </c>
       <c r="D257" s="2">
-        <v>45.6487579345703</v>
+        <v>45.648757934570298</v>
       </c>
       <c r="E257" s="2">
-        <v>6.07637548446655</v>
+        <v>6.0763754844665501</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4860,13 +4872,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C258" s="2">
-        <v>291031.578947368</v>
+        <v>291031.57894736802</v>
       </c>
       <c r="D258" s="2">
-        <v>45.8122825622559</v>
+        <v>45.812282562255902</v>
       </c>
       <c r="E258" s="2">
-        <v>6.06782341003418</v>
+        <v>6.0678234100341797</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4877,13 +4889,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C259" s="2">
-        <v>309221.052631579</v>
+        <v>309221.05263157899</v>
       </c>
       <c r="D259" s="2">
-        <v>45.9758033752441</v>
+        <v>45.975803375244098</v>
       </c>
       <c r="E259" s="2">
-        <v>6.05919790267944</v>
+        <v>6.0591979026794398</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4894,10 +4906,10 @@
         <v>130964.210526316</v>
       </c>
       <c r="C260" s="2">
-        <v>327410.526315789</v>
+        <v>327410.52631578897</v>
       </c>
       <c r="D260" s="2">
-        <v>46.1393165588379</v>
+        <v>46.139316558837898</v>
       </c>
       <c r="E260" s="2">
         <v>6.05049705505371</v>
@@ -4914,10 +4926,10 @@
         <v>345600</v>
       </c>
       <c r="D261" s="2">
-        <v>46.3028259277344</v>
+        <v>46.302825927734403</v>
       </c>
       <c r="E261" s="2">
-        <v>6.04172086715698</v>
+        <v>6.0417208671569798</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4925,16 +4937,16 @@
         <v>260</v>
       </c>
       <c r="B262" s="2">
-        <v>141877.894736842</v>
+        <v>141877.89473684199</v>
       </c>
       <c r="C262" s="2">
         <v>0</v>
       </c>
       <c r="D262" s="2">
-        <v>43.1917762756348</v>
+        <v>43.191776275634801</v>
       </c>
       <c r="E262" s="2">
-        <v>6.06211471557617</v>
+        <v>6.0621147155761701</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4942,16 +4954,16 @@
         <v>261</v>
       </c>
       <c r="B263" s="2">
-        <v>141877.894736842</v>
+        <v>141877.89473684199</v>
       </c>
       <c r="C263" s="2">
-        <v>18189.4736842105</v>
+        <v>18189.473684210501</v>
       </c>
       <c r="D263" s="2">
-        <v>43.3553733825684</v>
+        <v>43.355373382568402</v>
       </c>
       <c r="E263" s="2">
-        <v>6.05422735214233</v>
+        <v>6.0542273521423304</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4959,16 +4971,16 @@
         <v>262</v>
       </c>
       <c r="B264" s="2">
-        <v>141877.894736842</v>
+        <v>141877.89473684199</v>
       </c>
       <c r="C264" s="2">
-        <v>36378.9473684211</v>
+        <v>36378.947368421097</v>
       </c>
       <c r="D264" s="2">
-        <v>43.5189628601074</v>
+        <v>43.518962860107401</v>
       </c>
       <c r="E264" s="2">
-        <v>6.04627370834351</v>
+        <v>6.0462737083435103</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4976,16 +4988,16 @@
         <v>263</v>
       </c>
       <c r="B265" s="2">
-        <v>141877.894736842</v>
+        <v>141877.89473684199</v>
       </c>
       <c r="C265" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="D265" s="2">
-        <v>43.682544708252</v>
+        <v>43.682544708252003</v>
       </c>
       <c r="E265" s="2">
-        <v>6.03825330734253</v>
+        <v>6.0382533073425302</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4993,16 +5005,16 @@
         <v>264</v>
       </c>
       <c r="B266" s="2">
-        <v>141877.894736842</v>
+        <v>141877.89473684199</v>
       </c>
       <c r="C266" s="2">
-        <v>72757.8947368421</v>
+        <v>72757.894736842107</v>
       </c>
       <c r="D266" s="2">
-        <v>43.8461227416992</v>
+        <v>43.846122741699197</v>
       </c>
       <c r="E266" s="2">
-        <v>6.03016471862793</v>
+        <v>6.0301647186279297</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5010,16 +5022,16 @@
         <v>265</v>
       </c>
       <c r="B267" s="2">
-        <v>141877.894736842</v>
+        <v>141877.89473684199</v>
       </c>
       <c r="C267" s="2">
-        <v>90947.3684210526</v>
+        <v>90947.368421052597</v>
       </c>
       <c r="D267" s="2">
-        <v>44.0096969604492</v>
+        <v>44.009696960449197</v>
       </c>
       <c r="E267" s="2">
-        <v>6.02200746536255</v>
+        <v>6.0220074653625497</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5027,16 +5039,16 @@
         <v>266</v>
       </c>
       <c r="B268" s="2">
-        <v>141877.894736842</v>
+        <v>141877.89473684199</v>
       </c>
       <c r="C268" s="2">
         <v>109136.842105263</v>
       </c>
       <c r="D268" s="2">
-        <v>44.1732635498047</v>
+        <v>44.173263549804702</v>
       </c>
       <c r="E268" s="2">
-        <v>6.01378107070923</v>
+        <v>6.0137810707092303</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5044,16 +5056,16 @@
         <v>267</v>
       </c>
       <c r="B269" s="2">
-        <v>141877.894736842</v>
+        <v>141877.89473684199</v>
       </c>
       <c r="C269" s="2">
         <v>127326.315789474</v>
       </c>
       <c r="D269" s="2">
-        <v>44.3368225097656</v>
+        <v>44.336822509765597</v>
       </c>
       <c r="E269" s="2">
-        <v>6.00548505783081</v>
+        <v>6.0054850578308097</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5061,16 +5073,16 @@
         <v>268</v>
       </c>
       <c r="B270" s="2">
-        <v>141877.894736842</v>
+        <v>141877.89473684199</v>
       </c>
       <c r="C270" s="2">
-        <v>145515.789473684</v>
+        <v>145515.78947368401</v>
       </c>
       <c r="D270" s="2">
-        <v>44.500373840332</v>
+        <v>44.500373840332003</v>
       </c>
       <c r="E270" s="2">
-        <v>5.99711799621582</v>
+        <v>5.9971179962158203</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5078,16 +5090,16 @@
         <v>269</v>
       </c>
       <c r="B271" s="2">
-        <v>141877.894736842</v>
+        <v>141877.89473684199</v>
       </c>
       <c r="C271" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="D271" s="2">
         <v>44.6639213562012</v>
       </c>
       <c r="E271" s="2">
-        <v>5.98867988586426</v>
+        <v>5.9886798858642596</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5095,16 +5107,16 @@
         <v>270</v>
       </c>
       <c r="B272" s="2">
-        <v>141877.894736842</v>
+        <v>141877.89473684199</v>
       </c>
       <c r="C272" s="2">
-        <v>181894.736842105</v>
+        <v>181894.73684210499</v>
       </c>
       <c r="D272" s="2">
-        <v>44.827465057373</v>
+        <v>44.827465057372997</v>
       </c>
       <c r="E272" s="2">
-        <v>5.98016929626465</v>
+        <v>5.9801692962646502</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5112,16 +5124,16 @@
         <v>271</v>
       </c>
       <c r="B273" s="2">
-        <v>141877.894736842</v>
+        <v>141877.89473684199</v>
       </c>
       <c r="C273" s="2">
-        <v>200084.210526316</v>
+        <v>200084.21052631599</v>
       </c>
       <c r="D273" s="2">
-        <v>44.9910049438477</v>
+        <v>44.991004943847699</v>
       </c>
       <c r="E273" s="2">
-        <v>5.97158575057983</v>
+        <v>5.9715857505798304</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5129,16 +5141,16 @@
         <v>272</v>
       </c>
       <c r="B274" s="2">
-        <v>141877.894736842</v>
+        <v>141877.89473684199</v>
       </c>
       <c r="C274" s="2">
         <v>218273.684210526</v>
       </c>
       <c r="D274" s="2">
-        <v>45.1545333862305</v>
+        <v>45.154533386230497</v>
       </c>
       <c r="E274" s="2">
-        <v>5.96292877197266</v>
+        <v>5.9629287719726598</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5146,7 +5158,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="2">
-        <v>141877.894736842</v>
+        <v>141877.89473684199</v>
       </c>
       <c r="C275" s="2">
         <v>236463.157894737</v>
@@ -5155,7 +5167,7 @@
         <v>45.3180541992188</v>
       </c>
       <c r="E275" s="2">
-        <v>5.95419788360596</v>
+        <v>5.9541978836059597</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5163,13 +5175,13 @@
         <v>274</v>
       </c>
       <c r="B276" s="2">
-        <v>141877.894736842</v>
+        <v>141877.89473684199</v>
       </c>
       <c r="C276" s="2">
-        <v>254652.631578947</v>
+        <v>254652.63157894701</v>
       </c>
       <c r="D276" s="2">
-        <v>45.481575012207</v>
+        <v>45.481575012207003</v>
       </c>
       <c r="E276" s="2">
         <v>5.9453911781311</v>
@@ -5180,16 +5192,16 @@
         <v>275</v>
       </c>
       <c r="B277" s="2">
-        <v>141877.894736842</v>
+        <v>141877.89473684199</v>
       </c>
       <c r="C277" s="2">
-        <v>272842.105263158</v>
+        <v>272842.10526315798</v>
       </c>
       <c r="D277" s="2">
-        <v>45.6450881958008</v>
+        <v>45.645088195800803</v>
       </c>
       <c r="E277" s="2">
-        <v>5.9365086555481</v>
+        <v>5.9365086555481001</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5197,16 +5209,16 @@
         <v>276</v>
       </c>
       <c r="B278" s="2">
-        <v>141877.894736842</v>
+        <v>141877.89473684199</v>
       </c>
       <c r="C278" s="2">
-        <v>291031.578947368</v>
+        <v>291031.57894736802</v>
       </c>
       <c r="D278" s="2">
         <v>45.80859375</v>
       </c>
       <c r="E278" s="2">
-        <v>5.92754936218262</v>
+        <v>5.9275493621826199</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5214,16 +5226,16 @@
         <v>277</v>
       </c>
       <c r="B279" s="2">
-        <v>141877.894736842</v>
+        <v>141877.89473684199</v>
       </c>
       <c r="C279" s="2">
-        <v>309221.052631579</v>
+        <v>309221.05263157899</v>
       </c>
       <c r="D279" s="2">
-        <v>45.9720916748047</v>
+        <v>45.972091674804702</v>
       </c>
       <c r="E279" s="2">
-        <v>5.91851234436035</v>
+        <v>5.9185123443603498</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5231,16 +5243,16 @@
         <v>278</v>
       </c>
       <c r="B280" s="2">
-        <v>141877.894736842</v>
+        <v>141877.89473684199</v>
       </c>
       <c r="C280" s="2">
-        <v>327410.526315789</v>
+        <v>327410.52631578897</v>
       </c>
       <c r="D280" s="2">
-        <v>46.1355857849121</v>
+        <v>46.135585784912102</v>
       </c>
       <c r="E280" s="2">
-        <v>5.90939712524414</v>
+        <v>5.9093971252441397</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5248,16 +5260,16 @@
         <v>279</v>
       </c>
       <c r="B281" s="2">
-        <v>141877.894736842</v>
+        <v>141877.89473684199</v>
       </c>
       <c r="C281" s="2">
         <v>345600</v>
       </c>
       <c r="D281" s="2">
-        <v>46.2990760803223</v>
+        <v>46.299076080322301</v>
       </c>
       <c r="E281" s="2">
-        <v>5.90020227432251</v>
+        <v>5.9002022743225098</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5265,7 +5277,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="2">
-        <v>152791.578947368</v>
+        <v>152791.57894736799</v>
       </c>
       <c r="C282" s="2">
         <v>0</v>
@@ -5274,7 +5286,7 @@
         <v>43.1882514953613</v>
       </c>
       <c r="E282" s="2">
-        <v>5.92798662185669</v>
+        <v>5.9279866218566903</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5282,16 +5294,16 @@
         <v>281</v>
       </c>
       <c r="B283" s="2">
-        <v>152791.578947368</v>
+        <v>152791.57894736799</v>
       </c>
       <c r="C283" s="2">
-        <v>18189.4736842105</v>
+        <v>18189.473684210501</v>
       </c>
       <c r="D283" s="2">
         <v>43.3518257141113</v>
       </c>
       <c r="E283" s="2">
-        <v>5.91974067687988</v>
+        <v>5.9197406768798801</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5299,16 +5311,16 @@
         <v>282</v>
       </c>
       <c r="B284" s="2">
-        <v>152791.578947368</v>
+        <v>152791.57894736799</v>
       </c>
       <c r="C284" s="2">
-        <v>36378.9473684211</v>
+        <v>36378.947368421097</v>
       </c>
       <c r="D284" s="2">
-        <v>43.5153961181641</v>
+        <v>43.515396118164098</v>
       </c>
       <c r="E284" s="2">
-        <v>5.91142559051514</v>
+        <v>5.9114255905151403</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5316,16 +5328,16 @@
         <v>283</v>
       </c>
       <c r="B285" s="2">
-        <v>152791.578947368</v>
+        <v>152791.57894736799</v>
       </c>
       <c r="C285" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="D285" s="2">
         <v>43.678955078125</v>
       </c>
       <c r="E285" s="2">
-        <v>5.90304040908813</v>
+        <v>5.9030404090881303</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5333,16 +5345,16 @@
         <v>284</v>
       </c>
       <c r="B286" s="2">
-        <v>152791.578947368</v>
+        <v>152791.57894736799</v>
       </c>
       <c r="C286" s="2">
-        <v>72757.8947368421</v>
+        <v>72757.894736842107</v>
       </c>
       <c r="D286" s="2">
-        <v>43.8425140380859</v>
+        <v>43.842514038085902</v>
       </c>
       <c r="E286" s="2">
-        <v>5.8945837020874</v>
+        <v>5.8945837020873997</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5350,16 +5362,16 @@
         <v>285</v>
       </c>
       <c r="B287" s="2">
-        <v>152791.578947368</v>
+        <v>152791.57894736799</v>
       </c>
       <c r="C287" s="2">
-        <v>90947.3684210526</v>
+        <v>90947.368421052597</v>
       </c>
       <c r="D287" s="2">
-        <v>44.0060691833496</v>
+        <v>44.006069183349602</v>
       </c>
       <c r="E287" s="2">
-        <v>5.88605546951294</v>
+        <v>5.8860554695129403</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5367,16 +5379,16 @@
         <v>286</v>
       </c>
       <c r="B288" s="2">
-        <v>152791.578947368</v>
+        <v>152791.57894736799</v>
       </c>
       <c r="C288" s="2">
         <v>109136.842105263</v>
       </c>
       <c r="D288" s="2">
-        <v>44.1696128845215</v>
+        <v>44.169612884521499</v>
       </c>
       <c r="E288" s="2">
-        <v>5.87745523452759</v>
+        <v>5.8774552345275897</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5384,16 +5396,16 @@
         <v>287</v>
       </c>
       <c r="B289" s="2">
-        <v>152791.578947368</v>
+        <v>152791.57894736799</v>
       </c>
       <c r="C289" s="2">
         <v>127326.315789474</v>
       </c>
       <c r="D289" s="2">
-        <v>44.3331527709961</v>
+        <v>44.333152770996101</v>
       </c>
       <c r="E289" s="2">
-        <v>5.86878156661987</v>
+        <v>5.8687815666198704</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5401,16 +5413,16 @@
         <v>288</v>
       </c>
       <c r="B290" s="2">
-        <v>152791.578947368</v>
+        <v>152791.57894736799</v>
       </c>
       <c r="C290" s="2">
-        <v>145515.789473684</v>
+        <v>145515.78947368401</v>
       </c>
       <c r="D290" s="2">
         <v>44.4966850280762</v>
       </c>
       <c r="E290" s="2">
-        <v>5.86003446578979</v>
+        <v>5.8600344657897896</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5418,16 +5430,16 @@
         <v>289</v>
       </c>
       <c r="B291" s="2">
-        <v>152791.578947368</v>
+        <v>152791.57894736799</v>
       </c>
       <c r="C291" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="D291" s="2">
-        <v>44.660213470459</v>
+        <v>44.660213470458999</v>
       </c>
       <c r="E291" s="2">
-        <v>5.85121250152588</v>
+        <v>5.8512125015258798</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5435,16 +5447,16 @@
         <v>290</v>
       </c>
       <c r="B292" s="2">
-        <v>152791.578947368</v>
+        <v>152791.57894736799</v>
       </c>
       <c r="C292" s="2">
-        <v>181894.736842105</v>
+        <v>181894.73684210499</v>
       </c>
       <c r="D292" s="2">
-        <v>44.8237342834473</v>
+        <v>44.823734283447301</v>
       </c>
       <c r="E292" s="2">
-        <v>5.84231472015381</v>
+        <v>5.8423147201538104</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5452,16 +5464,16 @@
         <v>291</v>
       </c>
       <c r="B293" s="2">
-        <v>152791.578947368</v>
+        <v>152791.57894736799</v>
       </c>
       <c r="C293" s="2">
-        <v>200084.210526316</v>
+        <v>200084.21052631599</v>
       </c>
       <c r="D293" s="2">
-        <v>44.9872512817383</v>
+        <v>44.987251281738303</v>
       </c>
       <c r="E293" s="2">
-        <v>5.83334112167358</v>
+        <v>5.8333411216735804</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5469,16 +5481,16 @@
         <v>292</v>
       </c>
       <c r="B294" s="2">
-        <v>152791.578947368</v>
+        <v>152791.57894736799</v>
       </c>
       <c r="C294" s="2">
         <v>218273.684210526</v>
       </c>
       <c r="D294" s="2">
-        <v>45.1507606506348</v>
+        <v>45.150760650634801</v>
       </c>
       <c r="E294" s="2">
-        <v>5.82429075241089</v>
+        <v>5.8242907524108896</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5486,16 +5498,16 @@
         <v>293</v>
       </c>
       <c r="B295" s="2">
-        <v>152791.578947368</v>
+        <v>152791.57894736799</v>
       </c>
       <c r="C295" s="2">
         <v>236463.157894737</v>
       </c>
       <c r="D295" s="2">
-        <v>45.3142585754395</v>
+        <v>45.314258575439503</v>
       </c>
       <c r="E295" s="2">
-        <v>5.81516265869141</v>
+        <v>5.8151626586914098</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5503,16 +5515,16 @@
         <v>294</v>
       </c>
       <c r="B296" s="2">
-        <v>152791.578947368</v>
+        <v>152791.57894736799</v>
       </c>
       <c r="C296" s="2">
-        <v>254652.631578947</v>
+        <v>254652.63157894701</v>
       </c>
       <c r="D296" s="2">
-        <v>45.4777565002441</v>
+        <v>45.477756500244098</v>
       </c>
       <c r="E296" s="2">
-        <v>5.80595541000366</v>
+        <v>5.8059554100036603</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5520,16 +5532,16 @@
         <v>295</v>
       </c>
       <c r="B297" s="2">
-        <v>152791.578947368</v>
+        <v>152791.57894736799</v>
       </c>
       <c r="C297" s="2">
-        <v>272842.105263158</v>
+        <v>272842.10526315798</v>
       </c>
       <c r="D297" s="2">
-        <v>45.6412467956543</v>
+        <v>45.641246795654297</v>
       </c>
       <c r="E297" s="2">
-        <v>5.79666900634766</v>
+        <v>5.7966690063476598</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5537,16 +5549,16 @@
         <v>296</v>
       </c>
       <c r="B298" s="2">
-        <v>152791.578947368</v>
+        <v>152791.57894736799</v>
       </c>
       <c r="C298" s="2">
-        <v>291031.578947368</v>
+        <v>291031.57894736802</v>
       </c>
       <c r="D298" s="2">
-        <v>45.8047332763672</v>
+        <v>45.804733276367202</v>
       </c>
       <c r="E298" s="2">
-        <v>5.78730249404907</v>
+        <v>5.7873024940490696</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5554,16 +5566,16 @@
         <v>297</v>
       </c>
       <c r="B299" s="2">
-        <v>152791.578947368</v>
+        <v>152791.57894736799</v>
       </c>
       <c r="C299" s="2">
-        <v>309221.052631579</v>
+        <v>309221.05263157899</v>
       </c>
       <c r="D299" s="2">
-        <v>45.9682083129883</v>
+        <v>45.968208312988303</v>
       </c>
       <c r="E299" s="2">
-        <v>5.77785491943359</v>
+        <v>5.7778549194335902</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5571,16 +5583,16 @@
         <v>298</v>
       </c>
       <c r="B300" s="2">
-        <v>152791.578947368</v>
+        <v>152791.57894736799</v>
       </c>
       <c r="C300" s="2">
-        <v>327410.526315789</v>
+        <v>327410.52631578897</v>
       </c>
       <c r="D300" s="2">
-        <v>46.1316795349121</v>
+        <v>46.131679534912102</v>
       </c>
       <c r="E300" s="2">
-        <v>5.76832485198975</v>
+        <v>5.7683248519897496</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5588,7 +5600,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="2">
-        <v>152791.578947368</v>
+        <v>152791.57894736799</v>
       </c>
       <c r="C301" s="2">
         <v>345600</v>
@@ -5597,7 +5609,7 @@
         <v>46.2951469421387</v>
       </c>
       <c r="E301" s="2">
-        <v>5.75871229171753</v>
+        <v>5.7587122917175302</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5605,13 +5617,13 @@
         <v>300</v>
       </c>
       <c r="B302" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="C302" s="2">
         <v>0</v>
       </c>
       <c r="D302" s="2">
-        <v>43.1845664978027</v>
+        <v>43.184566497802699</v>
       </c>
       <c r="E302" s="2">
         <v>5.79388380050659</v>
@@ -5622,13 +5634,13 @@
         <v>301</v>
       </c>
       <c r="B303" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="C303" s="2">
-        <v>18189.4736842105</v>
+        <v>18189.473684210501</v>
       </c>
       <c r="D303" s="2">
-        <v>43.3481216430664</v>
+        <v>43.348121643066399</v>
       </c>
       <c r="E303" s="2">
         <v>5.78527927398682</v>
@@ -5639,16 +5651,16 @@
         <v>302</v>
       </c>
       <c r="B304" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="C304" s="2">
-        <v>36378.9473684211</v>
+        <v>36378.947368421097</v>
       </c>
       <c r="D304" s="2">
-        <v>43.5116729736328</v>
+        <v>43.511672973632798</v>
       </c>
       <c r="E304" s="2">
-        <v>5.77660226821899</v>
+        <v>5.7766022682189897</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5656,16 +5668,16 @@
         <v>303</v>
       </c>
       <c r="B305" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="C305" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="D305" s="2">
-        <v>43.6752090454102</v>
+        <v>43.675209045410199</v>
       </c>
       <c r="E305" s="2">
-        <v>5.76785278320312</v>
+        <v>5.7678527832031197</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5673,16 +5685,16 @@
         <v>304</v>
       </c>
       <c r="B306" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="C306" s="2">
-        <v>72757.8947368421</v>
+        <v>72757.894736842107</v>
       </c>
       <c r="D306" s="2">
-        <v>43.8387489318848</v>
+        <v>43.838748931884801</v>
       </c>
       <c r="E306" s="2">
-        <v>5.75902843475342</v>
+        <v>5.7590284347534197</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5690,16 +5702,16 @@
         <v>305</v>
       </c>
       <c r="B307" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="C307" s="2">
-        <v>90947.3684210526</v>
+        <v>90947.368421052597</v>
       </c>
       <c r="D307" s="2">
-        <v>44.0022773742676</v>
+        <v>44.002277374267599</v>
       </c>
       <c r="E307" s="2">
-        <v>5.75012969970703</v>
+        <v>5.7501296997070304</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5707,16 +5719,16 @@
         <v>306</v>
       </c>
       <c r="B308" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="C308" s="2">
         <v>109136.842105263</v>
       </c>
       <c r="D308" s="2">
-        <v>44.1658020019531</v>
+        <v>44.165802001953097</v>
       </c>
       <c r="E308" s="2">
-        <v>5.74115562438965</v>
+        <v>5.7411556243896502</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5724,16 +5736,16 @@
         <v>307</v>
       </c>
       <c r="B309" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="C309" s="2">
         <v>127326.315789474</v>
       </c>
       <c r="D309" s="2">
-        <v>44.3293228149414</v>
+        <v>44.329322814941399</v>
       </c>
       <c r="E309" s="2">
-        <v>5.73210477828979</v>
+        <v>5.7321047782897896</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5741,16 +5753,16 @@
         <v>308</v>
       </c>
       <c r="B310" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="C310" s="2">
-        <v>145515.789473684</v>
+        <v>145515.78947368401</v>
       </c>
       <c r="D310" s="2">
-        <v>44.4928283691406</v>
+        <v>44.492828369140597</v>
       </c>
       <c r="E310" s="2">
-        <v>5.72297763824463</v>
+        <v>5.7229776382446298</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5758,16 +5770,16 @@
         <v>309</v>
       </c>
       <c r="B311" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="C311" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="D311" s="2">
-        <v>44.6563377380371</v>
+        <v>44.656337738037102</v>
       </c>
       <c r="E311" s="2">
-        <v>5.71377182006836</v>
+        <v>5.7137718200683603</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5775,16 +5787,16 @@
         <v>310</v>
       </c>
       <c r="B312" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="C312" s="2">
-        <v>181894.736842105</v>
+        <v>181894.73684210499</v>
       </c>
       <c r="D312" s="2">
-        <v>44.8198356628418</v>
+        <v>44.819835662841797</v>
       </c>
       <c r="E312" s="2">
-        <v>5.70448780059814</v>
+        <v>5.7044878005981401</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5792,16 +5804,16 @@
         <v>311</v>
       </c>
       <c r="B313" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="C313" s="2">
-        <v>200084.210526316</v>
+        <v>200084.21052631599</v>
       </c>
       <c r="D313" s="2">
-        <v>44.9833297729492</v>
+        <v>44.983329772949197</v>
       </c>
       <c r="E313" s="2">
-        <v>5.69512414932251</v>
+        <v>5.6951241493225098</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5809,16 +5821,16 @@
         <v>312</v>
       </c>
       <c r="B314" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="C314" s="2">
         <v>218273.684210526</v>
       </c>
       <c r="D314" s="2">
-        <v>45.1468162536621</v>
+        <v>45.146816253662102</v>
       </c>
       <c r="E314" s="2">
-        <v>5.6856803894043</v>
+        <v>5.6856803894043004</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5826,16 +5838,16 @@
         <v>313</v>
       </c>
       <c r="B315" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="C315" s="2">
         <v>236463.157894737</v>
       </c>
       <c r="D315" s="2">
-        <v>45.3102951049805</v>
+        <v>45.310295104980497</v>
       </c>
       <c r="E315" s="2">
-        <v>5.67615556716919</v>
+        <v>5.6761555671691903</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5843,16 +5855,16 @@
         <v>314</v>
       </c>
       <c r="B316" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="C316" s="2">
-        <v>254652.631578947</v>
+        <v>254652.63157894701</v>
       </c>
       <c r="D316" s="2">
-        <v>45.4737701416016</v>
+        <v>45.473770141601598</v>
       </c>
       <c r="E316" s="2">
-        <v>5.66654825210571</v>
+        <v>5.6665482521057102</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5860,16 +5872,16 @@
         <v>315</v>
       </c>
       <c r="B317" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="C317" s="2">
-        <v>272842.105263158</v>
+        <v>272842.10526315798</v>
       </c>
       <c r="D317" s="2">
-        <v>45.6372375488281</v>
+        <v>45.637237548828097</v>
       </c>
       <c r="E317" s="2">
-        <v>5.65685844421387</v>
+        <v>5.6568584442138699</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5877,16 +5889,16 @@
         <v>316</v>
       </c>
       <c r="B318" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="C318" s="2">
-        <v>291031.578947368</v>
+        <v>291031.57894736802</v>
       </c>
       <c r="D318" s="2">
-        <v>45.8007011413574</v>
+        <v>45.800701141357401</v>
       </c>
       <c r="E318" s="2">
-        <v>5.64708471298218</v>
+        <v>5.6470847129821804</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5894,16 +5906,16 @@
         <v>317</v>
       </c>
       <c r="B319" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="C319" s="2">
-        <v>309221.052631579</v>
+        <v>309221.05263157899</v>
       </c>
       <c r="D319" s="2">
-        <v>45.9641532897949</v>
+        <v>45.964153289794901</v>
       </c>
       <c r="E319" s="2">
-        <v>5.63722705841064</v>
+        <v>5.6372270584106401</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5911,16 +5923,16 @@
         <v>318</v>
       </c>
       <c r="B320" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="C320" s="2">
-        <v>327410.526315789</v>
+        <v>327410.52631578897</v>
       </c>
       <c r="D320" s="2">
-        <v>46.1276016235352</v>
+        <v>46.127601623535199</v>
       </c>
       <c r="E320" s="2">
-        <v>5.62728309631348</v>
+        <v>5.6272830963134801</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5928,16 +5940,16 @@
         <v>319</v>
       </c>
       <c r="B321" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="C321" s="2">
         <v>345600</v>
       </c>
       <c r="D321" s="2">
-        <v>46.2910461425781</v>
+        <v>46.291046142578097</v>
       </c>
       <c r="E321" s="2">
-        <v>5.61725282669067</v>
+        <v>5.6172528266906703</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5945,16 +5957,16 @@
         <v>320</v>
       </c>
       <c r="B322" s="2">
-        <v>174618.947368421</v>
+        <v>174618.94736842101</v>
       </c>
       <c r="C322" s="2">
         <v>0</v>
       </c>
       <c r="D322" s="2">
-        <v>43.1807289123535</v>
+        <v>43.180728912353501</v>
       </c>
       <c r="E322" s="2">
-        <v>5.65980625152588</v>
+        <v>5.6598062515258798</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5962,16 +5974,16 @@
         <v>321</v>
       </c>
       <c r="B323" s="2">
-        <v>174618.947368421</v>
+        <v>174618.94736842101</v>
       </c>
       <c r="C323" s="2">
-        <v>18189.4736842105</v>
+        <v>18189.473684210501</v>
       </c>
       <c r="D323" s="2">
-        <v>43.3442611694336</v>
+        <v>43.344261169433601</v>
       </c>
       <c r="E323" s="2">
-        <v>5.65084362030029</v>
+        <v>5.6508436203002903</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5979,13 +5991,13 @@
         <v>322</v>
       </c>
       <c r="B324" s="2">
-        <v>174618.947368421</v>
+        <v>174618.94736842101</v>
       </c>
       <c r="C324" s="2">
-        <v>36378.9473684211</v>
+        <v>36378.947368421097</v>
       </c>
       <c r="D324" s="2">
-        <v>43.5077896118164</v>
+        <v>43.507789611816399</v>
       </c>
       <c r="E324" s="2">
         <v>5.64180564880371</v>
@@ -5996,16 +6008,16 @@
         <v>323</v>
       </c>
       <c r="B325" s="2">
-        <v>174618.947368421</v>
+        <v>174618.94736842101</v>
       </c>
       <c r="C325" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="D325" s="2">
-        <v>43.6713027954102</v>
+        <v>43.671302795410199</v>
       </c>
       <c r="E325" s="2">
-        <v>5.63269186019897</v>
+        <v>5.6326918601989702</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -6013,16 +6025,16 @@
         <v>324</v>
       </c>
       <c r="B326" s="2">
-        <v>174618.947368421</v>
+        <v>174618.94736842101</v>
       </c>
       <c r="C326" s="2">
-        <v>72757.8947368421</v>
+        <v>72757.894736842107</v>
       </c>
       <c r="D326" s="2">
         <v>43.8348197937012</v>
       </c>
       <c r="E326" s="2">
-        <v>5.62350034713745</v>
+        <v>5.6235003471374503</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6030,16 +6042,16 @@
         <v>325</v>
       </c>
       <c r="B327" s="2">
-        <v>174618.947368421</v>
+        <v>174618.94736842101</v>
       </c>
       <c r="C327" s="2">
-        <v>90947.3684210526</v>
+        <v>90947.368421052597</v>
       </c>
       <c r="D327" s="2">
-        <v>43.9983291625977</v>
+        <v>43.998329162597699</v>
       </c>
       <c r="E327" s="2">
-        <v>5.61423110961914</v>
+        <v>5.6142311096191397</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6047,16 +6059,16 @@
         <v>326</v>
       </c>
       <c r="B328" s="2">
-        <v>174618.947368421</v>
+        <v>174618.94736842101</v>
       </c>
       <c r="C328" s="2">
         <v>109136.842105263</v>
       </c>
       <c r="D328" s="2">
-        <v>44.1618309020996</v>
+        <v>44.161830902099602</v>
       </c>
       <c r="E328" s="2">
-        <v>5.60488319396973</v>
+        <v>5.6048831939697301</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6064,16 +6076,16 @@
         <v>327</v>
       </c>
       <c r="B329" s="2">
-        <v>174618.947368421</v>
+        <v>174618.94736842101</v>
       </c>
       <c r="C329" s="2">
         <v>127326.315789474</v>
       </c>
       <c r="D329" s="2">
-        <v>44.325325012207</v>
+        <v>44.325325012207003</v>
       </c>
       <c r="E329" s="2">
-        <v>5.59545612335205</v>
+        <v>5.5954561233520499</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6081,16 +6093,16 @@
         <v>328</v>
       </c>
       <c r="B330" s="2">
-        <v>174618.947368421</v>
+        <v>174618.94736842101</v>
       </c>
       <c r="C330" s="2">
-        <v>145515.789473684</v>
+        <v>145515.78947368401</v>
       </c>
       <c r="D330" s="2">
-        <v>44.4888114929199</v>
+        <v>44.488811492919901</v>
       </c>
       <c r="E330" s="2">
-        <v>5.58594846725464</v>
+        <v>5.5859484672546396</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6098,16 +6110,16 @@
         <v>329</v>
       </c>
       <c r="B331" s="2">
-        <v>174618.947368421</v>
+        <v>174618.94736842101</v>
       </c>
       <c r="C331" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="D331" s="2">
-        <v>44.6522941589355</v>
+        <v>44.652294158935497</v>
       </c>
       <c r="E331" s="2">
-        <v>5.57636022567749</v>
+        <v>5.5763602256774902</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6115,13 +6127,13 @@
         <v>330</v>
       </c>
       <c r="B332" s="2">
-        <v>174618.947368421</v>
+        <v>174618.94736842101</v>
       </c>
       <c r="C332" s="2">
-        <v>181894.736842105</v>
+        <v>181894.73684210499</v>
       </c>
       <c r="D332" s="2">
-        <v>44.8157730102539</v>
+        <v>44.815773010253899</v>
       </c>
       <c r="E332" s="2">
         <v>5.56668949127197</v>
@@ -6132,16 +6144,16 @@
         <v>331</v>
       </c>
       <c r="B333" s="2">
-        <v>174618.947368421</v>
+        <v>174618.94736842101</v>
       </c>
       <c r="C333" s="2">
-        <v>200084.210526316</v>
+        <v>200084.21052631599</v>
       </c>
       <c r="D333" s="2">
-        <v>44.9792442321777</v>
+        <v>44.979244232177699</v>
       </c>
       <c r="E333" s="2">
-        <v>5.55693626403809</v>
+        <v>5.5569362640380904</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6149,16 +6161,16 @@
         <v>332</v>
       </c>
       <c r="B334" s="2">
-        <v>174618.947368421</v>
+        <v>174618.94736842101</v>
       </c>
       <c r="C334" s="2">
         <v>218273.684210526</v>
       </c>
       <c r="D334" s="2">
-        <v>45.142707824707</v>
+        <v>45.142707824707003</v>
       </c>
       <c r="E334" s="2">
-        <v>5.54709911346436</v>
+        <v>5.5470991134643599</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6166,16 +6178,16 @@
         <v>333</v>
       </c>
       <c r="B335" s="2">
-        <v>174618.947368421</v>
+        <v>174618.94736842101</v>
       </c>
       <c r="C335" s="2">
         <v>236463.157894737</v>
       </c>
       <c r="D335" s="2">
-        <v>45.3061599731445</v>
+        <v>45.306159973144503</v>
       </c>
       <c r="E335" s="2">
-        <v>5.53717803955078</v>
+        <v>5.5371780395507804</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6183,16 +6195,16 @@
         <v>334</v>
       </c>
       <c r="B336" s="2">
-        <v>174618.947368421</v>
+        <v>174618.94736842101</v>
       </c>
       <c r="C336" s="2">
-        <v>254652.631578947</v>
+        <v>254652.63157894701</v>
       </c>
       <c r="D336" s="2">
-        <v>45.469612121582</v>
+        <v>45.469612121582003</v>
       </c>
       <c r="E336" s="2">
-        <v>5.52717113494873</v>
+        <v>5.5271711349487296</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6200,16 +6212,16 @@
         <v>335</v>
       </c>
       <c r="B337" s="2">
-        <v>174618.947368421</v>
+        <v>174618.94736842101</v>
       </c>
       <c r="C337" s="2">
-        <v>272842.105263158</v>
+        <v>272842.10526315798</v>
       </c>
       <c r="D337" s="2">
         <v>45.633056640625</v>
       </c>
       <c r="E337" s="2">
-        <v>5.51707792282104</v>
+        <v>5.5170779228210396</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6217,13 +6229,13 @@
         <v>336</v>
       </c>
       <c r="B338" s="2">
-        <v>174618.947368421</v>
+        <v>174618.94736842101</v>
       </c>
       <c r="C338" s="2">
-        <v>291031.578947368</v>
+        <v>291031.57894736802</v>
       </c>
       <c r="D338" s="2">
-        <v>45.7964973449707</v>
+        <v>45.796497344970703</v>
       </c>
       <c r="E338" s="2">
         <v>5.50689792633057</v>
@@ -6234,16 +6246,16 @@
         <v>337</v>
       </c>
       <c r="B339" s="2">
-        <v>174618.947368421</v>
+        <v>174618.94736842101</v>
       </c>
       <c r="C339" s="2">
-        <v>309221.052631579</v>
+        <v>309221.05263157899</v>
       </c>
       <c r="D339" s="2">
-        <v>45.9599227905273</v>
+        <v>45.959922790527301</v>
       </c>
       <c r="E339" s="2">
-        <v>5.49662971496582</v>
+        <v>5.4966297149658203</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6251,16 +6263,16 @@
         <v>338</v>
       </c>
       <c r="B340" s="2">
-        <v>174618.947368421</v>
+        <v>174618.94736842101</v>
       </c>
       <c r="C340" s="2">
-        <v>327410.526315789</v>
+        <v>327410.52631578897</v>
       </c>
       <c r="D340" s="2">
-        <v>46.123348236084</v>
+        <v>46.123348236083999</v>
       </c>
       <c r="E340" s="2">
-        <v>5.48627185821533</v>
+        <v>5.4862718582153303</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6268,16 +6280,16 @@
         <v>339</v>
       </c>
       <c r="B341" s="2">
-        <v>174618.947368421</v>
+        <v>174618.94736842101</v>
       </c>
       <c r="C341" s="2">
         <v>345600</v>
       </c>
       <c r="D341" s="2">
-        <v>46.2867698669434</v>
+        <v>46.286769866943402</v>
       </c>
       <c r="E341" s="2">
-        <v>5.4758243560791</v>
+        <v>5.4758243560790998</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6285,13 +6297,13 @@
         <v>340</v>
       </c>
       <c r="B342" s="2">
-        <v>185532.631578947</v>
+        <v>185532.63157894701</v>
       </c>
       <c r="C342" s="2">
         <v>0</v>
       </c>
       <c r="D342" s="2">
-        <v>43.1767311096191</v>
+        <v>43.176731109619098</v>
       </c>
       <c r="E342" s="2">
         <v>5.52575635910034</v>
@@ -6302,16 +6314,16 @@
         <v>341</v>
       </c>
       <c r="B343" s="2">
-        <v>185532.631578947</v>
+        <v>185532.63157894701</v>
       </c>
       <c r="C343" s="2">
-        <v>18189.4736842105</v>
+        <v>18189.473684210501</v>
       </c>
       <c r="D343" s="2">
-        <v>43.3402404785156</v>
+        <v>43.340240478515597</v>
       </c>
       <c r="E343" s="2">
-        <v>5.51643562316895</v>
+        <v>5.5164356231689498</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6319,13 +6331,13 @@
         <v>342</v>
       </c>
       <c r="B344" s="2">
-        <v>185532.631578947</v>
+        <v>185532.63157894701</v>
       </c>
       <c r="C344" s="2">
-        <v>36378.9473684211</v>
+        <v>36378.947368421097</v>
       </c>
       <c r="D344" s="2">
-        <v>43.5037460327148</v>
+        <v>43.503746032714801</v>
       </c>
       <c r="E344" s="2">
         <v>5.5070366859436</v>
@@ -6336,13 +6348,13 @@
         <v>343</v>
       </c>
       <c r="B345" s="2">
-        <v>185532.631578947</v>
+        <v>185532.63157894701</v>
       </c>
       <c r="C345" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="D345" s="2">
-        <v>43.6672401428223</v>
+        <v>43.667240142822301</v>
       </c>
       <c r="E345" s="2">
         <v>5.49755859375</v>
@@ -6353,16 +6365,16 @@
         <v>344</v>
       </c>
       <c r="B346" s="2">
-        <v>185532.631578947</v>
+        <v>185532.63157894701</v>
       </c>
       <c r="C346" s="2">
-        <v>72757.8947368421</v>
+        <v>72757.894736842107</v>
       </c>
       <c r="D346" s="2">
-        <v>43.8307304382324</v>
+        <v>43.830730438232401</v>
       </c>
       <c r="E346" s="2">
-        <v>5.48800039291382</v>
+        <v>5.4880003929138201</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6370,16 +6382,16 @@
         <v>345</v>
       </c>
       <c r="B347" s="2">
-        <v>185532.631578947</v>
+        <v>185532.63157894701</v>
       </c>
       <c r="C347" s="2">
-        <v>90947.3684210526</v>
+        <v>90947.368421052597</v>
       </c>
       <c r="D347" s="2">
-        <v>43.9942169189453</v>
+        <v>43.994216918945298</v>
       </c>
       <c r="E347" s="2">
-        <v>5.47836065292358</v>
+        <v>5.4783606529235804</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6387,7 +6399,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="2">
-        <v>185532.631578947</v>
+        <v>185532.63157894701</v>
       </c>
       <c r="C348" s="2">
         <v>109136.842105263</v>
@@ -6396,7 +6408,7 @@
         <v>44.1576957702637</v>
       </c>
       <c r="E348" s="2">
-        <v>5.46863985061646</v>
+        <v>5.4686398506164604</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6404,7 +6416,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="2">
-        <v>185532.631578947</v>
+        <v>185532.63157894701</v>
       </c>
       <c r="C349" s="2">
         <v>127326.315789474</v>
@@ -6413,7 +6425,7 @@
         <v>44.3211669921875</v>
       </c>
       <c r="E349" s="2">
-        <v>5.4588360786438</v>
+        <v>5.4588360786437997</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6421,16 +6433,16 @@
         <v>348</v>
       </c>
       <c r="B350" s="2">
-        <v>185532.631578947</v>
+        <v>185532.63157894701</v>
       </c>
       <c r="C350" s="2">
-        <v>145515.789473684</v>
+        <v>145515.78947368401</v>
       </c>
       <c r="D350" s="2">
-        <v>44.4846305847168</v>
+        <v>44.484630584716797</v>
       </c>
       <c r="E350" s="2">
-        <v>5.44894933700562</v>
+        <v>5.4489493370056197</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6438,16 +6450,16 @@
         <v>349</v>
       </c>
       <c r="B351" s="2">
-        <v>185532.631578947</v>
+        <v>185532.63157894701</v>
       </c>
       <c r="C351" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="D351" s="2">
         <v>44.6480903625488</v>
       </c>
       <c r="E351" s="2">
-        <v>5.43897771835327</v>
+        <v>5.4389777183532697</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6455,16 +6467,16 @@
         <v>350</v>
       </c>
       <c r="B352" s="2">
-        <v>185532.631578947</v>
+        <v>185532.63157894701</v>
       </c>
       <c r="C352" s="2">
-        <v>181894.736842105</v>
+        <v>181894.73684210499</v>
       </c>
       <c r="D352" s="2">
         <v>44.8115425109863</v>
       </c>
       <c r="E352" s="2">
-        <v>5.42892122268677</v>
+        <v>5.4289212226867702</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6472,16 +6484,16 @@
         <v>351</v>
       </c>
       <c r="B353" s="2">
-        <v>185532.631578947</v>
+        <v>185532.63157894701</v>
       </c>
       <c r="C353" s="2">
-        <v>200084.210526316</v>
+        <v>200084.21052631599</v>
       </c>
       <c r="D353" s="2">
-        <v>44.9749908447266</v>
+        <v>44.974990844726598</v>
       </c>
       <c r="E353" s="2">
-        <v>5.41877841949463</v>
+        <v>5.4187784194946298</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6489,7 +6501,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="2">
-        <v>185532.631578947</v>
+        <v>185532.63157894701</v>
       </c>
       <c r="C354" s="2">
         <v>218273.684210526</v>
@@ -6498,7 +6510,7 @@
         <v>45.138427734375</v>
       </c>
       <c r="E354" s="2">
-        <v>5.4085488319397</v>
+        <v>5.4085488319396999</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6506,16 +6518,16 @@
         <v>353</v>
       </c>
       <c r="B355" s="2">
-        <v>185532.631578947</v>
+        <v>185532.63157894701</v>
       </c>
       <c r="C355" s="2">
         <v>236463.157894737</v>
       </c>
       <c r="D355" s="2">
-        <v>45.3018569946289</v>
+        <v>45.301856994628899</v>
       </c>
       <c r="E355" s="2">
-        <v>5.39823150634766</v>
+        <v>5.3982315063476598</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6523,16 +6535,16 @@
         <v>354</v>
       </c>
       <c r="B356" s="2">
-        <v>185532.631578947</v>
+        <v>185532.63157894701</v>
       </c>
       <c r="C356" s="2">
-        <v>254652.631578947</v>
+        <v>254652.63157894701</v>
       </c>
       <c r="D356" s="2">
-        <v>45.4652862548828</v>
+        <v>45.465286254882798</v>
       </c>
       <c r="E356" s="2">
-        <v>5.38782548904419</v>
+        <v>5.3878254890441903</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6540,16 +6552,16 @@
         <v>355</v>
       </c>
       <c r="B357" s="2">
-        <v>185532.631578947</v>
+        <v>185532.63157894701</v>
       </c>
       <c r="C357" s="2">
-        <v>272842.105263158</v>
+        <v>272842.10526315798</v>
       </c>
       <c r="D357" s="2">
-        <v>45.6287040710449</v>
+        <v>45.628704071044901</v>
       </c>
       <c r="E357" s="2">
-        <v>5.37732934951782</v>
+        <v>5.3773293495178196</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6557,13 +6569,13 @@
         <v>356</v>
       </c>
       <c r="B358" s="2">
-        <v>185532.631578947</v>
+        <v>185532.63157894701</v>
       </c>
       <c r="C358" s="2">
-        <v>291031.578947368</v>
+        <v>291031.57894736802</v>
       </c>
       <c r="D358" s="2">
-        <v>45.7921180725098</v>
+        <v>45.792118072509801</v>
       </c>
       <c r="E358" s="2">
         <v>5.3667426109314</v>
@@ -6574,16 +6586,16 @@
         <v>357</v>
       </c>
       <c r="B359" s="2">
-        <v>185532.631578947</v>
+        <v>185532.63157894701</v>
       </c>
       <c r="C359" s="2">
-        <v>309221.052631579</v>
+        <v>309221.05263157899</v>
       </c>
       <c r="D359" s="2">
-        <v>45.9555244445801</v>
+        <v>45.955524444580099</v>
       </c>
       <c r="E359" s="2">
-        <v>5.35606479644775</v>
+        <v>5.3560647964477504</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6591,13 +6603,13 @@
         <v>358</v>
       </c>
       <c r="B360" s="2">
-        <v>185532.631578947</v>
+        <v>185532.63157894701</v>
       </c>
       <c r="C360" s="2">
-        <v>327410.526315789</v>
+        <v>327410.52631578897</v>
       </c>
       <c r="D360" s="2">
-        <v>46.1189231872559</v>
+        <v>46.118923187255902</v>
       </c>
       <c r="E360" s="2">
         <v>5.3452935218811</v>
@@ -6608,13 +6620,13 @@
         <v>359</v>
       </c>
       <c r="B361" s="2">
-        <v>185532.631578947</v>
+        <v>185532.63157894701</v>
       </c>
       <c r="C361" s="2">
         <v>345600</v>
       </c>
       <c r="D361" s="2">
-        <v>46.2823181152344</v>
+        <v>46.282318115234403</v>
       </c>
       <c r="E361" s="2">
         <v>5.3344292640686</v>
@@ -6631,10 +6643,10 @@
         <v>0</v>
       </c>
       <c r="D362" s="2">
-        <v>43.1725769042969</v>
+        <v>43.172576904296903</v>
       </c>
       <c r="E362" s="2">
-        <v>5.39173364639282</v>
+        <v>5.3917336463928196</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6645,13 +6657,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C363" s="2">
-        <v>18189.4736842105</v>
+        <v>18189.473684210501</v>
       </c>
       <c r="D363" s="2">
-        <v>43.3360633850098</v>
+        <v>43.336063385009801</v>
       </c>
       <c r="E363" s="2">
-        <v>5.38205575942993</v>
+        <v>5.3820557594299299</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6662,13 +6674,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C364" s="2">
-        <v>36378.9473684211</v>
+        <v>36378.947368421097</v>
       </c>
       <c r="D364" s="2">
-        <v>43.4995460510254</v>
+        <v>43.499546051025398</v>
       </c>
       <c r="E364" s="2">
-        <v>5.37229585647583</v>
+        <v>5.3722958564758301</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6679,13 +6691,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C365" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="D365" s="2">
-        <v>43.663013458252</v>
+        <v>43.663013458252003</v>
       </c>
       <c r="E365" s="2">
-        <v>5.36245441436768</v>
+        <v>5.3624544143676802</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6696,13 +6708,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C366" s="2">
-        <v>72757.8947368421</v>
+        <v>72757.894736842107</v>
       </c>
       <c r="D366" s="2">
-        <v>43.8264808654785</v>
+        <v>43.826480865478501</v>
       </c>
       <c r="E366" s="2">
-        <v>5.35252904891968</v>
+        <v>5.3525290489196804</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6713,13 +6725,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C367" s="2">
-        <v>90947.3684210526</v>
+        <v>90947.368421052597</v>
       </c>
       <c r="D367" s="2">
-        <v>43.9899444580078</v>
+        <v>43.989944458007798</v>
       </c>
       <c r="E367" s="2">
-        <v>5.34251976013184</v>
+        <v>5.3425197601318404</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6733,10 +6745,10 @@
         <v>109136.842105263</v>
       </c>
       <c r="D368" s="2">
-        <v>44.1533966064453</v>
+        <v>44.153396606445298</v>
       </c>
       <c r="E368" s="2">
-        <v>5.33242559432983</v>
+        <v>5.3324255943298304</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6750,10 +6762,10 @@
         <v>127326.315789474</v>
       </c>
       <c r="D369" s="2">
-        <v>44.3168449401855</v>
+        <v>44.316844940185497</v>
       </c>
       <c r="E369" s="2">
-        <v>5.32224607467651</v>
+        <v>5.3222460746765101</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6764,13 +6776,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C370" s="2">
-        <v>145515.789473684</v>
+        <v>145515.78947368401</v>
       </c>
       <c r="D370" s="2">
-        <v>44.480281829834</v>
+        <v>44.480281829833999</v>
       </c>
       <c r="E370" s="2">
-        <v>5.3119797706604</v>
+        <v>5.3119797706604004</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6781,13 +6793,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C371" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="D371" s="2">
-        <v>44.6437187194824</v>
+        <v>44.643718719482401</v>
       </c>
       <c r="E371" s="2">
-        <v>5.30162572860718</v>
+        <v>5.3016257286071804</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6798,13 +6810,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C372" s="2">
-        <v>181894.736842105</v>
+        <v>181894.73684210499</v>
       </c>
       <c r="D372" s="2">
         <v>44.8071479797363</v>
       </c>
       <c r="E372" s="2">
-        <v>5.29118347167969</v>
+        <v>5.2911834716796902</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6815,13 +6827,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C373" s="2">
-        <v>200084.210526316</v>
+        <v>200084.21052631599</v>
       </c>
       <c r="D373" s="2">
-        <v>44.9705696105957</v>
+        <v>44.970569610595703</v>
       </c>
       <c r="E373" s="2">
-        <v>5.28065156936646</v>
+        <v>5.2806515693664604</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6835,10 +6847,10 @@
         <v>218273.684210526</v>
       </c>
       <c r="D374" s="2">
-        <v>45.1339836120605</v>
+        <v>45.133983612060497</v>
       </c>
       <c r="E374" s="2">
-        <v>5.27002954483032</v>
+        <v>5.2700295448303196</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6852,7 +6864,7 @@
         <v>236463.157894737</v>
       </c>
       <c r="D375" s="2">
-        <v>45.2973861694336</v>
+        <v>45.297386169433601</v>
       </c>
       <c r="E375" s="2">
         <v>5.25931692123413</v>
@@ -6866,13 +6878,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C376" s="2">
-        <v>254652.631578947</v>
+        <v>254652.63157894701</v>
       </c>
       <c r="D376" s="2">
-        <v>45.4607887268066</v>
+        <v>45.460788726806598</v>
       </c>
       <c r="E376" s="2">
-        <v>5.24851131439209</v>
+        <v>5.2485113143920898</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6883,13 +6895,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C377" s="2">
-        <v>272842.105263158</v>
+        <v>272842.10526315798</v>
       </c>
       <c r="D377" s="2">
-        <v>45.6241836547852</v>
+        <v>45.624183654785199</v>
       </c>
       <c r="E377" s="2">
-        <v>5.2376127243042</v>
+        <v>5.2376127243042001</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6900,13 +6912,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C378" s="2">
-        <v>291031.578947368</v>
+        <v>291031.57894736802</v>
       </c>
       <c r="D378" s="2">
-        <v>45.7875709533691</v>
+        <v>45.787570953369098</v>
       </c>
       <c r="E378" s="2">
-        <v>5.22662019729614</v>
+        <v>5.2266201972961399</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6917,10 +6929,10 @@
         <v>196446.315789474</v>
       </c>
       <c r="C379" s="2">
-        <v>309221.052631579</v>
+        <v>309221.05263157899</v>
       </c>
       <c r="D379" s="2">
-        <v>45.9509506225586</v>
+        <v>45.950950622558601</v>
       </c>
       <c r="E379" s="2">
         <v>5.2155327796936</v>
@@ -6934,13 +6946,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C380" s="2">
-        <v>327410.526315789</v>
+        <v>327410.52631578897</v>
       </c>
       <c r="D380" s="2">
-        <v>46.1143226623535</v>
+        <v>46.114322662353501</v>
       </c>
       <c r="E380" s="2">
-        <v>5.20434904098511</v>
+        <v>5.2043490409851101</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6957,7 +6969,7 @@
         <v>46.2776908874512</v>
       </c>
       <c r="E381" s="2">
-        <v>5.19306755065918</v>
+        <v>5.1930675506591797</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6971,10 +6983,10 @@
         <v>0</v>
       </c>
       <c r="D382" s="2">
-        <v>43.1682662963867</v>
+        <v>43.168266296386697</v>
       </c>
       <c r="E382" s="2">
-        <v>5.25774049758911</v>
+        <v>5.2577404975891104</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6985,13 +6997,13 @@
         <v>207360</v>
       </c>
       <c r="C383" s="2">
-        <v>18189.4736842105</v>
+        <v>18189.473684210501</v>
       </c>
       <c r="D383" s="2">
-        <v>43.331729888916</v>
+        <v>43.331729888916001</v>
       </c>
       <c r="E383" s="2">
-        <v>5.24770498275757</v>
+        <v>5.2477049827575701</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -7002,13 +7014,13 @@
         <v>207360</v>
       </c>
       <c r="C384" s="2">
-        <v>36378.9473684211</v>
+        <v>36378.947368421097</v>
       </c>
       <c r="D384" s="2">
-        <v>43.4951858520508</v>
+        <v>43.495185852050803</v>
       </c>
       <c r="E384" s="2">
-        <v>5.23758506774902</v>
+        <v>5.2375850677490199</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -7019,13 +7031,13 @@
         <v>207360</v>
       </c>
       <c r="C385" s="2">
-        <v>54568.4210526316</v>
+        <v>54568.421052631602</v>
       </c>
       <c r="D385" s="2">
         <v>43.6586303710938</v>
       </c>
       <c r="E385" s="2">
-        <v>5.22737979888916</v>
+        <v>5.2273797988891602</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -7036,13 +7048,13 @@
         <v>207360</v>
       </c>
       <c r="C386" s="2">
-        <v>72757.8947368421</v>
+        <v>72757.894736842107</v>
       </c>
       <c r="D386" s="2">
-        <v>43.8220710754395</v>
+        <v>43.822071075439503</v>
       </c>
       <c r="E386" s="2">
-        <v>5.21708822250366</v>
+        <v>5.2170882225036603</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -7053,13 +7065,13 @@
         <v>207360</v>
       </c>
       <c r="C387" s="2">
-        <v>90947.3684210526</v>
+        <v>90947.368421052597</v>
       </c>
       <c r="D387" s="2">
-        <v>43.9855079650879</v>
+        <v>43.985507965087898</v>
       </c>
       <c r="E387" s="2">
-        <v>5.20670938491821</v>
+        <v>5.2067093849182102</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -7073,10 +7085,10 @@
         <v>109136.842105263</v>
       </c>
       <c r="D388" s="2">
-        <v>44.1489372253418</v>
+        <v>44.148937225341797</v>
       </c>
       <c r="E388" s="2">
-        <v>5.19624280929565</v>
+        <v>5.1962428092956499</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -7090,10 +7102,10 @@
         <v>127326.315789474</v>
       </c>
       <c r="D389" s="2">
-        <v>44.3123626708984</v>
+        <v>44.312362670898402</v>
       </c>
       <c r="E389" s="2">
-        <v>5.18568706512451</v>
+        <v>5.1856870651245099</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -7104,13 +7116,13 @@
         <v>207360</v>
       </c>
       <c r="C390" s="2">
-        <v>145515.789473684</v>
+        <v>145515.78947368401</v>
       </c>
       <c r="D390" s="2">
-        <v>44.475772857666</v>
+        <v>44.475772857666001</v>
       </c>
       <c r="E390" s="2">
-        <v>5.17504215240479</v>
+        <v>5.1750421524047896</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7121,10 +7133,10 @@
         <v>207360</v>
       </c>
       <c r="C391" s="2">
-        <v>163705.263157895</v>
+        <v>163705.26315789501</v>
       </c>
       <c r="D391" s="2">
-        <v>44.6391830444336</v>
+        <v>44.639183044433601</v>
       </c>
       <c r="E391" s="2">
         <v>5.16430568695068</v>
@@ -7138,13 +7150,13 @@
         <v>207360</v>
       </c>
       <c r="C392" s="2">
-        <v>181894.736842105</v>
+        <v>181894.73684210499</v>
       </c>
       <c r="D392" s="2">
-        <v>44.8025856018066</v>
+        <v>44.802585601806598</v>
       </c>
       <c r="E392" s="2">
-        <v>5.15347814559937</v>
+        <v>5.1534781455993697</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7155,13 +7167,13 @@
         <v>207360</v>
       </c>
       <c r="C393" s="2">
-        <v>200084.210526316</v>
+        <v>200084.21052631599</v>
       </c>
       <c r="D393" s="2">
-        <v>44.9659805297852</v>
+        <v>44.965980529785199</v>
       </c>
       <c r="E393" s="2">
-        <v>5.1425576210022</v>
+        <v>5.1425576210021999</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7175,10 +7187,10 @@
         <v>218273.684210526</v>
       </c>
       <c r="D394" s="2">
-        <v>45.1293678283691</v>
+        <v>45.129367828369098</v>
       </c>
       <c r="E394" s="2">
-        <v>5.13154363632202</v>
+        <v>5.1315436363220197</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -7192,10 +7204,10 @@
         <v>236463.157894737</v>
       </c>
       <c r="D395" s="2">
-        <v>45.2927474975586</v>
+        <v>45.292747497558601</v>
       </c>
       <c r="E395" s="2">
-        <v>5.12043523788452</v>
+        <v>5.1204352378845197</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7206,10 +7218,10 @@
         <v>207360</v>
       </c>
       <c r="C396" s="2">
-        <v>254652.631578947</v>
+        <v>254652.63157894701</v>
       </c>
       <c r="D396" s="2">
-        <v>45.4561233520508</v>
+        <v>45.456123352050803</v>
       </c>
       <c r="E396" s="2">
         <v>5.10923099517822</v>
@@ -7223,13 +7235,13 @@
         <v>207360</v>
       </c>
       <c r="C397" s="2">
-        <v>272842.105263158</v>
+        <v>272842.10526315798</v>
       </c>
       <c r="D397" s="2">
-        <v>45.6194915771484</v>
+        <v>45.619491577148402</v>
       </c>
       <c r="E397" s="2">
-        <v>5.09793043136597</v>
+        <v>5.0979304313659703</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7240,13 +7252,13 @@
         <v>207360</v>
       </c>
       <c r="C398" s="2">
-        <v>291031.578947368</v>
+        <v>291031.57894736802</v>
       </c>
       <c r="D398" s="2">
-        <v>45.7828521728516</v>
+        <v>45.782852172851598</v>
       </c>
       <c r="E398" s="2">
-        <v>5.08653211593628</v>
+        <v>5.0865321159362802</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7257,13 +7269,13 @@
         <v>207360</v>
       </c>
       <c r="C399" s="2">
-        <v>309221.052631579</v>
+        <v>309221.05263157899</v>
       </c>
       <c r="D399" s="2">
-        <v>45.9462013244629</v>
+        <v>45.946201324462898</v>
       </c>
       <c r="E399" s="2">
-        <v>5.075035572052</v>
+        <v>5.0750355720520002</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7274,13 +7286,13 @@
         <v>207360</v>
       </c>
       <c r="C400" s="2">
-        <v>327410.526315789</v>
+        <v>327410.52631578897</v>
       </c>
       <c r="D400" s="2">
-        <v>46.1095504760742</v>
+        <v>46.109550476074197</v>
       </c>
       <c r="E400" s="2">
-        <v>5.0634388923645</v>
+        <v>5.0634388923645002</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7294,13 +7306,18 @@
         <v>345600</v>
       </c>
       <c r="D401" s="2">
-        <v>46.272891998291</v>
+        <v>46.272891998291001</v>
       </c>
       <c r="E401" s="2">
-        <v>5.05174160003662</v>
+        <v>5.0517416000366202</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/pycondor/out/Provence-Oisans2.xlsx
+++ b/pycondor/out/Provence-Oisans2.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="1" r:id="rId1"/>
     <sheet name="measures" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -37,8 +32,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,12 +384,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
@@ -421,10 +416,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>43.223300933837898</v>
+        <v>43.2233009338379</v>
       </c>
       <c r="E2" s="2">
-        <v>7.8075404167175302</v>
+        <v>7.80754041671753</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -438,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>43.168266296386697</v>
+        <v>43.1682662963867</v>
       </c>
       <c r="E3" s="2">
-        <v>5.2577404975891104</v>
+        <v>5.25774049758911</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -455,10 +450,10 @@
         <v>345600</v>
       </c>
       <c r="D4" s="2">
-        <v>46.334186553955099</v>
+        <v>46.3341865539551</v>
       </c>
       <c r="E4" s="2">
-        <v>7.7417173385620099</v>
+        <v>7.74171733856201</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -472,31 +467,24 @@
         <v>345600</v>
       </c>
       <c r="D5" s="2">
-        <v>46.272891998291001</v>
+        <v>46.272891998291</v>
       </c>
       <c r="E5" s="2">
-        <v>5.0517416000366202</v>
+        <v>5.05174160003662</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
@@ -523,10 +511,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>43.223300933837898</v>
+        <v>43.2233009338379</v>
       </c>
       <c r="E2" s="2">
-        <v>7.8075404167175302</v>
+        <v>7.80754041671753</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -537,13 +525,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>18189.473684210501</v>
+        <v>18189.4736842105</v>
       </c>
       <c r="D3" s="2">
-        <v>43.387077331542997</v>
+        <v>43.387077331543</v>
       </c>
       <c r="E3" s="2">
-        <v>7.8043341636657697</v>
+        <v>7.80433416366577</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -554,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>36378.947368421097</v>
+        <v>36378.9473684211</v>
       </c>
       <c r="D4" s="2">
-        <v>43.550846099853501</v>
+        <v>43.5508460998535</v>
       </c>
       <c r="E4" s="2">
-        <v>7.8011012077331499</v>
+        <v>7.80110120773315</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -571,13 +559,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="D5" s="2">
-        <v>43.714607238769503</v>
+        <v>43.7146072387695</v>
       </c>
       <c r="E5" s="2">
-        <v>7.7978410720825204</v>
+        <v>7.79784107208252</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -588,13 +576,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>72757.894736842107</v>
+        <v>72757.8947368421</v>
       </c>
       <c r="D6" s="2">
-        <v>43.878368377685497</v>
+        <v>43.8783683776855</v>
       </c>
       <c r="E6" s="2">
-        <v>7.7945528030395499</v>
+        <v>7.79455280303955</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -605,13 +593,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>90947.368421052597</v>
+        <v>90947.3684210526</v>
       </c>
       <c r="D7" s="2">
-        <v>44.042125701904297</v>
+        <v>44.0421257019043</v>
       </c>
       <c r="E7" s="2">
-        <v>7.7912368774414098</v>
+        <v>7.79123687744141</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -625,10 +613,10 @@
         <v>109136.842105263</v>
       </c>
       <c r="D8" s="2">
-        <v>44.205879211425803</v>
+        <v>44.2058792114258</v>
       </c>
       <c r="E8" s="2">
-        <v>7.7878928184509304</v>
+        <v>7.78789281845093</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -642,10 +630,10 @@
         <v>127326.315789474</v>
       </c>
       <c r="D9" s="2">
-        <v>44.369625091552699</v>
+        <v>44.3696250915527</v>
       </c>
       <c r="E9" s="2">
-        <v>7.7845201492309597</v>
+        <v>7.78452014923096</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -656,13 +644,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>145515.78947368401</v>
+        <v>145515.789473684</v>
       </c>
       <c r="D10" s="2">
-        <v>44.533363342285199</v>
+        <v>44.5333633422852</v>
       </c>
       <c r="E10" s="2">
-        <v>7.7811188697814897</v>
+        <v>7.78111886978149</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -673,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="D11" s="2">
-        <v>44.697097778320298</v>
+        <v>44.6970977783203</v>
       </c>
       <c r="E11" s="2">
         <v>7.77768850326538</v>
@@ -690,13 +678,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>181894.73684210499</v>
+        <v>181894.736842105</v>
       </c>
       <c r="D12" s="2">
-        <v>44.860832214355497</v>
+        <v>44.8608322143555</v>
       </c>
       <c r="E12" s="2">
-        <v>7.7742285728454599</v>
+        <v>7.77422857284546</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -707,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>200084.21052631599</v>
+        <v>200084.210526316</v>
       </c>
       <c r="D13" s="2">
-        <v>45.024559020996101</v>
+        <v>45.0245590209961</v>
       </c>
       <c r="E13" s="2">
-        <v>7.7707390785217303</v>
+        <v>7.77073907852173</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -727,10 +715,10 @@
         <v>218273.684210526</v>
       </c>
       <c r="D14" s="2">
-        <v>45.188282012939503</v>
+        <v>45.1882820129395</v>
       </c>
       <c r="E14" s="2">
-        <v>7.7672200202941903</v>
+        <v>7.76722002029419</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -744,10 +732,10 @@
         <v>236463.157894737</v>
       </c>
       <c r="D15" s="2">
-        <v>45.351993560791001</v>
+        <v>45.351993560791</v>
       </c>
       <c r="E15" s="2">
-        <v>7.7636699676513699</v>
+        <v>7.76366996765137</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -758,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>254652.63157894701</v>
+        <v>254652.631578947</v>
       </c>
       <c r="D16" s="2">
-        <v>45.515705108642599</v>
+        <v>45.5157051086426</v>
       </c>
       <c r="E16" s="2">
-        <v>7.7600898742675799</v>
+        <v>7.76008987426758</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -775,13 +763,13 @@
         <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>272842.10526315798</v>
+        <v>272842.105263158</v>
       </c>
       <c r="D17" s="2">
-        <v>45.679412841796903</v>
+        <v>45.6794128417969</v>
       </c>
       <c r="E17" s="2">
-        <v>7.7564783096313503</v>
+        <v>7.75647830963135</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -792,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>291031.57894736802</v>
+        <v>291031.578947368</v>
       </c>
       <c r="D18" s="2">
-        <v>45.843116760253899</v>
+        <v>45.8431167602539</v>
       </c>
       <c r="E18" s="2">
-        <v>7.7528357505798304</v>
+        <v>7.75283575057983</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -809,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>309221.05263157899</v>
+        <v>309221.052631579</v>
       </c>
       <c r="D19" s="2">
-        <v>46.006809234619098</v>
+        <v>46.0068092346191</v>
       </c>
       <c r="E19" s="2">
-        <v>7.7491617202758798</v>
+        <v>7.74916172027588</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -826,13 +814,13 @@
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>327410.52631578897</v>
+        <v>327410.526315789</v>
       </c>
       <c r="D20" s="2">
-        <v>46.170501708984403</v>
+        <v>46.1705017089844</v>
       </c>
       <c r="E20" s="2">
-        <v>7.7454557418823198</v>
+        <v>7.74545574188232</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -846,10 +834,10 @@
         <v>345600</v>
       </c>
       <c r="D21" s="2">
-        <v>46.334186553955099</v>
+        <v>46.3341865539551</v>
       </c>
       <c r="E21" s="2">
-        <v>7.7417173385620099</v>
+        <v>7.74171733856201</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -866,7 +854,7 @@
         <v>43.2218208312988</v>
       </c>
       <c r="E22" s="2">
-        <v>7.6731886863708496</v>
+        <v>7.67318868637085</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -877,13 +865,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C23" s="2">
-        <v>18189.473684210501</v>
+        <v>18189.4736842105</v>
       </c>
       <c r="D23" s="2">
-        <v>43.385585784912102</v>
+        <v>43.3855857849121</v>
       </c>
       <c r="E23" s="2">
-        <v>7.6696219444274902</v>
+        <v>7.66962194442749</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -894,13 +882,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C24" s="2">
-        <v>36378.947368421097</v>
+        <v>36378.9473684211</v>
       </c>
       <c r="D24" s="2">
-        <v>43.549350738525398</v>
+        <v>43.5493507385254</v>
       </c>
       <c r="E24" s="2">
-        <v>7.6660246849060103</v>
+        <v>7.66602468490601</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -911,13 +899,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C25" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="D25" s="2">
-        <v>43.713104248046903</v>
+        <v>43.7131042480469</v>
       </c>
       <c r="E25" s="2">
-        <v>7.6623973846435502</v>
+        <v>7.66239738464355</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -928,13 +916,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C26" s="2">
-        <v>72757.894736842107</v>
+        <v>72757.8947368421</v>
       </c>
       <c r="D26" s="2">
-        <v>43.876857757568402</v>
+        <v>43.8768577575684</v>
       </c>
       <c r="E26" s="2">
-        <v>7.6587390899658203</v>
+        <v>7.65873908996582</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -945,13 +933,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C27" s="2">
-        <v>90947.368421052597</v>
+        <v>90947.3684210526</v>
       </c>
       <c r="D27" s="2">
-        <v>44.040603637695298</v>
+        <v>44.0406036376953</v>
       </c>
       <c r="E27" s="2">
-        <v>7.6550498008728001</v>
+        <v>7.6550498008728</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -968,7 +956,7 @@
         <v>44.204345703125</v>
       </c>
       <c r="E28" s="2">
-        <v>7.6513290405273402</v>
+        <v>7.65132904052734</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -982,10 +970,10 @@
         <v>127326.315789474</v>
       </c>
       <c r="D29" s="2">
-        <v>44.368083953857401</v>
+        <v>44.3680839538574</v>
       </c>
       <c r="E29" s="2">
-        <v>7.6475768089294398</v>
+        <v>7.64757680892944</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -996,13 +984,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C30" s="2">
-        <v>145515.78947368401</v>
+        <v>145515.789473684</v>
       </c>
       <c r="D30" s="2">
-        <v>44.531814575195298</v>
+        <v>44.5318145751953</v>
       </c>
       <c r="E30" s="2">
-        <v>7.6437926292419398</v>
+        <v>7.64379262924194</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1013,10 +1001,10 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C31" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="D31" s="2">
-        <v>44.695541381835902</v>
+        <v>44.6955413818359</v>
       </c>
       <c r="E31" s="2">
         <v>7.63997602462769</v>
@@ -1030,13 +1018,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C32" s="2">
-        <v>181894.73684210499</v>
+        <v>181894.736842105</v>
       </c>
       <c r="D32" s="2">
-        <v>44.859264373779297</v>
+        <v>44.8592643737793</v>
       </c>
       <c r="E32" s="2">
-        <v>7.6361265182495099</v>
+        <v>7.63612651824951</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1047,13 +1035,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C33" s="2">
-        <v>200084.21052631599</v>
+        <v>200084.210526316</v>
       </c>
       <c r="D33" s="2">
-        <v>45.022983551025398</v>
+        <v>45.0229835510254</v>
       </c>
       <c r="E33" s="2">
-        <v>7.6322445869445801</v>
+        <v>7.63224458694458</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1067,10 +1055,10 @@
         <v>218273.684210526</v>
       </c>
       <c r="D34" s="2">
-        <v>45.186695098877003</v>
+        <v>45.186695098877</v>
       </c>
       <c r="E34" s="2">
-        <v>7.6283288002014196</v>
+        <v>7.62832880020142</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1084,10 +1072,10 @@
         <v>236463.157894737</v>
       </c>
       <c r="D35" s="2">
-        <v>45.350399017333999</v>
+        <v>45.350399017334</v>
       </c>
       <c r="E35" s="2">
-        <v>7.6243791580200204</v>
+        <v>7.62437915802002</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1098,13 +1086,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C36" s="2">
-        <v>254652.63157894701</v>
+        <v>254652.631578947</v>
       </c>
       <c r="D36" s="2">
-        <v>45.514102935791001</v>
+        <v>45.514102935791</v>
       </c>
       <c r="E36" s="2">
-        <v>7.6203961372375497</v>
+        <v>7.62039613723755</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1115,13 +1103,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C37" s="2">
-        <v>272842.10526315798</v>
+        <v>272842.105263158</v>
       </c>
       <c r="D37" s="2">
-        <v>45.677803039550803</v>
+        <v>45.6778030395508</v>
       </c>
       <c r="E37" s="2">
-        <v>7.6163778305053702</v>
+        <v>7.61637783050537</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1132,13 +1120,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C38" s="2">
-        <v>291031.57894736802</v>
+        <v>291031.578947368</v>
       </c>
       <c r="D38" s="2">
-        <v>45.841495513916001</v>
+        <v>45.841495513916</v>
       </c>
       <c r="E38" s="2">
-        <v>7.6123251914978001</v>
+        <v>7.6123251914978</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1149,10 +1137,10 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C39" s="2">
-        <v>309221.05263157899</v>
+        <v>309221.052631579</v>
       </c>
       <c r="D39" s="2">
-        <v>46.005180358886697</v>
+        <v>46.0051803588867</v>
       </c>
       <c r="E39" s="2">
         <v>7.60823774337769</v>
@@ -1166,13 +1154,13 @@
         <v>10913.6842105263</v>
       </c>
       <c r="C40" s="2">
-        <v>327410.52631578897</v>
+        <v>327410.526315789</v>
       </c>
       <c r="D40" s="2">
-        <v>46.168861389160199</v>
+        <v>46.1688613891602</v>
       </c>
       <c r="E40" s="2">
-        <v>7.6041140556335396</v>
+        <v>7.60411405563354</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1189,7 +1177,7 @@
         <v>46.3325386047363</v>
       </c>
       <c r="E41" s="2">
-        <v>7.5999550819396999</v>
+        <v>7.5999550819397</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1197,16 +1185,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>21827.368421052601</v>
+        <v>21827.3684210526</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
       </c>
       <c r="D42" s="2">
-        <v>43.220184326171903</v>
+        <v>43.2201843261719</v>
       </c>
       <c r="E42" s="2">
-        <v>7.5388474464416504</v>
+        <v>7.53884744644165</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1214,16 +1202,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>21827.368421052601</v>
+        <v>21827.3684210526</v>
       </c>
       <c r="C43" s="2">
-        <v>18189.473684210501</v>
+        <v>18189.4736842105</v>
       </c>
       <c r="D43" s="2">
-        <v>43.383941650390597</v>
+        <v>43.3839416503906</v>
       </c>
       <c r="E43" s="2">
-        <v>7.5349197387695304</v>
+        <v>7.53491973876953</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1231,16 +1219,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>21827.368421052601</v>
+        <v>21827.3684210526</v>
       </c>
       <c r="C44" s="2">
-        <v>36378.947368421097</v>
+        <v>36378.9473684211</v>
       </c>
       <c r="D44" s="2">
-        <v>43.547695159912102</v>
+        <v>43.5476951599121</v>
       </c>
       <c r="E44" s="2">
-        <v>7.5309586524963397</v>
+        <v>7.53095865249634</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1248,16 +1236,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>21827.368421052601</v>
+        <v>21827.3684210526</v>
       </c>
       <c r="C45" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="D45" s="2">
-        <v>43.711437225341797</v>
+        <v>43.7114372253418</v>
       </c>
       <c r="E45" s="2">
-        <v>7.5269641876220703</v>
+        <v>7.52696418762207</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1265,16 +1253,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>21827.368421052601</v>
+        <v>21827.3684210526</v>
       </c>
       <c r="C46" s="2">
-        <v>72757.894736842107</v>
+        <v>72757.8947368421</v>
       </c>
       <c r="D46" s="2">
         <v>43.8751831054688</v>
       </c>
       <c r="E46" s="2">
-        <v>7.5229358673095703</v>
+        <v>7.52293586730957</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1282,16 +1270,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>21827.368421052601</v>
+        <v>21827.3684210526</v>
       </c>
       <c r="C47" s="2">
-        <v>90947.368421052597</v>
+        <v>90947.3684210526</v>
       </c>
       <c r="D47" s="2">
         <v>44.0389213562012</v>
       </c>
       <c r="E47" s="2">
-        <v>7.5188736915588397</v>
+        <v>7.51887369155884</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1299,16 +1287,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>21827.368421052601</v>
+        <v>21827.3684210526</v>
       </c>
       <c r="C48" s="2">
         <v>109136.842105263</v>
       </c>
       <c r="D48" s="2">
-        <v>44.202651977539098</v>
+        <v>44.2026519775391</v>
       </c>
       <c r="E48" s="2">
-        <v>7.5147767066955602</v>
+        <v>7.51477670669556</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1316,16 +1304,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>21827.368421052601</v>
+        <v>21827.3684210526</v>
       </c>
       <c r="C49" s="2">
         <v>127326.315789474</v>
       </c>
       <c r="D49" s="2">
-        <v>44.366382598877003</v>
+        <v>44.366382598877</v>
       </c>
       <c r="E49" s="2">
-        <v>7.5106444358825701</v>
+        <v>7.51064443588257</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1333,16 +1321,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>21827.368421052601</v>
+        <v>21827.3684210526</v>
       </c>
       <c r="C50" s="2">
-        <v>145515.78947368401</v>
+        <v>145515.789473684</v>
       </c>
       <c r="D50" s="2">
-        <v>44.530101776122997</v>
+        <v>44.530101776123</v>
       </c>
       <c r="E50" s="2">
-        <v>7.5064773559570304</v>
+        <v>7.50647735595703</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1350,16 +1338,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>21827.368421052601</v>
+        <v>21827.3684210526</v>
       </c>
       <c r="C51" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="D51" s="2">
-        <v>44.693820953369098</v>
+        <v>44.6938209533691</v>
       </c>
       <c r="E51" s="2">
-        <v>7.5022749900817898</v>
+        <v>7.50227499008179</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1367,16 +1355,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>21827.368421052601</v>
+        <v>21827.3684210526</v>
       </c>
       <c r="C52" s="2">
-        <v>181894.73684210499</v>
+        <v>181894.736842105</v>
       </c>
       <c r="D52" s="2">
-        <v>44.857532501220703</v>
+        <v>44.8575325012207</v>
       </c>
       <c r="E52" s="2">
-        <v>7.4980359077453604</v>
+        <v>7.49803590774536</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1384,16 +1372,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>21827.368421052601</v>
+        <v>21827.3684210526</v>
       </c>
       <c r="C53" s="2">
-        <v>200084.21052631599</v>
+        <v>200084.210526316</v>
       </c>
       <c r="D53" s="2">
         <v>45.021240234375</v>
       </c>
       <c r="E53" s="2">
-        <v>7.4937610626220703</v>
+        <v>7.49376106262207</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1401,16 +1389,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>21827.368421052601</v>
+        <v>21827.3684210526</v>
       </c>
       <c r="C54" s="2">
         <v>218273.684210526</v>
       </c>
       <c r="D54" s="2">
-        <v>45.184944152832003</v>
+        <v>45.184944152832</v>
       </c>
       <c r="E54" s="2">
-        <v>7.4894490242004403</v>
+        <v>7.48944902420044</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1418,16 +1406,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>21827.368421052601</v>
+        <v>21827.3684210526</v>
       </c>
       <c r="C55" s="2">
         <v>236463.157894737</v>
       </c>
       <c r="D55" s="2">
-        <v>45.348636627197301</v>
+        <v>45.3486366271973</v>
       </c>
       <c r="E55" s="2">
-        <v>7.4851002693176296</v>
+        <v>7.48510026931763</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1435,10 +1423,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>21827.368421052601</v>
+        <v>21827.3684210526</v>
       </c>
       <c r="C56" s="2">
-        <v>254652.63157894701</v>
+        <v>254652.631578947</v>
       </c>
       <c r="D56" s="2">
         <v>45.5123291015625</v>
@@ -1452,16 +1440,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>21827.368421052601</v>
+        <v>21827.3684210526</v>
       </c>
       <c r="C57" s="2">
-        <v>272842.10526315798</v>
+        <v>272842.105263158</v>
       </c>
       <c r="D57" s="2">
-        <v>45.676017761230497</v>
+        <v>45.6760177612305</v>
       </c>
       <c r="E57" s="2">
-        <v>7.4762897491455096</v>
+        <v>7.47628974914551</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1469,16 +1457,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>21827.368421052601</v>
+        <v>21827.3684210526</v>
       </c>
       <c r="C58" s="2">
-        <v>291031.57894736802</v>
+        <v>291031.578947368</v>
       </c>
       <c r="D58" s="2">
         <v>45.8397026062012</v>
       </c>
       <c r="E58" s="2">
-        <v>7.4718270301818803</v>
+        <v>7.47182703018188</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1486,16 +1474,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>21827.368421052601</v>
+        <v>21827.3684210526</v>
       </c>
       <c r="C59" s="2">
-        <v>309221.05263157899</v>
+        <v>309221.052631579</v>
       </c>
       <c r="D59" s="2">
-        <v>46.003376007080099</v>
+        <v>46.0033760070801</v>
       </c>
       <c r="E59" s="2">
-        <v>7.4673256874084499</v>
+        <v>7.46732568740845</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1503,16 +1491,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>21827.368421052601</v>
+        <v>21827.3684210526</v>
       </c>
       <c r="C60" s="2">
-        <v>327410.52631578897</v>
+        <v>327410.526315789</v>
       </c>
       <c r="D60" s="2">
-        <v>46.167049407958999</v>
+        <v>46.167049407959</v>
       </c>
       <c r="E60" s="2">
-        <v>7.4627852439880398</v>
+        <v>7.46278524398804</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1520,16 +1508,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>21827.368421052601</v>
+        <v>21827.3684210526</v>
       </c>
       <c r="C61" s="2">
         <v>345600</v>
       </c>
       <c r="D61" s="2">
-        <v>46.330715179443402</v>
+        <v>46.3307151794434</v>
       </c>
       <c r="E61" s="2">
-        <v>7.4582052230834996</v>
+        <v>7.4582052230835</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1537,13 +1525,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>32741.052631578899</v>
+        <v>32741.0526315789</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
       </c>
       <c r="D62" s="2">
-        <v>43.218387603759801</v>
+        <v>43.2183876037598</v>
       </c>
       <c r="E62" s="2">
         <v>7.40451860427856</v>
@@ -1554,13 +1542,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>32741.052631578899</v>
+        <v>32741.0526315789</v>
       </c>
       <c r="C63" s="2">
-        <v>18189.473684210501</v>
+        <v>18189.4736842105</v>
       </c>
       <c r="D63" s="2">
-        <v>43.382137298583999</v>
+        <v>43.382137298584</v>
       </c>
       <c r="E63" s="2">
         <v>7.40022993087769</v>
@@ -1571,16 +1559,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>32741.052631578899</v>
+        <v>32741.0526315789</v>
       </c>
       <c r="C64" s="2">
-        <v>36378.947368421097</v>
+        <v>36378.9473684211</v>
       </c>
       <c r="D64" s="2">
         <v>43.5458793640137</v>
       </c>
       <c r="E64" s="2">
-        <v>7.3959050178527797</v>
+        <v>7.39590501785278</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1588,16 +1576,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>32741.052631578899</v>
+        <v>32741.0526315789</v>
       </c>
       <c r="C65" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="D65" s="2">
         <v>43.7096138000488</v>
       </c>
       <c r="E65" s="2">
-        <v>7.3915438652038601</v>
+        <v>7.39154386520386</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1605,13 +1593,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>32741.052631578899</v>
+        <v>32741.0526315789</v>
       </c>
       <c r="C66" s="2">
-        <v>72757.894736842107</v>
+        <v>72757.8947368421</v>
       </c>
       <c r="D66" s="2">
-        <v>43.873344421386697</v>
+        <v>43.8733444213867</v>
       </c>
       <c r="E66" s="2">
         <v>7.38714551925659</v>
@@ -1622,16 +1610,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>32741.052631578899</v>
+        <v>32741.0526315789</v>
       </c>
       <c r="C67" s="2">
-        <v>90947.368421052597</v>
+        <v>90947.3684210526</v>
       </c>
       <c r="D67" s="2">
-        <v>44.037075042724602</v>
+        <v>44.0370750427246</v>
       </c>
       <c r="E67" s="2">
-        <v>7.3827099800109899</v>
+        <v>7.38270998001099</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1639,16 +1627,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>32741.052631578899</v>
+        <v>32741.0526315789</v>
       </c>
       <c r="C68" s="2">
         <v>109136.842105263</v>
       </c>
       <c r="D68" s="2">
-        <v>44.200798034667997</v>
+        <v>44.200798034668</v>
       </c>
       <c r="E68" s="2">
-        <v>7.3782367706298801</v>
+        <v>7.37823677062988</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1656,16 +1644,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>32741.052631578899</v>
+        <v>32741.0526315789</v>
       </c>
       <c r="C69" s="2">
         <v>127326.315789474</v>
       </c>
       <c r="D69" s="2">
-        <v>44.364513397216797</v>
+        <v>44.3645133972168</v>
       </c>
       <c r="E69" s="2">
-        <v>7.3737254142761204</v>
+        <v>7.37372541427612</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1673,16 +1661,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>32741.052631578899</v>
+        <v>32741.0526315789</v>
       </c>
       <c r="C70" s="2">
-        <v>145515.78947368401</v>
+        <v>145515.789473684</v>
       </c>
       <c r="D70" s="2">
-        <v>44.528221130371101</v>
+        <v>44.5282211303711</v>
       </c>
       <c r="E70" s="2">
-        <v>7.3691754341125497</v>
+        <v>7.36917543411255</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1690,16 +1678,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>32741.052631578899</v>
+        <v>32741.0526315789</v>
       </c>
       <c r="C71" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="D71" s="2">
-        <v>44.691928863525398</v>
+        <v>44.6919288635254</v>
       </c>
       <c r="E71" s="2">
-        <v>7.3645868301391602</v>
+        <v>7.36458683013916</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1707,16 +1695,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>32741.052631578899</v>
+        <v>32741.0526315789</v>
       </c>
       <c r="C72" s="2">
-        <v>181894.73684210499</v>
+        <v>181894.736842105</v>
       </c>
       <c r="D72" s="2">
-        <v>44.855632781982401</v>
+        <v>44.8556327819824</v>
       </c>
       <c r="E72" s="2">
-        <v>7.3599591255187997</v>
+        <v>7.3599591255188</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1724,16 +1712,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>32741.052631578899</v>
+        <v>32741.0526315789</v>
       </c>
       <c r="C73" s="2">
-        <v>200084.21052631599</v>
+        <v>200084.210526316</v>
       </c>
       <c r="D73" s="2">
-        <v>45.019329071044901</v>
+        <v>45.0193290710449</v>
       </c>
       <c r="E73" s="2">
-        <v>7.3552913665771502</v>
+        <v>7.35529136657715</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1741,16 +1729,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>32741.052631578899</v>
+        <v>32741.0526315789</v>
       </c>
       <c r="C74" s="2">
         <v>218273.684210526</v>
       </c>
       <c r="D74" s="2">
-        <v>45.183021545410199</v>
+        <v>45.1830215454102</v>
       </c>
       <c r="E74" s="2">
-        <v>7.3505835533142099</v>
+        <v>7.35058355331421</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1758,16 +1746,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>32741.052631578899</v>
+        <v>32741.0526315789</v>
       </c>
       <c r="C75" s="2">
         <v>236463.157894737</v>
       </c>
       <c r="D75" s="2">
-        <v>45.346706390380902</v>
+        <v>45.3467063903809</v>
       </c>
       <c r="E75" s="2">
-        <v>7.3458352088928196</v>
+        <v>7.34583520889282</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1775,16 +1763,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>32741.052631578899</v>
+        <v>32741.0526315789</v>
       </c>
       <c r="C76" s="2">
-        <v>254652.63157894701</v>
+        <v>254652.631578947</v>
       </c>
       <c r="D76" s="2">
-        <v>45.510387420654297</v>
+        <v>45.5103874206543</v>
       </c>
       <c r="E76" s="2">
-        <v>7.3410463333129901</v>
+        <v>7.34104633331299</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1792,16 +1780,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>32741.052631578899</v>
+        <v>32741.0526315789</v>
       </c>
       <c r="C77" s="2">
-        <v>272842.10526315798</v>
+        <v>272842.105263158</v>
       </c>
       <c r="D77" s="2">
-        <v>45.674064636230497</v>
+        <v>45.6740646362305</v>
       </c>
       <c r="E77" s="2">
-        <v>7.3362154960632298</v>
+        <v>7.33621549606323</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1809,16 +1797,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>32741.052631578899</v>
+        <v>32741.0526315789</v>
       </c>
       <c r="C78" s="2">
-        <v>291031.57894736802</v>
+        <v>291031.578947368</v>
       </c>
       <c r="D78" s="2">
-        <v>45.837738037109403</v>
+        <v>45.8377380371094</v>
       </c>
       <c r="E78" s="2">
-        <v>7.3313431739807102</v>
+        <v>7.33134317398071</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1826,16 +1814,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>32741.052631578899</v>
+        <v>32741.0526315789</v>
       </c>
       <c r="C79" s="2">
-        <v>309221.05263157899</v>
+        <v>309221.052631579</v>
       </c>
       <c r="D79" s="2">
-        <v>46.001399993896499</v>
+        <v>46.0013999938965</v>
       </c>
       <c r="E79" s="2">
-        <v>7.3264284133911097</v>
+        <v>7.32642841339111</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1843,13 +1831,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>32741.052631578899</v>
+        <v>32741.0526315789</v>
       </c>
       <c r="C80" s="2">
-        <v>327410.52631578897</v>
+        <v>327410.526315789</v>
       </c>
       <c r="D80" s="2">
-        <v>46.165061950683601</v>
+        <v>46.1650619506836</v>
       </c>
       <c r="E80" s="2">
         <v>7.32147121429443</v>
@@ -1860,7 +1848,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>32741.052631578899</v>
+        <v>32741.0526315789</v>
       </c>
       <c r="C81" s="2">
         <v>345600</v>
@@ -1869,7 +1857,7 @@
         <v>46.3287162780762</v>
       </c>
       <c r="E81" s="2">
-        <v>7.3164706230163601</v>
+        <v>7.31647062301636</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1877,13 +1865,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>43654.736842105303</v>
+        <v>43654.7368421053</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
       </c>
       <c r="D82" s="2">
-        <v>43.216434478759801</v>
+        <v>43.2164344787598</v>
       </c>
       <c r="E82" s="2">
         <v>7.27020215988159</v>
@@ -1894,16 +1882,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>43654.736842105303</v>
+        <v>43654.7368421053</v>
       </c>
       <c r="C83" s="2">
-        <v>18189.473684210501</v>
+        <v>18189.4736842105</v>
       </c>
       <c r="D83" s="2">
-        <v>43.380172729492202</v>
+        <v>43.3801727294922</v>
       </c>
       <c r="E83" s="2">
-        <v>7.2655525207519496</v>
+        <v>7.26555252075195</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1911,13 +1899,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>43654.736842105303</v>
+        <v>43654.7368421053</v>
       </c>
       <c r="C84" s="2">
-        <v>36378.947368421097</v>
+        <v>36378.9473684211</v>
       </c>
       <c r="D84" s="2">
-        <v>43.543903350830099</v>
+        <v>43.5439033508301</v>
       </c>
       <c r="E84" s="2">
         <v>7.2608642578125</v>
@@ -1928,16 +1916,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>43654.736842105303</v>
+        <v>43654.7368421053</v>
       </c>
       <c r="C85" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="D85" s="2">
-        <v>43.707626342773402</v>
+        <v>43.7076263427734</v>
       </c>
       <c r="E85" s="2">
-        <v>7.2561364173889196</v>
+        <v>7.25613641738892</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1945,16 +1933,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>43654.736842105303</v>
+        <v>43654.7368421053</v>
       </c>
       <c r="C86" s="2">
-        <v>72757.894736842107</v>
+        <v>72757.8947368421</v>
       </c>
       <c r="D86" s="2">
-        <v>43.871349334716797</v>
+        <v>43.8713493347168</v>
       </c>
       <c r="E86" s="2">
-        <v>7.2513685226440403</v>
+        <v>7.25136852264404</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1962,13 +1950,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>43654.736842105303</v>
+        <v>43654.7368421053</v>
       </c>
       <c r="C87" s="2">
-        <v>90947.368421052597</v>
+        <v>90947.3684210526</v>
       </c>
       <c r="D87" s="2">
-        <v>44.035064697265597</v>
+        <v>44.0350646972656</v>
       </c>
       <c r="E87" s="2">
         <v>7.24655961990356</v>
@@ -1979,16 +1967,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>43654.736842105303</v>
+        <v>43654.7368421053</v>
       </c>
       <c r="C88" s="2">
         <v>109136.842105263</v>
       </c>
       <c r="D88" s="2">
-        <v>44.198776245117202</v>
+        <v>44.1987762451172</v>
       </c>
       <c r="E88" s="2">
-        <v>7.2417101860046396</v>
+        <v>7.24171018600464</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1996,16 +1984,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>43654.736842105303</v>
+        <v>43654.7368421053</v>
       </c>
       <c r="C89" s="2">
         <v>127326.315789474</v>
       </c>
       <c r="D89" s="2">
-        <v>44.362483978271499</v>
+        <v>44.3624839782715</v>
       </c>
       <c r="E89" s="2">
-        <v>7.2368197441101101</v>
+        <v>7.23681974411011</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2013,16 +2001,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>43654.736842105303</v>
+        <v>43654.7368421053</v>
       </c>
       <c r="C90" s="2">
-        <v>145515.78947368401</v>
+        <v>145515.789473684</v>
       </c>
       <c r="D90" s="2">
-        <v>44.526180267333999</v>
+        <v>44.526180267334</v>
       </c>
       <c r="E90" s="2">
-        <v>7.2318873405456499</v>
+        <v>7.23188734054565</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2030,16 +2018,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>43654.736842105303</v>
+        <v>43654.7368421053</v>
       </c>
       <c r="C91" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="D91" s="2">
-        <v>44.689876556396499</v>
+        <v>44.6898765563965</v>
       </c>
       <c r="E91" s="2">
-        <v>7.2269129753112802</v>
+        <v>7.22691297531128</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2047,16 +2035,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>43654.736842105303</v>
+        <v>43654.7368421053</v>
       </c>
       <c r="C92" s="2">
-        <v>181894.73684210499</v>
+        <v>181894.736842105</v>
       </c>
       <c r="D92" s="2">
-        <v>44.853565216064503</v>
+        <v>44.8535652160645</v>
       </c>
       <c r="E92" s="2">
-        <v>7.2218956947326696</v>
+        <v>7.22189569473267</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2064,13 +2052,13 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>43654.736842105303</v>
+        <v>43654.7368421053</v>
       </c>
       <c r="C93" s="2">
-        <v>200084.21052631599</v>
+        <v>200084.210526316</v>
       </c>
       <c r="D93" s="2">
-        <v>45.017250061035199</v>
+        <v>45.0172500610352</v>
       </c>
       <c r="E93" s="2">
         <v>7.21683549880981</v>
@@ -2081,13 +2069,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>43654.736842105303</v>
+        <v>43654.7368421053</v>
       </c>
       <c r="C94" s="2">
         <v>218273.684210526</v>
       </c>
       <c r="D94" s="2">
-        <v>45.180931091308601</v>
+        <v>45.1809310913086</v>
       </c>
       <c r="E94" s="2">
         <v>7.21173191070557</v>
@@ -2098,7 +2086,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>43654.736842105303</v>
+        <v>43654.7368421053</v>
       </c>
       <c r="C95" s="2">
         <v>236463.157894737</v>
@@ -2107,7 +2095,7 @@
         <v>45.3446044921875</v>
       </c>
       <c r="E95" s="2">
-        <v>7.2065849304199201</v>
+        <v>7.20658493041992</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2115,16 +2103,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>43654.736842105303</v>
+        <v>43654.7368421053</v>
       </c>
       <c r="C96" s="2">
-        <v>254652.63157894701</v>
+        <v>254652.631578947</v>
       </c>
       <c r="D96" s="2">
-        <v>45.508274078369098</v>
+        <v>45.5082740783691</v>
       </c>
       <c r="E96" s="2">
-        <v>7.2013926506042498</v>
+        <v>7.20139265060425</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2132,16 +2120,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>43654.736842105303</v>
+        <v>43654.7368421053</v>
       </c>
       <c r="C97" s="2">
-        <v>272842.10526315798</v>
+        <v>272842.105263158</v>
       </c>
       <c r="D97" s="2">
-        <v>45.671939849853501</v>
+        <v>45.6719398498535</v>
       </c>
       <c r="E97" s="2">
-        <v>7.1961560249328604</v>
+        <v>7.19615602493286</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2149,16 +2137,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>43654.736842105303</v>
+        <v>43654.7368421053</v>
       </c>
       <c r="C98" s="2">
-        <v>291031.57894736802</v>
+        <v>291031.578947368</v>
       </c>
       <c r="D98" s="2">
-        <v>45.835597991943402</v>
+        <v>45.8355979919434</v>
       </c>
       <c r="E98" s="2">
-        <v>7.1908740997314498</v>
+        <v>7.19087409973145</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2166,10 +2154,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>43654.736842105303</v>
+        <v>43654.7368421053</v>
       </c>
       <c r="C99" s="2">
-        <v>309221.05263157899</v>
+        <v>309221.052631579</v>
       </c>
       <c r="D99" s="2">
         <v>45.9992485046387</v>
@@ -2183,16 +2171,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>43654.736842105303</v>
+        <v>43654.7368421053</v>
       </c>
       <c r="C100" s="2">
-        <v>327410.52631578897</v>
+        <v>327410.526315789</v>
       </c>
       <c r="D100" s="2">
-        <v>46.162899017333999</v>
+        <v>46.162899017334</v>
       </c>
       <c r="E100" s="2">
-        <v>7.1801719665527299</v>
+        <v>7.18017196655273</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2200,16 +2188,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>43654.736842105303</v>
+        <v>43654.7368421053</v>
       </c>
       <c r="C101" s="2">
         <v>345600</v>
       </c>
       <c r="D101" s="2">
-        <v>46.326541900634801</v>
+        <v>46.3265419006348</v>
       </c>
       <c r="E101" s="2">
-        <v>7.1747508049011204</v>
+        <v>7.17475080490112</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2217,16 +2205,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
       </c>
       <c r="D102" s="2">
-        <v>43.214324951171903</v>
+        <v>43.2143249511719</v>
       </c>
       <c r="E102" s="2">
-        <v>7.1358995437622097</v>
+        <v>7.13589954376221</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2234,16 +2222,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="C103" s="2">
-        <v>18189.473684210501</v>
+        <v>18189.4736842105</v>
       </c>
       <c r="D103" s="2">
         <v>43.3780517578125</v>
       </c>
       <c r="E103" s="2">
-        <v>7.1308898925781197</v>
+        <v>7.13088989257812</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2251,16 +2239,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="C104" s="2">
-        <v>36378.947368421097</v>
+        <v>36378.9473684211</v>
       </c>
       <c r="D104" s="2">
-        <v>43.541770935058601</v>
+        <v>43.5417709350586</v>
       </c>
       <c r="E104" s="2">
-        <v>7.1258382797241202</v>
+        <v>7.12583827972412</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2268,16 +2256,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="C105" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="D105" s="2">
-        <v>43.705478668212898</v>
+        <v>43.7054786682129</v>
       </c>
       <c r="E105" s="2">
-        <v>7.1207437515258798</v>
+        <v>7.12074375152588</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2285,16 +2273,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="C106" s="2">
-        <v>72757.894736842107</v>
+        <v>72757.8947368421</v>
       </c>
       <c r="D106" s="2">
-        <v>43.869190216064503</v>
+        <v>43.8691902160645</v>
       </c>
       <c r="E106" s="2">
-        <v>7.1156058311462402</v>
+        <v>7.11560583114624</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2302,16 +2290,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="C107" s="2">
-        <v>90947.368421052597</v>
+        <v>90947.3684210526</v>
       </c>
       <c r="D107" s="2">
-        <v>44.032894134521499</v>
+        <v>44.0328941345215</v>
       </c>
       <c r="E107" s="2">
-        <v>7.1104245185852104</v>
+        <v>7.11042451858521</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2319,7 +2307,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="C108" s="2">
         <v>109136.842105263</v>
@@ -2328,7 +2316,7 @@
         <v>44.1965942382812</v>
       </c>
       <c r="E108" s="2">
-        <v>7.1051993370056197</v>
+        <v>7.10519933700562</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2336,16 +2324,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="C109" s="2">
         <v>127326.315789474</v>
       </c>
       <c r="D109" s="2">
-        <v>44.360286712646499</v>
+        <v>44.3602867126465</v>
       </c>
       <c r="E109" s="2">
-        <v>7.0999293327331499</v>
+        <v>7.09992933273315</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2353,16 +2341,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="C110" s="2">
-        <v>145515.78947368401</v>
+        <v>145515.789473684</v>
       </c>
       <c r="D110" s="2">
-        <v>44.523971557617202</v>
+        <v>44.5239715576172</v>
       </c>
       <c r="E110" s="2">
-        <v>7.0946145057678196</v>
+        <v>7.09461450576782</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2370,13 +2358,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="C111" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="D111" s="2">
-        <v>44.687652587890597</v>
+        <v>44.6876525878906</v>
       </c>
       <c r="E111" s="2">
         <v>7.08925437927246</v>
@@ -2387,16 +2375,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="C112" s="2">
-        <v>181894.73684210499</v>
+        <v>181894.736842105</v>
       </c>
       <c r="D112" s="2">
-        <v>44.851333618164098</v>
+        <v>44.8513336181641</v>
       </c>
       <c r="E112" s="2">
-        <v>7.0838484764099103</v>
+        <v>7.08384847640991</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2404,16 +2392,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="C113" s="2">
-        <v>200084.21052631599</v>
+        <v>200084.210526316</v>
       </c>
       <c r="D113" s="2">
-        <v>45.015007019042997</v>
+        <v>45.015007019043</v>
       </c>
       <c r="E113" s="2">
-        <v>7.0783958435058603</v>
+        <v>7.07839584350586</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2421,13 +2409,13 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="C114" s="2">
         <v>218273.684210526</v>
       </c>
       <c r="D114" s="2">
-        <v>45.178672790527301</v>
+        <v>45.1786727905273</v>
       </c>
       <c r="E114" s="2">
         <v>7.07289695739746</v>
@@ -2438,16 +2426,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="C115" s="2">
         <v>236463.157894737</v>
       </c>
       <c r="D115" s="2">
-        <v>45.342330932617202</v>
+        <v>45.3423309326172</v>
       </c>
       <c r="E115" s="2">
-        <v>7.0673503875732404</v>
+        <v>7.06735038757324</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2455,16 +2443,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="C116" s="2">
-        <v>254652.63157894701</v>
+        <v>254652.631578947</v>
       </c>
       <c r="D116" s="2">
-        <v>45.505989074707003</v>
+        <v>45.505989074707</v>
       </c>
       <c r="E116" s="2">
-        <v>7.0617561340331996</v>
+        <v>7.0617561340332</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2472,13 +2460,13 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="C117" s="2">
-        <v>272842.10526315798</v>
+        <v>272842.105263158</v>
       </c>
       <c r="D117" s="2">
-        <v>45.669639587402301</v>
+        <v>45.6696395874023</v>
       </c>
       <c r="E117" s="2">
         <v>7.05611324310303</v>
@@ -2489,16 +2477,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="C118" s="2">
-        <v>291031.57894736802</v>
+        <v>291031.578947368</v>
       </c>
       <c r="D118" s="2">
-        <v>45.833286285400398</v>
+        <v>45.8332862854004</v>
       </c>
       <c r="E118" s="2">
-        <v>7.0504217147827104</v>
+        <v>7.05042171478271</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2506,16 +2494,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="C119" s="2">
-        <v>309221.05263157899</v>
+        <v>309221.052631579</v>
       </c>
       <c r="D119" s="2">
-        <v>45.996925354003899</v>
+        <v>45.9969253540039</v>
       </c>
       <c r="E119" s="2">
-        <v>7.0446810722351101</v>
+        <v>7.04468107223511</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2523,16 +2511,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="C120" s="2">
-        <v>327410.52631578897</v>
+        <v>327410.526315789</v>
       </c>
       <c r="D120" s="2">
-        <v>46.160560607910199</v>
+        <v>46.1605606079102</v>
       </c>
       <c r="E120" s="2">
-        <v>7.0388903617858896</v>
+        <v>7.03889036178589</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2540,16 +2528,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="C121" s="2">
         <v>345600</v>
       </c>
       <c r="D121" s="2">
-        <v>46.324192047119098</v>
+        <v>46.3241920471191</v>
       </c>
       <c r="E121" s="2">
-        <v>7.0330491065979004</v>
+        <v>7.0330491065979</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2563,10 +2551,10 @@
         <v>0</v>
       </c>
       <c r="D122" s="2">
-        <v>43.212059020996101</v>
+        <v>43.2120590209961</v>
       </c>
       <c r="E122" s="2">
-        <v>7.0016126632690403</v>
+        <v>7.00161266326904</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2577,13 +2565,13 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C123" s="2">
-        <v>18189.473684210501</v>
+        <v>18189.4736842105</v>
       </c>
       <c r="D123" s="2">
-        <v>43.375770568847699</v>
+        <v>43.3757705688477</v>
       </c>
       <c r="E123" s="2">
-        <v>6.9962425231933603</v>
+        <v>6.99624252319336</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2594,13 +2582,13 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C124" s="2">
-        <v>36378.947368421097</v>
+        <v>36378.9473684211</v>
       </c>
       <c r="D124" s="2">
-        <v>43.539474487304702</v>
+        <v>43.5394744873047</v>
       </c>
       <c r="E124" s="2">
-        <v>6.9908275604248002</v>
+        <v>6.9908275604248</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2611,13 +2599,13 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C125" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="D125" s="2">
-        <v>43.703174591064503</v>
+        <v>43.7031745910645</v>
       </c>
       <c r="E125" s="2">
-        <v>6.9853663444518999</v>
+        <v>6.9853663444519</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2628,10 +2616,10 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C126" s="2">
-        <v>72757.894736842107</v>
+        <v>72757.8947368421</v>
       </c>
       <c r="D126" s="2">
-        <v>43.866870880127003</v>
+        <v>43.866870880127</v>
       </c>
       <c r="E126" s="2">
         <v>6.97985935211182</v>
@@ -2645,10 +2633,10 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C127" s="2">
-        <v>90947.368421052597</v>
+        <v>90947.3684210526</v>
       </c>
       <c r="D127" s="2">
-        <v>44.030559539794901</v>
+        <v>44.0305595397949</v>
       </c>
       <c r="E127" s="2">
         <v>6.97430515289307</v>
@@ -2665,10 +2653,10 @@
         <v>109136.842105263</v>
       </c>
       <c r="D128" s="2">
-        <v>44.194248199462898</v>
+        <v>44.1942481994629</v>
       </c>
       <c r="E128" s="2">
-        <v>6.9687037467956499</v>
+        <v>6.96870374679565</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2682,10 +2670,10 @@
         <v>127326.315789474</v>
       </c>
       <c r="D129" s="2">
-        <v>44.357925415039098</v>
+        <v>44.3579254150391</v>
       </c>
       <c r="E129" s="2">
-        <v>6.9630551338195801</v>
+        <v>6.96305513381958</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2696,10 +2684,10 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C130" s="2">
-        <v>145515.78947368401</v>
+        <v>145515.789473684</v>
       </c>
       <c r="D130" s="2">
-        <v>44.521598815917997</v>
+        <v>44.521598815918</v>
       </c>
       <c r="E130" s="2">
         <v>6.95735836029053</v>
@@ -2713,13 +2701,13 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C131" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="D131" s="2">
-        <v>44.685268402099602</v>
+        <v>44.6852684020996</v>
       </c>
       <c r="E131" s="2">
-        <v>6.9516124725341797</v>
+        <v>6.95161247253418</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2730,13 +2718,13 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C132" s="2">
-        <v>181894.73684210499</v>
+        <v>181894.736842105</v>
       </c>
       <c r="D132" s="2">
-        <v>44.848930358886697</v>
+        <v>44.8489303588867</v>
       </c>
       <c r="E132" s="2">
-        <v>6.9458179473876998</v>
+        <v>6.9458179473877</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2747,13 +2735,13 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C133" s="2">
-        <v>200084.21052631599</v>
+        <v>200084.210526316</v>
       </c>
       <c r="D133" s="2">
         <v>45.0125923156738</v>
       </c>
       <c r="E133" s="2">
-        <v>6.9399733543395996</v>
+        <v>6.9399733543396</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2767,10 +2755,10 @@
         <v>218273.684210526</v>
       </c>
       <c r="D134" s="2">
-        <v>45.176246643066399</v>
+        <v>45.1762466430664</v>
       </c>
       <c r="E134" s="2">
-        <v>6.9340786933898899</v>
+        <v>6.93407869338989</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2784,10 +2772,10 @@
         <v>236463.157894737</v>
       </c>
       <c r="D135" s="2">
-        <v>45.339889526367202</v>
+        <v>45.3398895263672</v>
       </c>
       <c r="E135" s="2">
-        <v>6.9281330108642596</v>
+        <v>6.92813301086426</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2798,10 +2786,10 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C136" s="2">
-        <v>254652.63157894701</v>
+        <v>254652.631578947</v>
       </c>
       <c r="D136" s="2">
-        <v>45.503532409667997</v>
+        <v>45.503532409668</v>
       </c>
       <c r="E136" s="2">
         <v>6.92213678359985</v>
@@ -2815,13 +2803,13 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C137" s="2">
-        <v>272842.10526315798</v>
+        <v>272842.105263158</v>
       </c>
       <c r="D137" s="2">
-        <v>45.667171478271499</v>
+        <v>45.6671714782715</v>
       </c>
       <c r="E137" s="2">
-        <v>6.9160881042480504</v>
+        <v>6.91608810424805</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2832,13 +2820,13 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C138" s="2">
-        <v>291031.57894736802</v>
+        <v>291031.578947368</v>
       </c>
       <c r="D138" s="2">
-        <v>45.830802917480497</v>
+        <v>45.8308029174805</v>
       </c>
       <c r="E138" s="2">
-        <v>6.9099874496459996</v>
+        <v>6.909987449646</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2849,13 +2837,13 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C139" s="2">
-        <v>309221.05263157899</v>
+        <v>309221.052631579</v>
       </c>
       <c r="D139" s="2">
-        <v>45.994426727294901</v>
+        <v>45.9944267272949</v>
       </c>
       <c r="E139" s="2">
-        <v>6.9038338661193803</v>
+        <v>6.90383386611938</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2866,10 +2854,10 @@
         <v>65482.1052631579</v>
       </c>
       <c r="C140" s="2">
-        <v>327410.52631578897</v>
+        <v>327410.526315789</v>
       </c>
       <c r="D140" s="2">
-        <v>46.158050537109403</v>
+        <v>46.1580505371094</v>
       </c>
       <c r="E140" s="2">
         <v>6.8976263999939</v>
@@ -2886,10 +2874,10 @@
         <v>345600</v>
       </c>
       <c r="D141" s="2">
-        <v>46.321666717529297</v>
+        <v>46.3216667175293</v>
       </c>
       <c r="E141" s="2">
-        <v>6.8913650512695304</v>
+        <v>6.89136505126953</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2897,16 +2885,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>76395.789473684199</v>
+        <v>76395.7894736842</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
       </c>
       <c r="D142" s="2">
-        <v>43.209632873535199</v>
+        <v>43.2096328735352</v>
       </c>
       <c r="E142" s="2">
-        <v>6.8673415184020996</v>
+        <v>6.8673415184021</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2914,13 +2902,13 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>76395.789473684199</v>
+        <v>76395.7894736842</v>
       </c>
       <c r="C143" s="2">
-        <v>18189.473684210501</v>
+        <v>18189.4736842105</v>
       </c>
       <c r="D143" s="2">
-        <v>43.373329162597699</v>
+        <v>43.3733291625977</v>
       </c>
       <c r="E143" s="2">
         <v>6.86161136627197</v>
@@ -2931,16 +2919,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>76395.789473684199</v>
+        <v>76395.7894736842</v>
       </c>
       <c r="C144" s="2">
-        <v>36378.947368421097</v>
+        <v>36378.9473684211</v>
       </c>
       <c r="D144" s="2">
-        <v>43.537021636962898</v>
+        <v>43.5370216369629</v>
       </c>
       <c r="E144" s="2">
-        <v>6.8558325767517099</v>
+        <v>6.85583257675171</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2948,16 +2936,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>76395.789473684199</v>
+        <v>76395.7894736842</v>
       </c>
       <c r="C145" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="D145" s="2">
-        <v>43.700706481933601</v>
+        <v>43.7007064819336</v>
       </c>
       <c r="E145" s="2">
-        <v>6.8500056266784703</v>
+        <v>6.85000562667847</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2965,16 +2953,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>76395.789473684199</v>
+        <v>76395.7894736842</v>
       </c>
       <c r="C146" s="2">
-        <v>72757.894736842107</v>
+        <v>72757.8947368421</v>
       </c>
       <c r="D146" s="2">
-        <v>43.864387512207003</v>
+        <v>43.864387512207</v>
       </c>
       <c r="E146" s="2">
-        <v>6.8441290855407697</v>
+        <v>6.84412908554077</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2982,16 +2970,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>76395.789473684199</v>
+        <v>76395.7894736842</v>
       </c>
       <c r="C147" s="2">
-        <v>90947.368421052597</v>
+        <v>90947.3684210526</v>
       </c>
       <c r="D147" s="2">
-        <v>44.028064727783203</v>
+        <v>44.0280647277832</v>
       </c>
       <c r="E147" s="2">
-        <v>6.8382024765014604</v>
+        <v>6.83820247650146</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2999,16 +2987,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>76395.789473684199</v>
+        <v>76395.7894736842</v>
       </c>
       <c r="C148" s="2">
         <v>109136.842105263</v>
       </c>
       <c r="D148" s="2">
-        <v>44.191738128662102</v>
+        <v>44.1917381286621</v>
       </c>
       <c r="E148" s="2">
-        <v>6.8322257995605504</v>
+        <v>6.83222579956055</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3016,16 +3004,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>76395.789473684199</v>
+        <v>76395.7894736842</v>
       </c>
       <c r="C149" s="2">
         <v>127326.315789474</v>
       </c>
       <c r="D149" s="2">
-        <v>44.355403900146499</v>
+        <v>44.3554039001465</v>
       </c>
       <c r="E149" s="2">
-        <v>6.8261981010437003</v>
+        <v>6.8261981010437</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3033,16 +3021,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>76395.789473684199</v>
+        <v>76395.7894736842</v>
       </c>
       <c r="C150" s="2">
-        <v>145515.78947368401</v>
+        <v>145515.789473684</v>
       </c>
       <c r="D150" s="2">
-        <v>44.519058227539098</v>
+        <v>44.5190582275391</v>
       </c>
       <c r="E150" s="2">
-        <v>6.8201189041137704</v>
+        <v>6.82011890411377</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3050,16 +3038,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>76395.789473684199</v>
+        <v>76395.7894736842</v>
       </c>
       <c r="C151" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="D151" s="2">
-        <v>44.682716369628899</v>
+        <v>44.6827163696289</v>
       </c>
       <c r="E151" s="2">
-        <v>6.8139877319335902</v>
+        <v>6.81398773193359</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3067,16 +3055,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>76395.789473684199</v>
+        <v>76395.7894736842</v>
       </c>
       <c r="C152" s="2">
-        <v>181894.73684210499</v>
+        <v>181894.736842105</v>
       </c>
       <c r="D152" s="2">
-        <v>44.846366882324197</v>
+        <v>44.8463668823242</v>
       </c>
       <c r="E152" s="2">
-        <v>6.8078045845031703</v>
+        <v>6.80780458450317</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3084,16 +3072,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>76395.789473684199</v>
+        <v>76395.7894736842</v>
       </c>
       <c r="C153" s="2">
-        <v>200084.21052631599</v>
+        <v>200084.210526316</v>
       </c>
       <c r="D153" s="2">
         <v>45.010009765625</v>
       </c>
       <c r="E153" s="2">
-        <v>6.8015680313110396</v>
+        <v>6.80156803131104</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3101,16 +3089,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>76395.789473684199</v>
+        <v>76395.7894736842</v>
       </c>
       <c r="C154" s="2">
         <v>218273.684210526</v>
       </c>
       <c r="D154" s="2">
-        <v>45.173648834228501</v>
+        <v>45.1736488342285</v>
       </c>
       <c r="E154" s="2">
-        <v>6.7952780723571804</v>
+        <v>6.79527807235718</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3118,7 +3106,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>76395.789473684199</v>
+        <v>76395.7894736842</v>
       </c>
       <c r="C155" s="2">
         <v>236463.157894737</v>
@@ -3127,7 +3115,7 @@
         <v>45.3372802734375</v>
       </c>
       <c r="E155" s="2">
-        <v>6.7889342308044398</v>
+        <v>6.78893423080444</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3135,16 +3123,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>76395.789473684199</v>
+        <v>76395.7894736842</v>
       </c>
       <c r="C156" s="2">
-        <v>254652.63157894701</v>
+        <v>254652.631578947</v>
       </c>
       <c r="D156" s="2">
-        <v>45.500907897949197</v>
+        <v>45.5009078979492</v>
       </c>
       <c r="E156" s="2">
-        <v>6.7825355529785201</v>
+        <v>6.78253555297852</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3152,16 +3140,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>76395.789473684199</v>
+        <v>76395.7894736842</v>
       </c>
       <c r="C157" s="2">
-        <v>272842.10526315798</v>
+        <v>272842.105263158</v>
       </c>
       <c r="D157" s="2">
         <v>45.6645317077637</v>
       </c>
       <c r="E157" s="2">
-        <v>6.7760815620422399</v>
+        <v>6.77608156204224</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3169,13 +3157,13 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>76395.789473684199</v>
+        <v>76395.7894736842</v>
       </c>
       <c r="C158" s="2">
-        <v>291031.57894736802</v>
+        <v>291031.578947368</v>
       </c>
       <c r="D158" s="2">
-        <v>45.828147888183601</v>
+        <v>45.8281478881836</v>
       </c>
       <c r="E158" s="2">
         <v>6.76957130432129</v>
@@ -3186,16 +3174,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>76395.789473684199</v>
+        <v>76395.7894736842</v>
       </c>
       <c r="C159" s="2">
-        <v>309221.05263157899</v>
+        <v>309221.052631579</v>
       </c>
       <c r="D159" s="2">
-        <v>45.991756439208999</v>
+        <v>45.991756439209</v>
       </c>
       <c r="E159" s="2">
-        <v>6.7630052566528303</v>
+        <v>6.76300525665283</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3203,16 +3191,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>76395.789473684199</v>
+        <v>76395.7894736842</v>
       </c>
       <c r="C160" s="2">
-        <v>327410.52631578897</v>
+        <v>327410.526315789</v>
       </c>
       <c r="D160" s="2">
-        <v>46.155361175537102</v>
+        <v>46.1553611755371</v>
       </c>
       <c r="E160" s="2">
-        <v>6.7563819885253897</v>
+        <v>6.75638198852539</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3220,16 +3208,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>76395.789473684199</v>
+        <v>76395.7894736842</v>
       </c>
       <c r="C161" s="2">
         <v>345600</v>
       </c>
       <c r="D161" s="2">
-        <v>46.318962097167997</v>
+        <v>46.318962097168</v>
       </c>
       <c r="E161" s="2">
-        <v>6.7497010231018102</v>
+        <v>6.74970102310181</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3237,7 +3225,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>87309.473684210505</v>
+        <v>87309.4736842105</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -3246,7 +3234,7 @@
         <v>43.2070503234863</v>
       </c>
       <c r="E162" s="2">
-        <v>6.7330875396728498</v>
+        <v>6.73308753967285</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3254,16 +3242,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>87309.473684210505</v>
+        <v>87309.4736842105</v>
       </c>
       <c r="C163" s="2">
-        <v>18189.473684210501</v>
+        <v>18189.4736842105</v>
       </c>
       <c r="D163" s="2">
-        <v>43.370731353759801</v>
+        <v>43.3707313537598</v>
       </c>
       <c r="E163" s="2">
-        <v>6.7269973754882804</v>
+        <v>6.72699737548828</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3271,16 +3259,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>87309.473684210505</v>
+        <v>87309.4736842105</v>
       </c>
       <c r="C164" s="2">
-        <v>36378.947368421097</v>
+        <v>36378.9473684211</v>
       </c>
       <c r="D164" s="2">
-        <v>43.534412384033203</v>
+        <v>43.5344123840332</v>
       </c>
       <c r="E164" s="2">
-        <v>6.7208561897277797</v>
+        <v>6.72085618972778</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3288,16 +3276,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>87309.473684210505</v>
+        <v>87309.4736842105</v>
       </c>
       <c r="C165" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="D165" s="2">
-        <v>43.698078155517599</v>
+        <v>43.6980781555176</v>
       </c>
       <c r="E165" s="2">
-        <v>6.7146625518798801</v>
+        <v>6.71466255187988</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3305,16 +3293,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>87309.473684210505</v>
+        <v>87309.4736842105</v>
       </c>
       <c r="C166" s="2">
-        <v>72757.894736842107</v>
+        <v>72757.8947368421</v>
       </c>
       <c r="D166" s="2">
-        <v>43.861747741699197</v>
+        <v>43.8617477416992</v>
       </c>
       <c r="E166" s="2">
-        <v>6.7084169387817401</v>
+        <v>6.70841693878174</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3322,16 +3310,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>87309.473684210505</v>
+        <v>87309.4736842105</v>
       </c>
       <c r="C167" s="2">
-        <v>90947.368421052597</v>
+        <v>90947.3684210526</v>
       </c>
       <c r="D167" s="2">
         <v>44.0254096984863</v>
       </c>
       <c r="E167" s="2">
-        <v>6.7021179199218803</v>
+        <v>6.70211791992188</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3339,16 +3327,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>87309.473684210505</v>
+        <v>87309.4736842105</v>
       </c>
       <c r="C168" s="2">
         <v>109136.842105263</v>
       </c>
       <c r="D168" s="2">
-        <v>44.189064025878899</v>
+        <v>44.1890640258789</v>
       </c>
       <c r="E168" s="2">
-        <v>6.6957659721374503</v>
+        <v>6.69576597213745</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3356,16 +3344,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>87309.473684210505</v>
+        <v>87309.4736842105</v>
       </c>
       <c r="C169" s="2">
         <v>127326.315789474</v>
       </c>
       <c r="D169" s="2">
-        <v>44.352714538574197</v>
+        <v>44.3527145385742</v>
       </c>
       <c r="E169" s="2">
-        <v>6.6893596649169904</v>
+        <v>6.68935966491699</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3373,16 +3361,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>87309.473684210505</v>
+        <v>87309.4736842105</v>
       </c>
       <c r="C170" s="2">
-        <v>145515.78947368401</v>
+        <v>145515.789473684</v>
       </c>
       <c r="D170" s="2">
         <v>44.516357421875</v>
       </c>
       <c r="E170" s="2">
-        <v>6.6828985214233398</v>
+        <v>6.68289852142334</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3390,16 +3378,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>87309.473684210505</v>
+        <v>87309.4736842105</v>
       </c>
       <c r="C171" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="D171" s="2">
-        <v>44.679996490478501</v>
+        <v>44.6799964904785</v>
       </c>
       <c r="E171" s="2">
-        <v>6.6763825416564897</v>
+        <v>6.67638254165649</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3407,16 +3395,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>87309.473684210505</v>
+        <v>87309.4736842105</v>
       </c>
       <c r="C172" s="2">
-        <v>181894.73684210499</v>
+        <v>181894.736842105</v>
       </c>
       <c r="D172" s="2">
-        <v>44.843631744384801</v>
+        <v>44.8436317443848</v>
       </c>
       <c r="E172" s="2">
-        <v>6.6698107719421396</v>
+        <v>6.66981077194214</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3424,16 +3412,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>87309.473684210505</v>
+        <v>87309.4736842105</v>
       </c>
       <c r="C173" s="2">
-        <v>200084.21052631599</v>
+        <v>200084.210526316</v>
       </c>
       <c r="D173" s="2">
-        <v>45.007259368896499</v>
+        <v>45.0072593688965</v>
       </c>
       <c r="E173" s="2">
-        <v>6.6631827354431197</v>
+        <v>6.66318273544312</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3441,16 +3429,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>87309.473684210505</v>
+        <v>87309.4736842105</v>
       </c>
       <c r="C174" s="2">
         <v>218273.684210526</v>
       </c>
       <c r="D174" s="2">
-        <v>45.170883178710902</v>
+        <v>45.1708831787109</v>
       </c>
       <c r="E174" s="2">
-        <v>6.6564974784851101</v>
+        <v>6.65649747848511</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3458,16 +3446,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>87309.473684210505</v>
+        <v>87309.4736842105</v>
       </c>
       <c r="C175" s="2">
         <v>236463.157894737</v>
       </c>
       <c r="D175" s="2">
-        <v>45.334499359130902</v>
+        <v>45.3344993591309</v>
       </c>
       <c r="E175" s="2">
-        <v>6.6497550010681197</v>
+        <v>6.64975500106812</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3475,16 +3463,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>87309.473684210505</v>
+        <v>87309.4736842105</v>
       </c>
       <c r="C176" s="2">
-        <v>254652.63157894701</v>
+        <v>254652.631578947</v>
       </c>
       <c r="D176" s="2">
-        <v>45.498111724853501</v>
+        <v>45.4981117248535</v>
       </c>
       <c r="E176" s="2">
-        <v>6.6429543495178196</v>
+        <v>6.64295434951782</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3492,16 +3480,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>87309.473684210505</v>
+        <v>87309.4736842105</v>
       </c>
       <c r="C177" s="2">
-        <v>272842.10526315798</v>
+        <v>272842.105263158</v>
       </c>
       <c r="D177" s="2">
-        <v>45.661716461181598</v>
+        <v>45.6617164611816</v>
       </c>
       <c r="E177" s="2">
-        <v>6.6360950469970703</v>
+        <v>6.63609504699707</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3509,16 +3497,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>87309.473684210505</v>
+        <v>87309.4736842105</v>
       </c>
       <c r="C178" s="2">
-        <v>291031.57894736802</v>
+        <v>291031.578947368</v>
       </c>
       <c r="D178" s="2">
-        <v>45.825321197509801</v>
+        <v>45.8253211975098</v>
       </c>
       <c r="E178" s="2">
-        <v>6.6291761398315403</v>
+        <v>6.62917613983154</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3526,16 +3514,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>87309.473684210505</v>
+        <v>87309.4736842105</v>
       </c>
       <c r="C179" s="2">
-        <v>309221.05263157899</v>
+        <v>309221.052631579</v>
       </c>
       <c r="D179" s="2">
         <v>45.9889106750488</v>
       </c>
       <c r="E179" s="2">
-        <v>6.6221976280212402</v>
+        <v>6.62219762802124</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3543,16 +3531,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>87309.473684210505</v>
+        <v>87309.4736842105</v>
       </c>
       <c r="C180" s="2">
-        <v>327410.52631578897</v>
+        <v>327410.526315789</v>
       </c>
       <c r="D180" s="2">
-        <v>46.152500152587898</v>
+        <v>46.1525001525879</v>
       </c>
       <c r="E180" s="2">
-        <v>6.6151585578918501</v>
+        <v>6.61515855789185</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3560,16 +3548,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>87309.473684210505</v>
+        <v>87309.4736842105</v>
       </c>
       <c r="C181" s="2">
         <v>345600</v>
       </c>
       <c r="D181" s="2">
-        <v>46.316085815429702</v>
+        <v>46.3160858154297</v>
       </c>
       <c r="E181" s="2">
-        <v>6.6080574989318803</v>
+        <v>6.60805749893188</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3577,16 +3565,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>98223.157894736796</v>
+        <v>98223.1578947368</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
       </c>
       <c r="D182" s="2">
-        <v>43.204307556152301</v>
+        <v>43.2043075561523</v>
       </c>
       <c r="E182" s="2">
-        <v>6.5988521575927699</v>
+        <v>6.59885215759277</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3594,16 +3582,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>98223.157894736796</v>
+        <v>98223.1578947368</v>
       </c>
       <c r="C183" s="2">
-        <v>18189.473684210501</v>
+        <v>18189.4736842105</v>
       </c>
       <c r="D183" s="2">
-        <v>43.367977142333999</v>
+        <v>43.367977142334</v>
       </c>
       <c r="E183" s="2">
-        <v>6.5924024581909197</v>
+        <v>6.59240245819092</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3611,13 +3599,13 @@
         <v>182</v>
       </c>
       <c r="B184" s="2">
-        <v>98223.157894736796</v>
+        <v>98223.1578947368</v>
       </c>
       <c r="C184" s="2">
-        <v>36378.947368421097</v>
+        <v>36378.9473684211</v>
       </c>
       <c r="D184" s="2">
-        <v>43.531639099121101</v>
+        <v>43.5316390991211</v>
       </c>
       <c r="E184" s="2">
         <v>6.58589792251587</v>
@@ -3628,16 +3616,16 @@
         <v>183</v>
       </c>
       <c r="B185" s="2">
-        <v>98223.157894736796</v>
+        <v>98223.1578947368</v>
       </c>
       <c r="C185" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="D185" s="2">
         <v>43.6952934265137</v>
       </c>
       <c r="E185" s="2">
-        <v>6.5793390274047896</v>
+        <v>6.57933902740479</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3645,16 +3633,16 @@
         <v>184</v>
       </c>
       <c r="B186" s="2">
-        <v>98223.157894736796</v>
+        <v>98223.1578947368</v>
       </c>
       <c r="C186" s="2">
-        <v>72757.894736842107</v>
+        <v>72757.8947368421</v>
       </c>
       <c r="D186" s="2">
-        <v>43.858943939208999</v>
+        <v>43.858943939209</v>
       </c>
       <c r="E186" s="2">
-        <v>6.5727238655090297</v>
+        <v>6.57272386550903</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3662,16 +3650,16 @@
         <v>185</v>
       </c>
       <c r="B187" s="2">
-        <v>98223.157894736796</v>
+        <v>98223.1578947368</v>
       </c>
       <c r="C187" s="2">
-        <v>90947.368421052597</v>
+        <v>90947.3684210526</v>
       </c>
       <c r="D187" s="2">
-        <v>44.022590637207003</v>
+        <v>44.022590637207</v>
       </c>
       <c r="E187" s="2">
-        <v>6.5660533905029297</v>
+        <v>6.56605339050293</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3679,13 +3667,13 @@
         <v>186</v>
       </c>
       <c r="B188" s="2">
-        <v>98223.157894736796</v>
+        <v>98223.1578947368</v>
       </c>
       <c r="C188" s="2">
         <v>109136.842105263</v>
       </c>
       <c r="D188" s="2">
-        <v>44.186229705810497</v>
+        <v>44.1862297058105</v>
       </c>
       <c r="E188" s="2">
         <v>6.55932569503784</v>
@@ -3696,16 +3684,16 @@
         <v>187</v>
       </c>
       <c r="B189" s="2">
-        <v>98223.157894736796</v>
+        <v>98223.1578947368</v>
       </c>
       <c r="C189" s="2">
         <v>127326.315789474</v>
       </c>
       <c r="D189" s="2">
-        <v>44.349864959716797</v>
+        <v>44.3498649597168</v>
       </c>
       <c r="E189" s="2">
-        <v>6.5525407791137704</v>
+        <v>6.55254077911377</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3713,16 +3701,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="2">
-        <v>98223.157894736796</v>
+        <v>98223.1578947368</v>
       </c>
       <c r="C190" s="2">
-        <v>145515.78947368401</v>
+        <v>145515.789473684</v>
       </c>
       <c r="D190" s="2">
         <v>44.5134887695312</v>
       </c>
       <c r="E190" s="2">
-        <v>6.5456986427307102</v>
+        <v>6.54569864273071</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3730,13 +3718,13 @@
         <v>189</v>
       </c>
       <c r="B191" s="2">
-        <v>98223.157894736796</v>
+        <v>98223.1578947368</v>
       </c>
       <c r="C191" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="D191" s="2">
-        <v>44.677112579345703</v>
+        <v>44.6771125793457</v>
       </c>
       <c r="E191" s="2">
         <v>6.53879737854004</v>
@@ -3747,16 +3735,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="2">
-        <v>98223.157894736796</v>
+        <v>98223.1578947368</v>
       </c>
       <c r="C192" s="2">
-        <v>181894.73684210499</v>
+        <v>181894.736842105</v>
       </c>
       <c r="D192" s="2">
-        <v>44.840732574462898</v>
+        <v>44.8407325744629</v>
       </c>
       <c r="E192" s="2">
-        <v>6.5318374633789098</v>
+        <v>6.53183746337891</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3764,16 +3752,16 @@
         <v>191</v>
       </c>
       <c r="B193" s="2">
-        <v>98223.157894736796</v>
+        <v>98223.1578947368</v>
       </c>
       <c r="C193" s="2">
-        <v>200084.21052631599</v>
+        <v>200084.210526316</v>
       </c>
       <c r="D193" s="2">
-        <v>45.004344940185497</v>
+        <v>45.0043449401855</v>
       </c>
       <c r="E193" s="2">
-        <v>6.5248174667358398</v>
+        <v>6.52481746673584</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3781,7 +3769,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="2">
-        <v>98223.157894736796</v>
+        <v>98223.1578947368</v>
       </c>
       <c r="C194" s="2">
         <v>218273.684210526</v>
@@ -3790,7 +3778,7 @@
         <v>45.1679496765137</v>
       </c>
       <c r="E194" s="2">
-        <v>6.5177378654479998</v>
+        <v>6.517737865448</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3798,16 +3786,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="2">
-        <v>98223.157894736796</v>
+        <v>98223.1578947368</v>
       </c>
       <c r="C195" s="2">
         <v>236463.157894737</v>
       </c>
       <c r="D195" s="2">
-        <v>45.331546783447301</v>
+        <v>45.3315467834473</v>
       </c>
       <c r="E195" s="2">
-        <v>6.5105972290039098</v>
+        <v>6.51059722900391</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3815,16 +3803,16 @@
         <v>194</v>
       </c>
       <c r="B196" s="2">
-        <v>98223.157894736796</v>
+        <v>98223.1578947368</v>
       </c>
       <c r="C196" s="2">
-        <v>254652.63157894701</v>
+        <v>254652.631578947</v>
       </c>
       <c r="D196" s="2">
-        <v>45.495143890380902</v>
+        <v>45.4951438903809</v>
       </c>
       <c r="E196" s="2">
-        <v>6.5033946037292498</v>
+        <v>6.50339460372925</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3832,16 +3820,16 @@
         <v>195</v>
       </c>
       <c r="B197" s="2">
-        <v>98223.157894736796</v>
+        <v>98223.1578947368</v>
       </c>
       <c r="C197" s="2">
-        <v>272842.10526315798</v>
+        <v>272842.105263158</v>
       </c>
       <c r="D197" s="2">
-        <v>45.658733367919901</v>
+        <v>45.6587333679199</v>
       </c>
       <c r="E197" s="2">
-        <v>6.4961299896240199</v>
+        <v>6.49612998962402</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3849,16 +3837,16 @@
         <v>196</v>
       </c>
       <c r="B198" s="2">
-        <v>98223.157894736796</v>
+        <v>98223.1578947368</v>
       </c>
       <c r="C198" s="2">
-        <v>291031.57894736802</v>
+        <v>291031.578947368</v>
       </c>
       <c r="D198" s="2">
-        <v>45.822319030761697</v>
+        <v>45.8223190307617</v>
       </c>
       <c r="E198" s="2">
-        <v>6.4888029098510698</v>
+        <v>6.48880290985107</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3866,16 +3854,16 @@
         <v>197</v>
       </c>
       <c r="B199" s="2">
-        <v>98223.157894736796</v>
+        <v>98223.1578947368</v>
       </c>
       <c r="C199" s="2">
-        <v>309221.05263157899</v>
+        <v>309221.052631579</v>
       </c>
       <c r="D199" s="2">
-        <v>45.985893249511697</v>
+        <v>45.9858932495117</v>
       </c>
       <c r="E199" s="2">
-        <v>6.4814119338989302</v>
+        <v>6.48141193389893</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3883,16 +3871,16 @@
         <v>198</v>
       </c>
       <c r="B200" s="2">
-        <v>98223.157894736796</v>
+        <v>98223.1578947368</v>
       </c>
       <c r="C200" s="2">
-        <v>327410.52631578897</v>
+        <v>327410.526315789</v>
       </c>
       <c r="D200" s="2">
-        <v>46.149467468261697</v>
+        <v>46.1494674682617</v>
       </c>
       <c r="E200" s="2">
-        <v>6.4739570617675799</v>
+        <v>6.47395706176758</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3900,16 +3888,16 @@
         <v>199</v>
       </c>
       <c r="B201" s="2">
-        <v>98223.157894736796</v>
+        <v>98223.1578947368</v>
       </c>
       <c r="C201" s="2">
         <v>345600</v>
       </c>
       <c r="D201" s="2">
-        <v>46.313034057617202</v>
+        <v>46.3130340576172</v>
       </c>
       <c r="E201" s="2">
-        <v>6.4664368629455602</v>
+        <v>6.46643686294556</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3923,10 +3911,10 @@
         <v>0</v>
       </c>
       <c r="D202" s="2">
-        <v>43.201412200927699</v>
+        <v>43.2014122009277</v>
       </c>
       <c r="E202" s="2">
-        <v>6.4646358489990199</v>
+        <v>6.46463584899902</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3937,13 +3925,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C203" s="2">
-        <v>18189.473684210501</v>
+        <v>18189.4736842105</v>
       </c>
       <c r="D203" s="2">
-        <v>43.365062713622997</v>
+        <v>43.365062713623</v>
       </c>
       <c r="E203" s="2">
-        <v>6.4578261375427202</v>
+        <v>6.45782613754272</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3954,13 +3942,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C204" s="2">
-        <v>36378.947368421097</v>
+        <v>36378.9473684211</v>
       </c>
       <c r="D204" s="2">
-        <v>43.528709411621101</v>
+        <v>43.5287094116211</v>
       </c>
       <c r="E204" s="2">
-        <v>6.4509592056274396</v>
+        <v>6.45095920562744</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3971,13 +3959,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C205" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="D205" s="2">
-        <v>43.692344665527301</v>
+        <v>43.6923446655273</v>
       </c>
       <c r="E205" s="2">
-        <v>6.4440345764160201</v>
+        <v>6.44403457641602</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3988,10 +3976,10 @@
         <v>109136.842105263</v>
       </c>
       <c r="C206" s="2">
-        <v>72757.894736842107</v>
+        <v>72757.8947368421</v>
       </c>
       <c r="D206" s="2">
-        <v>43.855979919433601</v>
+        <v>43.8559799194336</v>
       </c>
       <c r="E206" s="2">
         <v>6.43705081939697</v>
@@ -4005,13 +3993,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C207" s="2">
-        <v>90947.368421052597</v>
+        <v>90947.3684210526</v>
       </c>
       <c r="D207" s="2">
-        <v>44.019607543945298</v>
+        <v>44.0196075439453</v>
       </c>
       <c r="E207" s="2">
-        <v>6.4300079345703098</v>
+        <v>6.43000793457031</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4025,10 +4013,10 @@
         <v>109136.842105263</v>
       </c>
       <c r="D208" s="2">
-        <v>44.183231353759801</v>
+        <v>44.1832313537598</v>
       </c>
       <c r="E208" s="2">
-        <v>6.4229054450988796</v>
+        <v>6.42290544509888</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4042,10 +4030,10 @@
         <v>127326.315789474</v>
       </c>
       <c r="D209" s="2">
-        <v>44.346851348877003</v>
+        <v>44.346851348877</v>
       </c>
       <c r="E209" s="2">
-        <v>6.4157423973083496</v>
+        <v>6.41574239730835</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4056,13 +4044,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C210" s="2">
-        <v>145515.78947368401</v>
+        <v>145515.789473684</v>
       </c>
       <c r="D210" s="2">
-        <v>44.510456085205099</v>
+        <v>44.5104560852051</v>
       </c>
       <c r="E210" s="2">
-        <v>6.4085187911987296</v>
+        <v>6.40851879119873</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4073,13 +4061,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C211" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="D211" s="2">
-        <v>44.674064636230497</v>
+        <v>44.6740646362305</v>
       </c>
       <c r="E211" s="2">
-        <v>6.4012331962585396</v>
+        <v>6.40123319625854</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4090,13 +4078,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C212" s="2">
-        <v>181894.73684210499</v>
+        <v>181894.736842105</v>
       </c>
       <c r="D212" s="2">
         <v>44.8376655578613</v>
       </c>
       <c r="E212" s="2">
-        <v>6.3938851356506303</v>
+        <v>6.39388513565063</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4107,10 +4095,10 @@
         <v>109136.842105263</v>
       </c>
       <c r="C213" s="2">
-        <v>200084.21052631599</v>
+        <v>200084.210526316</v>
       </c>
       <c r="D213" s="2">
-        <v>45.001258850097699</v>
+        <v>45.0012588500977</v>
       </c>
       <c r="E213" s="2">
         <v>6.38647413253784</v>
@@ -4127,10 +4115,10 @@
         <v>218273.684210526</v>
       </c>
       <c r="D214" s="2">
-        <v>45.164848327636697</v>
+        <v>45.1648483276367</v>
       </c>
       <c r="E214" s="2">
-        <v>6.3789992332458496</v>
+        <v>6.37899923324585</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4158,13 +4146,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C216" s="2">
-        <v>254652.63157894701</v>
+        <v>254652.631578947</v>
       </c>
       <c r="D216" s="2">
-        <v>45.492008209228501</v>
+        <v>45.4920082092285</v>
       </c>
       <c r="E216" s="2">
-        <v>6.3638567924499503</v>
+        <v>6.36385679244995</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4175,13 +4163,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C217" s="2">
-        <v>272842.10526315798</v>
+        <v>272842.105263158</v>
       </c>
       <c r="D217" s="2">
         <v>45.6555786132812</v>
       </c>
       <c r="E217" s="2">
-        <v>6.3561873435974103</v>
+        <v>6.35618734359741</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4192,13 +4180,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C218" s="2">
-        <v>291031.57894736802</v>
+        <v>291031.578947368</v>
       </c>
       <c r="D218" s="2">
-        <v>45.819145202636697</v>
+        <v>45.8191452026367</v>
       </c>
       <c r="E218" s="2">
-        <v>6.3484516143798801</v>
+        <v>6.34845161437988</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4209,13 +4197,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C219" s="2">
-        <v>309221.05263157899</v>
+        <v>309221.052631579</v>
       </c>
       <c r="D219" s="2">
-        <v>45.982704162597699</v>
+        <v>45.9827041625977</v>
       </c>
       <c r="E219" s="2">
-        <v>6.3406491279602104</v>
+        <v>6.34064912796021</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4226,13 +4214,13 @@
         <v>109136.842105263</v>
       </c>
       <c r="C220" s="2">
-        <v>327410.52631578897</v>
+        <v>327410.526315789</v>
       </c>
       <c r="D220" s="2">
         <v>46.1462593078613</v>
       </c>
       <c r="E220" s="2">
-        <v>6.3327784538268999</v>
+        <v>6.3327784538269</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4246,10 +4234,10 @@
         <v>345600</v>
       </c>
       <c r="D221" s="2">
-        <v>46.309806823730497</v>
+        <v>46.3098068237305</v>
       </c>
       <c r="E221" s="2">
-        <v>6.3248391151428196</v>
+        <v>6.32483911514282</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4263,10 +4251,10 @@
         <v>0</v>
       </c>
       <c r="D222" s="2">
-        <v>43.198356628417997</v>
+        <v>43.198356628418</v>
       </c>
       <c r="E222" s="2">
-        <v>6.3304405212402299</v>
+        <v>6.33044052124023</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4277,13 +4265,13 @@
         <v>120050.526315789</v>
       </c>
       <c r="C223" s="2">
-        <v>18189.473684210501</v>
+        <v>18189.4736842105</v>
       </c>
       <c r="D223" s="2">
-        <v>43.361991882324197</v>
+        <v>43.3619918823242</v>
       </c>
       <c r="E223" s="2">
-        <v>6.3232712745666504</v>
+        <v>6.32327127456665</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4294,13 +4282,13 @@
         <v>120050.526315789</v>
       </c>
       <c r="C224" s="2">
-        <v>36378.947368421097</v>
+        <v>36378.9473684211</v>
       </c>
       <c r="D224" s="2">
-        <v>43.525619506835902</v>
+        <v>43.5256195068359</v>
       </c>
       <c r="E224" s="2">
-        <v>6.3160419464111301</v>
+        <v>6.31604194641113</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4311,13 +4299,13 @@
         <v>120050.526315789</v>
       </c>
       <c r="C225" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="D225" s="2">
-        <v>43.689235687255902</v>
+        <v>43.6892356872559</v>
       </c>
       <c r="E225" s="2">
-        <v>6.3087515830993697</v>
+        <v>6.30875158309937</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4328,13 +4316,13 @@
         <v>120050.526315789</v>
       </c>
       <c r="C226" s="2">
-        <v>72757.894736842107</v>
+        <v>72757.8947368421</v>
       </c>
       <c r="D226" s="2">
-        <v>43.852855682372997</v>
+        <v>43.852855682373</v>
       </c>
       <c r="E226" s="2">
-        <v>6.3013997077941903</v>
+        <v>6.30139970779419</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4345,10 +4333,10 @@
         <v>120050.526315789</v>
       </c>
       <c r="C227" s="2">
-        <v>90947.368421052597</v>
+        <v>90947.3684210526</v>
       </c>
       <c r="D227" s="2">
-        <v>44.016464233398402</v>
+        <v>44.0164642333984</v>
       </c>
       <c r="E227" s="2">
         <v>6.29398488998413</v>
@@ -4368,7 +4356,7 @@
         <v>44.1800727844238</v>
       </c>
       <c r="E228" s="2">
-        <v>6.2865076065063503</v>
+        <v>6.28650760650635</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4382,10 +4370,10 @@
         <v>127326.315789474</v>
       </c>
       <c r="D229" s="2">
-        <v>44.343669891357401</v>
+        <v>44.3436698913574</v>
       </c>
       <c r="E229" s="2">
-        <v>6.2789664268493697</v>
+        <v>6.27896642684937</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4396,10 +4384,10 @@
         <v>120050.526315789</v>
       </c>
       <c r="C230" s="2">
-        <v>145515.78947368401</v>
+        <v>145515.789473684</v>
       </c>
       <c r="D230" s="2">
-        <v>44.507259368896499</v>
+        <v>44.5072593688965</v>
       </c>
       <c r="E230" s="2">
         <v>6.27136135101318</v>
@@ -4413,13 +4401,13 @@
         <v>120050.526315789</v>
       </c>
       <c r="C231" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="D231" s="2">
-        <v>44.670848846435497</v>
+        <v>44.6708488464355</v>
       </c>
       <c r="E231" s="2">
-        <v>6.2636914253234899</v>
+        <v>6.26369142532349</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4430,13 +4418,13 @@
         <v>120050.526315789</v>
       </c>
       <c r="C232" s="2">
-        <v>181894.73684210499</v>
+        <v>181894.736842105</v>
       </c>
       <c r="D232" s="2">
-        <v>44.834430694580099</v>
+        <v>44.8344306945801</v>
       </c>
       <c r="E232" s="2">
-        <v>6.2559556961059597</v>
+        <v>6.25595569610596</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4447,13 +4435,13 @@
         <v>120050.526315789</v>
       </c>
       <c r="C233" s="2">
-        <v>200084.21052631599</v>
+        <v>200084.210526316</v>
       </c>
       <c r="D233" s="2">
-        <v>44.998008728027301</v>
+        <v>44.9980087280273</v>
       </c>
       <c r="E233" s="2">
-        <v>6.2481536865234402</v>
+        <v>6.24815368652344</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4467,10 +4455,10 @@
         <v>218273.684210526</v>
       </c>
       <c r="D234" s="2">
-        <v>45.161579132080099</v>
+        <v>45.1615791320801</v>
       </c>
       <c r="E234" s="2">
-        <v>6.2402844429016104</v>
+        <v>6.24028444290161</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4484,10 +4472,10 @@
         <v>236463.157894737</v>
       </c>
       <c r="D235" s="2">
-        <v>45.325141906738303</v>
+        <v>45.3251419067383</v>
       </c>
       <c r="E235" s="2">
-        <v>6.2323484420776403</v>
+        <v>6.23234844207764</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4498,10 +4486,10 @@
         <v>120050.526315789</v>
       </c>
       <c r="C236" s="2">
-        <v>254652.63157894701</v>
+        <v>254652.631578947</v>
       </c>
       <c r="D236" s="2">
-        <v>45.488700866699197</v>
+        <v>45.4887008666992</v>
       </c>
       <c r="E236" s="2">
         <v>6.22434329986572</v>
@@ -4515,10 +4503,10 @@
         <v>120050.526315789</v>
       </c>
       <c r="C237" s="2">
-        <v>272842.10526315798</v>
+        <v>272842.105263158</v>
       </c>
       <c r="D237" s="2">
-        <v>45.652252197265597</v>
+        <v>45.6522521972656</v>
       </c>
       <c r="E237" s="2">
         <v>6.21626901626587</v>
@@ -4532,13 +4520,13 @@
         <v>120050.526315789</v>
       </c>
       <c r="C238" s="2">
-        <v>291031.57894736802</v>
+        <v>291031.578947368</v>
       </c>
       <c r="D238" s="2">
-        <v>45.815799713134801</v>
+        <v>45.8157997131348</v>
       </c>
       <c r="E238" s="2">
-        <v>6.2081251144409197</v>
+        <v>6.20812511444092</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4549,10 +4537,10 @@
         <v>120050.526315789</v>
       </c>
       <c r="C239" s="2">
-        <v>309221.05263157899</v>
+        <v>309221.052631579</v>
       </c>
       <c r="D239" s="2">
-        <v>45.979339599609403</v>
+        <v>45.9793395996094</v>
       </c>
       <c r="E239" s="2">
         <v>6.19991111755371</v>
@@ -4566,13 +4554,13 @@
         <v>120050.526315789</v>
       </c>
       <c r="C240" s="2">
-        <v>327410.52631578897</v>
+        <v>327410.526315789</v>
       </c>
       <c r="D240" s="2">
-        <v>46.142875671386697</v>
+        <v>46.1428756713867</v>
       </c>
       <c r="E240" s="2">
-        <v>6.1916251182556197</v>
+        <v>6.19162511825562</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4586,7 +4574,7 @@
         <v>345600</v>
       </c>
       <c r="D241" s="2">
-        <v>46.306404113769503</v>
+        <v>46.3064041137695</v>
       </c>
       <c r="E241" s="2">
         <v>6.18326711654663</v>
@@ -4603,10 +4591,10 @@
         <v>0</v>
       </c>
       <c r="D242" s="2">
-        <v>43.195144653320298</v>
+        <v>43.1951446533203</v>
       </c>
       <c r="E242" s="2">
-        <v>6.1962656974792498</v>
+        <v>6.19626569747925</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4617,13 +4605,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C243" s="2">
-        <v>18189.473684210501</v>
+        <v>18189.4736842105</v>
       </c>
       <c r="D243" s="2">
-        <v>43.358760833740199</v>
+        <v>43.3587608337402</v>
       </c>
       <c r="E243" s="2">
-        <v>6.1887378692626998</v>
+        <v>6.1887378692627</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4634,13 +4622,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C244" s="2">
-        <v>36378.947368421097</v>
+        <v>36378.9473684211</v>
       </c>
       <c r="D244" s="2">
-        <v>43.522369384765597</v>
+        <v>43.5223693847656</v>
       </c>
       <c r="E244" s="2">
-        <v>6.1811461448669398</v>
+        <v>6.18114614486694</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4651,13 +4639,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C245" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="D245" s="2">
-        <v>43.685970306396499</v>
+        <v>43.6859703063965</v>
       </c>
       <c r="E245" s="2">
-        <v>6.1734905242919904</v>
+        <v>6.17349052429199</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4668,13 +4656,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C246" s="2">
-        <v>72757.894736842107</v>
+        <v>72757.8947368421</v>
       </c>
       <c r="D246" s="2">
-        <v>43.849567413330099</v>
+        <v>43.8495674133301</v>
       </c>
       <c r="E246" s="2">
-        <v>6.1657700538635298</v>
+        <v>6.16577005386353</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4685,13 +4673,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C247" s="2">
-        <v>90947.368421052597</v>
+        <v>90947.3684210526</v>
       </c>
       <c r="D247" s="2">
-        <v>44.013160705566399</v>
+        <v>44.0131607055664</v>
       </c>
       <c r="E247" s="2">
-        <v>6.1579842567443803</v>
+        <v>6.15798425674438</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4705,10 +4693,10 @@
         <v>109136.842105263</v>
       </c>
       <c r="D248" s="2">
-        <v>44.176746368408203</v>
+        <v>44.1767463684082</v>
       </c>
       <c r="E248" s="2">
-        <v>6.1501321792602504</v>
+        <v>6.15013217926025</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4722,10 +4710,10 @@
         <v>127326.315789474</v>
       </c>
       <c r="D249" s="2">
-        <v>44.340328216552699</v>
+        <v>44.3403282165527</v>
       </c>
       <c r="E249" s="2">
-        <v>6.1422133445739702</v>
+        <v>6.14221334457397</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4736,13 +4724,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C250" s="2">
-        <v>145515.78947368401</v>
+        <v>145515.789473684</v>
       </c>
       <c r="D250" s="2">
-        <v>44.503898620605497</v>
+        <v>44.5038986206055</v>
       </c>
       <c r="E250" s="2">
-        <v>6.1342272758483896</v>
+        <v>6.13422727584839</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4753,13 +4741,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C251" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="D251" s="2">
-        <v>44.667469024658203</v>
+        <v>44.6674690246582</v>
       </c>
       <c r="E251" s="2">
-        <v>6.1261730194091797</v>
+        <v>6.12617301940918</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4770,13 +4758,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C252" s="2">
-        <v>181894.73684210499</v>
+        <v>181894.736842105</v>
       </c>
       <c r="D252" s="2">
-        <v>44.831031799316399</v>
+        <v>44.8310317993164</v>
       </c>
       <c r="E252" s="2">
-        <v>6.1180496215820304</v>
+        <v>6.11804962158203</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4787,13 +4775,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C253" s="2">
-        <v>200084.21052631599</v>
+        <v>200084.210526316</v>
       </c>
       <c r="D253" s="2">
-        <v>44.994590759277301</v>
+        <v>44.9945907592773</v>
       </c>
       <c r="E253" s="2">
-        <v>6.1098570823669398</v>
+        <v>6.10985708236694</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4810,7 +4798,7 @@
         <v>45.1581420898438</v>
       </c>
       <c r="E254" s="2">
-        <v>6.1015939712524396</v>
+        <v>6.10159397125244</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4824,10 +4812,10 @@
         <v>236463.157894737</v>
       </c>
       <c r="D255" s="2">
-        <v>45.321681976318402</v>
+        <v>45.3216819763184</v>
       </c>
       <c r="E255" s="2">
-        <v>6.0932598114013699</v>
+        <v>6.09325981140137</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4838,13 +4826,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C256" s="2">
-        <v>254652.63157894701</v>
+        <v>254652.631578947</v>
       </c>
       <c r="D256" s="2">
-        <v>45.485221862792997</v>
+        <v>45.485221862793</v>
       </c>
       <c r="E256" s="2">
-        <v>6.0848541259765598</v>
+        <v>6.08485412597656</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4855,13 +4843,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C257" s="2">
-        <v>272842.10526315798</v>
+        <v>272842.105263158</v>
       </c>
       <c r="D257" s="2">
-        <v>45.648757934570298</v>
+        <v>45.6487579345703</v>
       </c>
       <c r="E257" s="2">
-        <v>6.0763754844665501</v>
+        <v>6.07637548446655</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4872,13 +4860,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C258" s="2">
-        <v>291031.57894736802</v>
+        <v>291031.578947368</v>
       </c>
       <c r="D258" s="2">
-        <v>45.812282562255902</v>
+        <v>45.8122825622559</v>
       </c>
       <c r="E258" s="2">
-        <v>6.0678234100341797</v>
+        <v>6.06782341003418</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4889,13 +4877,13 @@
         <v>130964.210526316</v>
       </c>
       <c r="C259" s="2">
-        <v>309221.05263157899</v>
+        <v>309221.052631579</v>
       </c>
       <c r="D259" s="2">
-        <v>45.975803375244098</v>
+        <v>45.9758033752441</v>
       </c>
       <c r="E259" s="2">
-        <v>6.0591979026794398</v>
+        <v>6.05919790267944</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4906,10 +4894,10 @@
         <v>130964.210526316</v>
       </c>
       <c r="C260" s="2">
-        <v>327410.52631578897</v>
+        <v>327410.526315789</v>
       </c>
       <c r="D260" s="2">
-        <v>46.139316558837898</v>
+        <v>46.1393165588379</v>
       </c>
       <c r="E260" s="2">
         <v>6.05049705505371</v>
@@ -4926,10 +4914,10 @@
         <v>345600</v>
       </c>
       <c r="D261" s="2">
-        <v>46.302825927734403</v>
+        <v>46.3028259277344</v>
       </c>
       <c r="E261" s="2">
-        <v>6.0417208671569798</v>
+        <v>6.04172086715698</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4937,16 +4925,16 @@
         <v>260</v>
       </c>
       <c r="B262" s="2">
-        <v>141877.89473684199</v>
+        <v>141877.894736842</v>
       </c>
       <c r="C262" s="2">
         <v>0</v>
       </c>
       <c r="D262" s="2">
-        <v>43.191776275634801</v>
+        <v>43.1917762756348</v>
       </c>
       <c r="E262" s="2">
-        <v>6.0621147155761701</v>
+        <v>6.06211471557617</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4954,16 +4942,16 @@
         <v>261</v>
       </c>
       <c r="B263" s="2">
-        <v>141877.89473684199</v>
+        <v>141877.894736842</v>
       </c>
       <c r="C263" s="2">
-        <v>18189.473684210501</v>
+        <v>18189.4736842105</v>
       </c>
       <c r="D263" s="2">
-        <v>43.355373382568402</v>
+        <v>43.3553733825684</v>
       </c>
       <c r="E263" s="2">
-        <v>6.0542273521423304</v>
+        <v>6.05422735214233</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4971,16 +4959,16 @@
         <v>262</v>
       </c>
       <c r="B264" s="2">
-        <v>141877.89473684199</v>
+        <v>141877.894736842</v>
       </c>
       <c r="C264" s="2">
-        <v>36378.947368421097</v>
+        <v>36378.9473684211</v>
       </c>
       <c r="D264" s="2">
-        <v>43.518962860107401</v>
+        <v>43.5189628601074</v>
       </c>
       <c r="E264" s="2">
-        <v>6.0462737083435103</v>
+        <v>6.04627370834351</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4988,16 +4976,16 @@
         <v>263</v>
       </c>
       <c r="B265" s="2">
-        <v>141877.89473684199</v>
+        <v>141877.894736842</v>
       </c>
       <c r="C265" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="D265" s="2">
-        <v>43.682544708252003</v>
+        <v>43.682544708252</v>
       </c>
       <c r="E265" s="2">
-        <v>6.0382533073425302</v>
+        <v>6.03825330734253</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5005,16 +4993,16 @@
         <v>264</v>
       </c>
       <c r="B266" s="2">
-        <v>141877.89473684199</v>
+        <v>141877.894736842</v>
       </c>
       <c r="C266" s="2">
-        <v>72757.894736842107</v>
+        <v>72757.8947368421</v>
       </c>
       <c r="D266" s="2">
-        <v>43.846122741699197</v>
+        <v>43.8461227416992</v>
       </c>
       <c r="E266" s="2">
-        <v>6.0301647186279297</v>
+        <v>6.03016471862793</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5022,16 +5010,16 @@
         <v>265</v>
       </c>
       <c r="B267" s="2">
-        <v>141877.89473684199</v>
+        <v>141877.894736842</v>
       </c>
       <c r="C267" s="2">
-        <v>90947.368421052597</v>
+        <v>90947.3684210526</v>
       </c>
       <c r="D267" s="2">
-        <v>44.009696960449197</v>
+        <v>44.0096969604492</v>
       </c>
       <c r="E267" s="2">
-        <v>6.0220074653625497</v>
+        <v>6.02200746536255</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5039,16 +5027,16 @@
         <v>266</v>
       </c>
       <c r="B268" s="2">
-        <v>141877.89473684199</v>
+        <v>141877.894736842</v>
       </c>
       <c r="C268" s="2">
         <v>109136.842105263</v>
       </c>
       <c r="D268" s="2">
-        <v>44.173263549804702</v>
+        <v>44.1732635498047</v>
       </c>
       <c r="E268" s="2">
-        <v>6.0137810707092303</v>
+        <v>6.01378107070923</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5056,16 +5044,16 @@
         <v>267</v>
       </c>
       <c r="B269" s="2">
-        <v>141877.89473684199</v>
+        <v>141877.894736842</v>
       </c>
       <c r="C269" s="2">
         <v>127326.315789474</v>
       </c>
       <c r="D269" s="2">
-        <v>44.336822509765597</v>
+        <v>44.3368225097656</v>
       </c>
       <c r="E269" s="2">
-        <v>6.0054850578308097</v>
+        <v>6.00548505783081</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5073,16 +5061,16 @@
         <v>268</v>
       </c>
       <c r="B270" s="2">
-        <v>141877.89473684199</v>
+        <v>141877.894736842</v>
       </c>
       <c r="C270" s="2">
-        <v>145515.78947368401</v>
+        <v>145515.789473684</v>
       </c>
       <c r="D270" s="2">
-        <v>44.500373840332003</v>
+        <v>44.500373840332</v>
       </c>
       <c r="E270" s="2">
-        <v>5.9971179962158203</v>
+        <v>5.99711799621582</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5090,16 +5078,16 @@
         <v>269</v>
       </c>
       <c r="B271" s="2">
-        <v>141877.89473684199</v>
+        <v>141877.894736842</v>
       </c>
       <c r="C271" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="D271" s="2">
         <v>44.6639213562012</v>
       </c>
       <c r="E271" s="2">
-        <v>5.9886798858642596</v>
+        <v>5.98867988586426</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5107,16 +5095,16 @@
         <v>270</v>
       </c>
       <c r="B272" s="2">
-        <v>141877.89473684199</v>
+        <v>141877.894736842</v>
       </c>
       <c r="C272" s="2">
-        <v>181894.73684210499</v>
+        <v>181894.736842105</v>
       </c>
       <c r="D272" s="2">
-        <v>44.827465057372997</v>
+        <v>44.827465057373</v>
       </c>
       <c r="E272" s="2">
-        <v>5.9801692962646502</v>
+        <v>5.98016929626465</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5124,16 +5112,16 @@
         <v>271</v>
       </c>
       <c r="B273" s="2">
-        <v>141877.89473684199</v>
+        <v>141877.894736842</v>
       </c>
       <c r="C273" s="2">
-        <v>200084.21052631599</v>
+        <v>200084.210526316</v>
       </c>
       <c r="D273" s="2">
-        <v>44.991004943847699</v>
+        <v>44.9910049438477</v>
       </c>
       <c r="E273" s="2">
-        <v>5.9715857505798304</v>
+        <v>5.97158575057983</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5141,16 +5129,16 @@
         <v>272</v>
       </c>
       <c r="B274" s="2">
-        <v>141877.89473684199</v>
+        <v>141877.894736842</v>
       </c>
       <c r="C274" s="2">
         <v>218273.684210526</v>
       </c>
       <c r="D274" s="2">
-        <v>45.154533386230497</v>
+        <v>45.1545333862305</v>
       </c>
       <c r="E274" s="2">
-        <v>5.9629287719726598</v>
+        <v>5.96292877197266</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5158,7 +5146,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="2">
-        <v>141877.89473684199</v>
+        <v>141877.894736842</v>
       </c>
       <c r="C275" s="2">
         <v>236463.157894737</v>
@@ -5167,7 +5155,7 @@
         <v>45.3180541992188</v>
       </c>
       <c r="E275" s="2">
-        <v>5.9541978836059597</v>
+        <v>5.95419788360596</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5175,13 +5163,13 @@
         <v>274</v>
       </c>
       <c r="B276" s="2">
-        <v>141877.89473684199</v>
+        <v>141877.894736842</v>
       </c>
       <c r="C276" s="2">
-        <v>254652.63157894701</v>
+        <v>254652.631578947</v>
       </c>
       <c r="D276" s="2">
-        <v>45.481575012207003</v>
+        <v>45.481575012207</v>
       </c>
       <c r="E276" s="2">
         <v>5.9453911781311</v>
@@ -5192,16 +5180,16 @@
         <v>275</v>
       </c>
       <c r="B277" s="2">
-        <v>141877.89473684199</v>
+        <v>141877.894736842</v>
       </c>
       <c r="C277" s="2">
-        <v>272842.10526315798</v>
+        <v>272842.105263158</v>
       </c>
       <c r="D277" s="2">
-        <v>45.645088195800803</v>
+        <v>45.6450881958008</v>
       </c>
       <c r="E277" s="2">
-        <v>5.9365086555481001</v>
+        <v>5.9365086555481</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5209,16 +5197,16 @@
         <v>276</v>
       </c>
       <c r="B278" s="2">
-        <v>141877.89473684199</v>
+        <v>141877.894736842</v>
       </c>
       <c r="C278" s="2">
-        <v>291031.57894736802</v>
+        <v>291031.578947368</v>
       </c>
       <c r="D278" s="2">
         <v>45.80859375</v>
       </c>
       <c r="E278" s="2">
-        <v>5.9275493621826199</v>
+        <v>5.92754936218262</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5226,16 +5214,16 @@
         <v>277</v>
       </c>
       <c r="B279" s="2">
-        <v>141877.89473684199</v>
+        <v>141877.894736842</v>
       </c>
       <c r="C279" s="2">
-        <v>309221.05263157899</v>
+        <v>309221.052631579</v>
       </c>
       <c r="D279" s="2">
-        <v>45.972091674804702</v>
+        <v>45.9720916748047</v>
       </c>
       <c r="E279" s="2">
-        <v>5.9185123443603498</v>
+        <v>5.91851234436035</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5243,16 +5231,16 @@
         <v>278</v>
       </c>
       <c r="B280" s="2">
-        <v>141877.89473684199</v>
+        <v>141877.894736842</v>
       </c>
       <c r="C280" s="2">
-        <v>327410.52631578897</v>
+        <v>327410.526315789</v>
       </c>
       <c r="D280" s="2">
-        <v>46.135585784912102</v>
+        <v>46.1355857849121</v>
       </c>
       <c r="E280" s="2">
-        <v>5.9093971252441397</v>
+        <v>5.90939712524414</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5260,16 +5248,16 @@
         <v>279</v>
       </c>
       <c r="B281" s="2">
-        <v>141877.89473684199</v>
+        <v>141877.894736842</v>
       </c>
       <c r="C281" s="2">
         <v>345600</v>
       </c>
       <c r="D281" s="2">
-        <v>46.299076080322301</v>
+        <v>46.2990760803223</v>
       </c>
       <c r="E281" s="2">
-        <v>5.9002022743225098</v>
+        <v>5.90020227432251</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5277,7 +5265,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="2">
-        <v>152791.57894736799</v>
+        <v>152791.578947368</v>
       </c>
       <c r="C282" s="2">
         <v>0</v>
@@ -5286,7 +5274,7 @@
         <v>43.1882514953613</v>
       </c>
       <c r="E282" s="2">
-        <v>5.9279866218566903</v>
+        <v>5.92798662185669</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5294,16 +5282,16 @@
         <v>281</v>
       </c>
       <c r="B283" s="2">
-        <v>152791.57894736799</v>
+        <v>152791.578947368</v>
       </c>
       <c r="C283" s="2">
-        <v>18189.473684210501</v>
+        <v>18189.4736842105</v>
       </c>
       <c r="D283" s="2">
         <v>43.3518257141113</v>
       </c>
       <c r="E283" s="2">
-        <v>5.9197406768798801</v>
+        <v>5.91974067687988</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5311,16 +5299,16 @@
         <v>282</v>
       </c>
       <c r="B284" s="2">
-        <v>152791.57894736799</v>
+        <v>152791.578947368</v>
       </c>
       <c r="C284" s="2">
-        <v>36378.947368421097</v>
+        <v>36378.9473684211</v>
       </c>
       <c r="D284" s="2">
-        <v>43.515396118164098</v>
+        <v>43.5153961181641</v>
       </c>
       <c r="E284" s="2">
-        <v>5.9114255905151403</v>
+        <v>5.91142559051514</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5328,16 +5316,16 @@
         <v>283</v>
       </c>
       <c r="B285" s="2">
-        <v>152791.57894736799</v>
+        <v>152791.578947368</v>
       </c>
       <c r="C285" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="D285" s="2">
         <v>43.678955078125</v>
       </c>
       <c r="E285" s="2">
-        <v>5.9030404090881303</v>
+        <v>5.90304040908813</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5345,16 +5333,16 @@
         <v>284</v>
       </c>
       <c r="B286" s="2">
-        <v>152791.57894736799</v>
+        <v>152791.578947368</v>
       </c>
       <c r="C286" s="2">
-        <v>72757.894736842107</v>
+        <v>72757.8947368421</v>
       </c>
       <c r="D286" s="2">
-        <v>43.842514038085902</v>
+        <v>43.8425140380859</v>
       </c>
       <c r="E286" s="2">
-        <v>5.8945837020873997</v>
+        <v>5.8945837020874</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5362,16 +5350,16 @@
         <v>285</v>
       </c>
       <c r="B287" s="2">
-        <v>152791.57894736799</v>
+        <v>152791.578947368</v>
       </c>
       <c r="C287" s="2">
-        <v>90947.368421052597</v>
+        <v>90947.3684210526</v>
       </c>
       <c r="D287" s="2">
-        <v>44.006069183349602</v>
+        <v>44.0060691833496</v>
       </c>
       <c r="E287" s="2">
-        <v>5.8860554695129403</v>
+        <v>5.88605546951294</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5379,16 +5367,16 @@
         <v>286</v>
       </c>
       <c r="B288" s="2">
-        <v>152791.57894736799</v>
+        <v>152791.578947368</v>
       </c>
       <c r="C288" s="2">
         <v>109136.842105263</v>
       </c>
       <c r="D288" s="2">
-        <v>44.169612884521499</v>
+        <v>44.1696128845215</v>
       </c>
       <c r="E288" s="2">
-        <v>5.8774552345275897</v>
+        <v>5.87745523452759</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5396,16 +5384,16 @@
         <v>287</v>
       </c>
       <c r="B289" s="2">
-        <v>152791.57894736799</v>
+        <v>152791.578947368</v>
       </c>
       <c r="C289" s="2">
         <v>127326.315789474</v>
       </c>
       <c r="D289" s="2">
-        <v>44.333152770996101</v>
+        <v>44.3331527709961</v>
       </c>
       <c r="E289" s="2">
-        <v>5.8687815666198704</v>
+        <v>5.86878156661987</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5413,16 +5401,16 @@
         <v>288</v>
       </c>
       <c r="B290" s="2">
-        <v>152791.57894736799</v>
+        <v>152791.578947368</v>
       </c>
       <c r="C290" s="2">
-        <v>145515.78947368401</v>
+        <v>145515.789473684</v>
       </c>
       <c r="D290" s="2">
         <v>44.4966850280762</v>
       </c>
       <c r="E290" s="2">
-        <v>5.8600344657897896</v>
+        <v>5.86003446578979</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5430,16 +5418,16 @@
         <v>289</v>
       </c>
       <c r="B291" s="2">
-        <v>152791.57894736799</v>
+        <v>152791.578947368</v>
       </c>
       <c r="C291" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="D291" s="2">
-        <v>44.660213470458999</v>
+        <v>44.660213470459</v>
       </c>
       <c r="E291" s="2">
-        <v>5.8512125015258798</v>
+        <v>5.85121250152588</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5447,16 +5435,16 @@
         <v>290</v>
       </c>
       <c r="B292" s="2">
-        <v>152791.57894736799</v>
+        <v>152791.578947368</v>
       </c>
       <c r="C292" s="2">
-        <v>181894.73684210499</v>
+        <v>181894.736842105</v>
       </c>
       <c r="D292" s="2">
-        <v>44.823734283447301</v>
+        <v>44.8237342834473</v>
       </c>
       <c r="E292" s="2">
-        <v>5.8423147201538104</v>
+        <v>5.84231472015381</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5464,16 +5452,16 @@
         <v>291</v>
       </c>
       <c r="B293" s="2">
-        <v>152791.57894736799</v>
+        <v>152791.578947368</v>
       </c>
       <c r="C293" s="2">
-        <v>200084.21052631599</v>
+        <v>200084.210526316</v>
       </c>
       <c r="D293" s="2">
-        <v>44.987251281738303</v>
+        <v>44.9872512817383</v>
       </c>
       <c r="E293" s="2">
-        <v>5.8333411216735804</v>
+        <v>5.83334112167358</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5481,16 +5469,16 @@
         <v>292</v>
       </c>
       <c r="B294" s="2">
-        <v>152791.57894736799</v>
+        <v>152791.578947368</v>
       </c>
       <c r="C294" s="2">
         <v>218273.684210526</v>
       </c>
       <c r="D294" s="2">
-        <v>45.150760650634801</v>
+        <v>45.1507606506348</v>
       </c>
       <c r="E294" s="2">
-        <v>5.8242907524108896</v>
+        <v>5.82429075241089</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5498,16 +5486,16 @@
         <v>293</v>
       </c>
       <c r="B295" s="2">
-        <v>152791.57894736799</v>
+        <v>152791.578947368</v>
       </c>
       <c r="C295" s="2">
         <v>236463.157894737</v>
       </c>
       <c r="D295" s="2">
-        <v>45.314258575439503</v>
+        <v>45.3142585754395</v>
       </c>
       <c r="E295" s="2">
-        <v>5.8151626586914098</v>
+        <v>5.81516265869141</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5515,16 +5503,16 @@
         <v>294</v>
       </c>
       <c r="B296" s="2">
-        <v>152791.57894736799</v>
+        <v>152791.578947368</v>
       </c>
       <c r="C296" s="2">
-        <v>254652.63157894701</v>
+        <v>254652.631578947</v>
       </c>
       <c r="D296" s="2">
-        <v>45.477756500244098</v>
+        <v>45.4777565002441</v>
       </c>
       <c r="E296" s="2">
-        <v>5.8059554100036603</v>
+        <v>5.80595541000366</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5532,16 +5520,16 @@
         <v>295</v>
       </c>
       <c r="B297" s="2">
-        <v>152791.57894736799</v>
+        <v>152791.578947368</v>
       </c>
       <c r="C297" s="2">
-        <v>272842.10526315798</v>
+        <v>272842.105263158</v>
       </c>
       <c r="D297" s="2">
-        <v>45.641246795654297</v>
+        <v>45.6412467956543</v>
       </c>
       <c r="E297" s="2">
-        <v>5.7966690063476598</v>
+        <v>5.79666900634766</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5549,16 +5537,16 @@
         <v>296</v>
       </c>
       <c r="B298" s="2">
-        <v>152791.57894736799</v>
+        <v>152791.578947368</v>
       </c>
       <c r="C298" s="2">
-        <v>291031.57894736802</v>
+        <v>291031.578947368</v>
       </c>
       <c r="D298" s="2">
-        <v>45.804733276367202</v>
+        <v>45.8047332763672</v>
       </c>
       <c r="E298" s="2">
-        <v>5.7873024940490696</v>
+        <v>5.78730249404907</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5566,16 +5554,16 @@
         <v>297</v>
       </c>
       <c r="B299" s="2">
-        <v>152791.57894736799</v>
+        <v>152791.578947368</v>
       </c>
       <c r="C299" s="2">
-        <v>309221.05263157899</v>
+        <v>309221.052631579</v>
       </c>
       <c r="D299" s="2">
-        <v>45.968208312988303</v>
+        <v>45.9682083129883</v>
       </c>
       <c r="E299" s="2">
-        <v>5.7778549194335902</v>
+        <v>5.77785491943359</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5583,16 +5571,16 @@
         <v>298</v>
       </c>
       <c r="B300" s="2">
-        <v>152791.57894736799</v>
+        <v>152791.578947368</v>
       </c>
       <c r="C300" s="2">
-        <v>327410.52631578897</v>
+        <v>327410.526315789</v>
       </c>
       <c r="D300" s="2">
-        <v>46.131679534912102</v>
+        <v>46.1316795349121</v>
       </c>
       <c r="E300" s="2">
-        <v>5.7683248519897496</v>
+        <v>5.76832485198975</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5600,7 +5588,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="2">
-        <v>152791.57894736799</v>
+        <v>152791.578947368</v>
       </c>
       <c r="C301" s="2">
         <v>345600</v>
@@ -5609,7 +5597,7 @@
         <v>46.2951469421387</v>
       </c>
       <c r="E301" s="2">
-        <v>5.7587122917175302</v>
+        <v>5.75871229171753</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5617,13 +5605,13 @@
         <v>300</v>
       </c>
       <c r="B302" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="C302" s="2">
         <v>0</v>
       </c>
       <c r="D302" s="2">
-        <v>43.184566497802699</v>
+        <v>43.1845664978027</v>
       </c>
       <c r="E302" s="2">
         <v>5.79388380050659</v>
@@ -5634,13 +5622,13 @@
         <v>301</v>
       </c>
       <c r="B303" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="C303" s="2">
-        <v>18189.473684210501</v>
+        <v>18189.4736842105</v>
       </c>
       <c r="D303" s="2">
-        <v>43.348121643066399</v>
+        <v>43.3481216430664</v>
       </c>
       <c r="E303" s="2">
         <v>5.78527927398682</v>
@@ -5651,16 +5639,16 @@
         <v>302</v>
       </c>
       <c r="B304" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="C304" s="2">
-        <v>36378.947368421097</v>
+        <v>36378.9473684211</v>
       </c>
       <c r="D304" s="2">
-        <v>43.511672973632798</v>
+        <v>43.5116729736328</v>
       </c>
       <c r="E304" s="2">
-        <v>5.7766022682189897</v>
+        <v>5.77660226821899</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5668,16 +5656,16 @@
         <v>303</v>
       </c>
       <c r="B305" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="C305" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="D305" s="2">
-        <v>43.675209045410199</v>
+        <v>43.6752090454102</v>
       </c>
       <c r="E305" s="2">
-        <v>5.7678527832031197</v>
+        <v>5.76785278320312</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5685,16 +5673,16 @@
         <v>304</v>
       </c>
       <c r="B306" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="C306" s="2">
-        <v>72757.894736842107</v>
+        <v>72757.8947368421</v>
       </c>
       <c r="D306" s="2">
-        <v>43.838748931884801</v>
+        <v>43.8387489318848</v>
       </c>
       <c r="E306" s="2">
-        <v>5.7590284347534197</v>
+        <v>5.75902843475342</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5702,16 +5690,16 @@
         <v>305</v>
       </c>
       <c r="B307" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="C307" s="2">
-        <v>90947.368421052597</v>
+        <v>90947.3684210526</v>
       </c>
       <c r="D307" s="2">
-        <v>44.002277374267599</v>
+        <v>44.0022773742676</v>
       </c>
       <c r="E307" s="2">
-        <v>5.7501296997070304</v>
+        <v>5.75012969970703</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5719,16 +5707,16 @@
         <v>306</v>
       </c>
       <c r="B308" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="C308" s="2">
         <v>109136.842105263</v>
       </c>
       <c r="D308" s="2">
-        <v>44.165802001953097</v>
+        <v>44.1658020019531</v>
       </c>
       <c r="E308" s="2">
-        <v>5.7411556243896502</v>
+        <v>5.74115562438965</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5736,16 +5724,16 @@
         <v>307</v>
       </c>
       <c r="B309" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="C309" s="2">
         <v>127326.315789474</v>
       </c>
       <c r="D309" s="2">
-        <v>44.329322814941399</v>
+        <v>44.3293228149414</v>
       </c>
       <c r="E309" s="2">
-        <v>5.7321047782897896</v>
+        <v>5.73210477828979</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5753,16 +5741,16 @@
         <v>308</v>
       </c>
       <c r="B310" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="C310" s="2">
-        <v>145515.78947368401</v>
+        <v>145515.789473684</v>
       </c>
       <c r="D310" s="2">
-        <v>44.492828369140597</v>
+        <v>44.4928283691406</v>
       </c>
       <c r="E310" s="2">
-        <v>5.7229776382446298</v>
+        <v>5.72297763824463</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5770,16 +5758,16 @@
         <v>309</v>
       </c>
       <c r="B311" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="C311" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="D311" s="2">
-        <v>44.656337738037102</v>
+        <v>44.6563377380371</v>
       </c>
       <c r="E311" s="2">
-        <v>5.7137718200683603</v>
+        <v>5.71377182006836</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5787,16 +5775,16 @@
         <v>310</v>
       </c>
       <c r="B312" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="C312" s="2">
-        <v>181894.73684210499</v>
+        <v>181894.736842105</v>
       </c>
       <c r="D312" s="2">
-        <v>44.819835662841797</v>
+        <v>44.8198356628418</v>
       </c>
       <c r="E312" s="2">
-        <v>5.7044878005981401</v>
+        <v>5.70448780059814</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5804,16 +5792,16 @@
         <v>311</v>
       </c>
       <c r="B313" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="C313" s="2">
-        <v>200084.21052631599</v>
+        <v>200084.210526316</v>
       </c>
       <c r="D313" s="2">
-        <v>44.983329772949197</v>
+        <v>44.9833297729492</v>
       </c>
       <c r="E313" s="2">
-        <v>5.6951241493225098</v>
+        <v>5.69512414932251</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5821,16 +5809,16 @@
         <v>312</v>
       </c>
       <c r="B314" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="C314" s="2">
         <v>218273.684210526</v>
       </c>
       <c r="D314" s="2">
-        <v>45.146816253662102</v>
+        <v>45.1468162536621</v>
       </c>
       <c r="E314" s="2">
-        <v>5.6856803894043004</v>
+        <v>5.6856803894043</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5838,16 +5826,16 @@
         <v>313</v>
       </c>
       <c r="B315" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="C315" s="2">
         <v>236463.157894737</v>
       </c>
       <c r="D315" s="2">
-        <v>45.310295104980497</v>
+        <v>45.3102951049805</v>
       </c>
       <c r="E315" s="2">
-        <v>5.6761555671691903</v>
+        <v>5.67615556716919</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5855,16 +5843,16 @@
         <v>314</v>
       </c>
       <c r="B316" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="C316" s="2">
-        <v>254652.63157894701</v>
+        <v>254652.631578947</v>
       </c>
       <c r="D316" s="2">
-        <v>45.473770141601598</v>
+        <v>45.4737701416016</v>
       </c>
       <c r="E316" s="2">
-        <v>5.6665482521057102</v>
+        <v>5.66654825210571</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5872,16 +5860,16 @@
         <v>315</v>
       </c>
       <c r="B317" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="C317" s="2">
-        <v>272842.10526315798</v>
+        <v>272842.105263158</v>
       </c>
       <c r="D317" s="2">
-        <v>45.637237548828097</v>
+        <v>45.6372375488281</v>
       </c>
       <c r="E317" s="2">
-        <v>5.6568584442138699</v>
+        <v>5.65685844421387</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5889,16 +5877,16 @@
         <v>316</v>
       </c>
       <c r="B318" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="C318" s="2">
-        <v>291031.57894736802</v>
+        <v>291031.578947368</v>
       </c>
       <c r="D318" s="2">
-        <v>45.800701141357401</v>
+        <v>45.8007011413574</v>
       </c>
       <c r="E318" s="2">
-        <v>5.6470847129821804</v>
+        <v>5.64708471298218</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5906,16 +5894,16 @@
         <v>317</v>
       </c>
       <c r="B319" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="C319" s="2">
-        <v>309221.05263157899</v>
+        <v>309221.052631579</v>
       </c>
       <c r="D319" s="2">
-        <v>45.964153289794901</v>
+        <v>45.9641532897949</v>
       </c>
       <c r="E319" s="2">
-        <v>5.6372270584106401</v>
+        <v>5.63722705841064</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5923,16 +5911,16 @@
         <v>318</v>
       </c>
       <c r="B320" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="C320" s="2">
-        <v>327410.52631578897</v>
+        <v>327410.526315789</v>
       </c>
       <c r="D320" s="2">
-        <v>46.127601623535199</v>
+        <v>46.1276016235352</v>
       </c>
       <c r="E320" s="2">
-        <v>5.6272830963134801</v>
+        <v>5.62728309631348</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5940,16 +5928,16 @@
         <v>319</v>
       </c>
       <c r="B321" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="C321" s="2">
         <v>345600</v>
       </c>
       <c r="D321" s="2">
-        <v>46.291046142578097</v>
+        <v>46.2910461425781</v>
       </c>
       <c r="E321" s="2">
-        <v>5.6172528266906703</v>
+        <v>5.61725282669067</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5957,16 +5945,16 @@
         <v>320</v>
       </c>
       <c r="B322" s="2">
-        <v>174618.94736842101</v>
+        <v>174618.947368421</v>
       </c>
       <c r="C322" s="2">
         <v>0</v>
       </c>
       <c r="D322" s="2">
-        <v>43.180728912353501</v>
+        <v>43.1807289123535</v>
       </c>
       <c r="E322" s="2">
-        <v>5.6598062515258798</v>
+        <v>5.65980625152588</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5974,16 +5962,16 @@
         <v>321</v>
       </c>
       <c r="B323" s="2">
-        <v>174618.94736842101</v>
+        <v>174618.947368421</v>
       </c>
       <c r="C323" s="2">
-        <v>18189.473684210501</v>
+        <v>18189.4736842105</v>
       </c>
       <c r="D323" s="2">
-        <v>43.344261169433601</v>
+        <v>43.3442611694336</v>
       </c>
       <c r="E323" s="2">
-        <v>5.6508436203002903</v>
+        <v>5.65084362030029</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5991,13 +5979,13 @@
         <v>322</v>
       </c>
       <c r="B324" s="2">
-        <v>174618.94736842101</v>
+        <v>174618.947368421</v>
       </c>
       <c r="C324" s="2">
-        <v>36378.947368421097</v>
+        <v>36378.9473684211</v>
       </c>
       <c r="D324" s="2">
-        <v>43.507789611816399</v>
+        <v>43.5077896118164</v>
       </c>
       <c r="E324" s="2">
         <v>5.64180564880371</v>
@@ -6008,16 +5996,16 @@
         <v>323</v>
       </c>
       <c r="B325" s="2">
-        <v>174618.94736842101</v>
+        <v>174618.947368421</v>
       </c>
       <c r="C325" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="D325" s="2">
-        <v>43.671302795410199</v>
+        <v>43.6713027954102</v>
       </c>
       <c r="E325" s="2">
-        <v>5.6326918601989702</v>
+        <v>5.63269186019897</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -6025,16 +6013,16 @@
         <v>324</v>
       </c>
       <c r="B326" s="2">
-        <v>174618.94736842101</v>
+        <v>174618.947368421</v>
       </c>
       <c r="C326" s="2">
-        <v>72757.894736842107</v>
+        <v>72757.8947368421</v>
       </c>
       <c r="D326" s="2">
         <v>43.8348197937012</v>
       </c>
       <c r="E326" s="2">
-        <v>5.6235003471374503</v>
+        <v>5.62350034713745</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6042,16 +6030,16 @@
         <v>325</v>
       </c>
       <c r="B327" s="2">
-        <v>174618.94736842101</v>
+        <v>174618.947368421</v>
       </c>
       <c r="C327" s="2">
-        <v>90947.368421052597</v>
+        <v>90947.3684210526</v>
       </c>
       <c r="D327" s="2">
-        <v>43.998329162597699</v>
+        <v>43.9983291625977</v>
       </c>
       <c r="E327" s="2">
-        <v>5.6142311096191397</v>
+        <v>5.61423110961914</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6059,16 +6047,16 @@
         <v>326</v>
       </c>
       <c r="B328" s="2">
-        <v>174618.94736842101</v>
+        <v>174618.947368421</v>
       </c>
       <c r="C328" s="2">
         <v>109136.842105263</v>
       </c>
       <c r="D328" s="2">
-        <v>44.161830902099602</v>
+        <v>44.1618309020996</v>
       </c>
       <c r="E328" s="2">
-        <v>5.6048831939697301</v>
+        <v>5.60488319396973</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6076,16 +6064,16 @@
         <v>327</v>
       </c>
       <c r="B329" s="2">
-        <v>174618.94736842101</v>
+        <v>174618.947368421</v>
       </c>
       <c r="C329" s="2">
         <v>127326.315789474</v>
       </c>
       <c r="D329" s="2">
-        <v>44.325325012207003</v>
+        <v>44.325325012207</v>
       </c>
       <c r="E329" s="2">
-        <v>5.5954561233520499</v>
+        <v>5.59545612335205</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6093,16 +6081,16 @@
         <v>328</v>
       </c>
       <c r="B330" s="2">
-        <v>174618.94736842101</v>
+        <v>174618.947368421</v>
       </c>
       <c r="C330" s="2">
-        <v>145515.78947368401</v>
+        <v>145515.789473684</v>
       </c>
       <c r="D330" s="2">
-        <v>44.488811492919901</v>
+        <v>44.4888114929199</v>
       </c>
       <c r="E330" s="2">
-        <v>5.5859484672546396</v>
+        <v>5.58594846725464</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6110,16 +6098,16 @@
         <v>329</v>
       </c>
       <c r="B331" s="2">
-        <v>174618.94736842101</v>
+        <v>174618.947368421</v>
       </c>
       <c r="C331" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="D331" s="2">
-        <v>44.652294158935497</v>
+        <v>44.6522941589355</v>
       </c>
       <c r="E331" s="2">
-        <v>5.5763602256774902</v>
+        <v>5.57636022567749</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6127,13 +6115,13 @@
         <v>330</v>
       </c>
       <c r="B332" s="2">
-        <v>174618.94736842101</v>
+        <v>174618.947368421</v>
       </c>
       <c r="C332" s="2">
-        <v>181894.73684210499</v>
+        <v>181894.736842105</v>
       </c>
       <c r="D332" s="2">
-        <v>44.815773010253899</v>
+        <v>44.8157730102539</v>
       </c>
       <c r="E332" s="2">
         <v>5.56668949127197</v>
@@ -6144,16 +6132,16 @@
         <v>331</v>
       </c>
       <c r="B333" s="2">
-        <v>174618.94736842101</v>
+        <v>174618.947368421</v>
       </c>
       <c r="C333" s="2">
-        <v>200084.21052631599</v>
+        <v>200084.210526316</v>
       </c>
       <c r="D333" s="2">
-        <v>44.979244232177699</v>
+        <v>44.9792442321777</v>
       </c>
       <c r="E333" s="2">
-        <v>5.5569362640380904</v>
+        <v>5.55693626403809</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6161,16 +6149,16 @@
         <v>332</v>
       </c>
       <c r="B334" s="2">
-        <v>174618.94736842101</v>
+        <v>174618.947368421</v>
       </c>
       <c r="C334" s="2">
         <v>218273.684210526</v>
       </c>
       <c r="D334" s="2">
-        <v>45.142707824707003</v>
+        <v>45.142707824707</v>
       </c>
       <c r="E334" s="2">
-        <v>5.5470991134643599</v>
+        <v>5.54709911346436</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6178,16 +6166,16 @@
         <v>333</v>
       </c>
       <c r="B335" s="2">
-        <v>174618.94736842101</v>
+        <v>174618.947368421</v>
       </c>
       <c r="C335" s="2">
         <v>236463.157894737</v>
       </c>
       <c r="D335" s="2">
-        <v>45.306159973144503</v>
+        <v>45.3061599731445</v>
       </c>
       <c r="E335" s="2">
-        <v>5.5371780395507804</v>
+        <v>5.53717803955078</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6195,16 +6183,16 @@
         <v>334</v>
       </c>
       <c r="B336" s="2">
-        <v>174618.94736842101</v>
+        <v>174618.947368421</v>
       </c>
       <c r="C336" s="2">
-        <v>254652.63157894701</v>
+        <v>254652.631578947</v>
       </c>
       <c r="D336" s="2">
-        <v>45.469612121582003</v>
+        <v>45.469612121582</v>
       </c>
       <c r="E336" s="2">
-        <v>5.5271711349487296</v>
+        <v>5.52717113494873</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6212,16 +6200,16 @@
         <v>335</v>
       </c>
       <c r="B337" s="2">
-        <v>174618.94736842101</v>
+        <v>174618.947368421</v>
       </c>
       <c r="C337" s="2">
-        <v>272842.10526315798</v>
+        <v>272842.105263158</v>
       </c>
       <c r="D337" s="2">
         <v>45.633056640625</v>
       </c>
       <c r="E337" s="2">
-        <v>5.5170779228210396</v>
+        <v>5.51707792282104</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6229,13 +6217,13 @@
         <v>336</v>
       </c>
       <c r="B338" s="2">
-        <v>174618.94736842101</v>
+        <v>174618.947368421</v>
       </c>
       <c r="C338" s="2">
-        <v>291031.57894736802</v>
+        <v>291031.578947368</v>
       </c>
       <c r="D338" s="2">
-        <v>45.796497344970703</v>
+        <v>45.7964973449707</v>
       </c>
       <c r="E338" s="2">
         <v>5.50689792633057</v>
@@ -6246,16 +6234,16 @@
         <v>337</v>
       </c>
       <c r="B339" s="2">
-        <v>174618.94736842101</v>
+        <v>174618.947368421</v>
       </c>
       <c r="C339" s="2">
-        <v>309221.05263157899</v>
+        <v>309221.052631579</v>
       </c>
       <c r="D339" s="2">
-        <v>45.959922790527301</v>
+        <v>45.9599227905273</v>
       </c>
       <c r="E339" s="2">
-        <v>5.4966297149658203</v>
+        <v>5.49662971496582</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6263,16 +6251,16 @@
         <v>338</v>
       </c>
       <c r="B340" s="2">
-        <v>174618.94736842101</v>
+        <v>174618.947368421</v>
       </c>
       <c r="C340" s="2">
-        <v>327410.52631578897</v>
+        <v>327410.526315789</v>
       </c>
       <c r="D340" s="2">
-        <v>46.123348236083999</v>
+        <v>46.123348236084</v>
       </c>
       <c r="E340" s="2">
-        <v>5.4862718582153303</v>
+        <v>5.48627185821533</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6280,16 +6268,16 @@
         <v>339</v>
       </c>
       <c r="B341" s="2">
-        <v>174618.94736842101</v>
+        <v>174618.947368421</v>
       </c>
       <c r="C341" s="2">
         <v>345600</v>
       </c>
       <c r="D341" s="2">
-        <v>46.286769866943402</v>
+        <v>46.2867698669434</v>
       </c>
       <c r="E341" s="2">
-        <v>5.4758243560790998</v>
+        <v>5.4758243560791</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6297,13 +6285,13 @@
         <v>340</v>
       </c>
       <c r="B342" s="2">
-        <v>185532.63157894701</v>
+        <v>185532.631578947</v>
       </c>
       <c r="C342" s="2">
         <v>0</v>
       </c>
       <c r="D342" s="2">
-        <v>43.176731109619098</v>
+        <v>43.1767311096191</v>
       </c>
       <c r="E342" s="2">
         <v>5.52575635910034</v>
@@ -6314,16 +6302,16 @@
         <v>341</v>
       </c>
       <c r="B343" s="2">
-        <v>185532.63157894701</v>
+        <v>185532.631578947</v>
       </c>
       <c r="C343" s="2">
-        <v>18189.473684210501</v>
+        <v>18189.4736842105</v>
       </c>
       <c r="D343" s="2">
-        <v>43.340240478515597</v>
+        <v>43.3402404785156</v>
       </c>
       <c r="E343" s="2">
-        <v>5.5164356231689498</v>
+        <v>5.51643562316895</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6331,13 +6319,13 @@
         <v>342</v>
       </c>
       <c r="B344" s="2">
-        <v>185532.63157894701</v>
+        <v>185532.631578947</v>
       </c>
       <c r="C344" s="2">
-        <v>36378.947368421097</v>
+        <v>36378.9473684211</v>
       </c>
       <c r="D344" s="2">
-        <v>43.503746032714801</v>
+        <v>43.5037460327148</v>
       </c>
       <c r="E344" s="2">
         <v>5.5070366859436</v>
@@ -6348,13 +6336,13 @@
         <v>343</v>
       </c>
       <c r="B345" s="2">
-        <v>185532.63157894701</v>
+        <v>185532.631578947</v>
       </c>
       <c r="C345" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="D345" s="2">
-        <v>43.667240142822301</v>
+        <v>43.6672401428223</v>
       </c>
       <c r="E345" s="2">
         <v>5.49755859375</v>
@@ -6365,16 +6353,16 @@
         <v>344</v>
       </c>
       <c r="B346" s="2">
-        <v>185532.63157894701</v>
+        <v>185532.631578947</v>
       </c>
       <c r="C346" s="2">
-        <v>72757.894736842107</v>
+        <v>72757.8947368421</v>
       </c>
       <c r="D346" s="2">
-        <v>43.830730438232401</v>
+        <v>43.8307304382324</v>
       </c>
       <c r="E346" s="2">
-        <v>5.4880003929138201</v>
+        <v>5.48800039291382</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6382,16 +6370,16 @@
         <v>345</v>
       </c>
       <c r="B347" s="2">
-        <v>185532.63157894701</v>
+        <v>185532.631578947</v>
       </c>
       <c r="C347" s="2">
-        <v>90947.368421052597</v>
+        <v>90947.3684210526</v>
       </c>
       <c r="D347" s="2">
-        <v>43.994216918945298</v>
+        <v>43.9942169189453</v>
       </c>
       <c r="E347" s="2">
-        <v>5.4783606529235804</v>
+        <v>5.47836065292358</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6399,7 +6387,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="2">
-        <v>185532.63157894701</v>
+        <v>185532.631578947</v>
       </c>
       <c r="C348" s="2">
         <v>109136.842105263</v>
@@ -6408,7 +6396,7 @@
         <v>44.1576957702637</v>
       </c>
       <c r="E348" s="2">
-        <v>5.4686398506164604</v>
+        <v>5.46863985061646</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6416,7 +6404,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="2">
-        <v>185532.63157894701</v>
+        <v>185532.631578947</v>
       </c>
       <c r="C349" s="2">
         <v>127326.315789474</v>
@@ -6425,7 +6413,7 @@
         <v>44.3211669921875</v>
       </c>
       <c r="E349" s="2">
-        <v>5.4588360786437997</v>
+        <v>5.4588360786438</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6433,16 +6421,16 @@
         <v>348</v>
       </c>
       <c r="B350" s="2">
-        <v>185532.63157894701</v>
+        <v>185532.631578947</v>
       </c>
       <c r="C350" s="2">
-        <v>145515.78947368401</v>
+        <v>145515.789473684</v>
       </c>
       <c r="D350" s="2">
-        <v>44.484630584716797</v>
+        <v>44.4846305847168</v>
       </c>
       <c r="E350" s="2">
-        <v>5.4489493370056197</v>
+        <v>5.44894933700562</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6450,16 +6438,16 @@
         <v>349</v>
       </c>
       <c r="B351" s="2">
-        <v>185532.63157894701</v>
+        <v>185532.631578947</v>
       </c>
       <c r="C351" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="D351" s="2">
         <v>44.6480903625488</v>
       </c>
       <c r="E351" s="2">
-        <v>5.4389777183532697</v>
+        <v>5.43897771835327</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6467,16 +6455,16 @@
         <v>350</v>
       </c>
       <c r="B352" s="2">
-        <v>185532.63157894701</v>
+        <v>185532.631578947</v>
       </c>
       <c r="C352" s="2">
-        <v>181894.73684210499</v>
+        <v>181894.736842105</v>
       </c>
       <c r="D352" s="2">
         <v>44.8115425109863</v>
       </c>
       <c r="E352" s="2">
-        <v>5.4289212226867702</v>
+        <v>5.42892122268677</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6484,16 +6472,16 @@
         <v>351</v>
       </c>
       <c r="B353" s="2">
-        <v>185532.63157894701</v>
+        <v>185532.631578947</v>
       </c>
       <c r="C353" s="2">
-        <v>200084.21052631599</v>
+        <v>200084.210526316</v>
       </c>
       <c r="D353" s="2">
-        <v>44.974990844726598</v>
+        <v>44.9749908447266</v>
       </c>
       <c r="E353" s="2">
-        <v>5.4187784194946298</v>
+        <v>5.41877841949463</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6501,7 +6489,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="2">
-        <v>185532.63157894701</v>
+        <v>185532.631578947</v>
       </c>
       <c r="C354" s="2">
         <v>218273.684210526</v>
@@ -6510,7 +6498,7 @@
         <v>45.138427734375</v>
       </c>
       <c r="E354" s="2">
-        <v>5.4085488319396999</v>
+        <v>5.4085488319397</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6518,16 +6506,16 @@
         <v>353</v>
       </c>
       <c r="B355" s="2">
-        <v>185532.63157894701</v>
+        <v>185532.631578947</v>
       </c>
       <c r="C355" s="2">
         <v>236463.157894737</v>
       </c>
       <c r="D355" s="2">
-        <v>45.301856994628899</v>
+        <v>45.3018569946289</v>
       </c>
       <c r="E355" s="2">
-        <v>5.3982315063476598</v>
+        <v>5.39823150634766</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6535,16 +6523,16 @@
         <v>354</v>
       </c>
       <c r="B356" s="2">
-        <v>185532.63157894701</v>
+        <v>185532.631578947</v>
       </c>
       <c r="C356" s="2">
-        <v>254652.63157894701</v>
+        <v>254652.631578947</v>
       </c>
       <c r="D356" s="2">
-        <v>45.465286254882798</v>
+        <v>45.4652862548828</v>
       </c>
       <c r="E356" s="2">
-        <v>5.3878254890441903</v>
+        <v>5.38782548904419</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6552,16 +6540,16 @@
         <v>355</v>
       </c>
       <c r="B357" s="2">
-        <v>185532.63157894701</v>
+        <v>185532.631578947</v>
       </c>
       <c r="C357" s="2">
-        <v>272842.10526315798</v>
+        <v>272842.105263158</v>
       </c>
       <c r="D357" s="2">
-        <v>45.628704071044901</v>
+        <v>45.6287040710449</v>
       </c>
       <c r="E357" s="2">
-        <v>5.3773293495178196</v>
+        <v>5.37732934951782</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6569,13 +6557,13 @@
         <v>356</v>
       </c>
       <c r="B358" s="2">
-        <v>185532.63157894701</v>
+        <v>185532.631578947</v>
       </c>
       <c r="C358" s="2">
-        <v>291031.57894736802</v>
+        <v>291031.578947368</v>
       </c>
       <c r="D358" s="2">
-        <v>45.792118072509801</v>
+        <v>45.7921180725098</v>
       </c>
       <c r="E358" s="2">
         <v>5.3667426109314</v>
@@ -6586,16 +6574,16 @@
         <v>357</v>
       </c>
       <c r="B359" s="2">
-        <v>185532.63157894701</v>
+        <v>185532.631578947</v>
       </c>
       <c r="C359" s="2">
-        <v>309221.05263157899</v>
+        <v>309221.052631579</v>
       </c>
       <c r="D359" s="2">
-        <v>45.955524444580099</v>
+        <v>45.9555244445801</v>
       </c>
       <c r="E359" s="2">
-        <v>5.3560647964477504</v>
+        <v>5.35606479644775</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6603,13 +6591,13 @@
         <v>358</v>
       </c>
       <c r="B360" s="2">
-        <v>185532.63157894701</v>
+        <v>185532.631578947</v>
       </c>
       <c r="C360" s="2">
-        <v>327410.52631578897</v>
+        <v>327410.526315789</v>
       </c>
       <c r="D360" s="2">
-        <v>46.118923187255902</v>
+        <v>46.1189231872559</v>
       </c>
       <c r="E360" s="2">
         <v>5.3452935218811</v>
@@ -6620,13 +6608,13 @@
         <v>359</v>
       </c>
       <c r="B361" s="2">
-        <v>185532.63157894701</v>
+        <v>185532.631578947</v>
       </c>
       <c r="C361" s="2">
         <v>345600</v>
       </c>
       <c r="D361" s="2">
-        <v>46.282318115234403</v>
+        <v>46.2823181152344</v>
       </c>
       <c r="E361" s="2">
         <v>5.3344292640686</v>
@@ -6643,10 +6631,10 @@
         <v>0</v>
       </c>
       <c r="D362" s="2">
-        <v>43.172576904296903</v>
+        <v>43.1725769042969</v>
       </c>
       <c r="E362" s="2">
-        <v>5.3917336463928196</v>
+        <v>5.39173364639282</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6657,13 +6645,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C363" s="2">
-        <v>18189.473684210501</v>
+        <v>18189.4736842105</v>
       </c>
       <c r="D363" s="2">
-        <v>43.336063385009801</v>
+        <v>43.3360633850098</v>
       </c>
       <c r="E363" s="2">
-        <v>5.3820557594299299</v>
+        <v>5.38205575942993</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6674,13 +6662,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C364" s="2">
-        <v>36378.947368421097</v>
+        <v>36378.9473684211</v>
       </c>
       <c r="D364" s="2">
-        <v>43.499546051025398</v>
+        <v>43.4995460510254</v>
       </c>
       <c r="E364" s="2">
-        <v>5.3722958564758301</v>
+        <v>5.37229585647583</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6691,13 +6679,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C365" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="D365" s="2">
-        <v>43.663013458252003</v>
+        <v>43.663013458252</v>
       </c>
       <c r="E365" s="2">
-        <v>5.3624544143676802</v>
+        <v>5.36245441436768</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6708,13 +6696,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C366" s="2">
-        <v>72757.894736842107</v>
+        <v>72757.8947368421</v>
       </c>
       <c r="D366" s="2">
-        <v>43.826480865478501</v>
+        <v>43.8264808654785</v>
       </c>
       <c r="E366" s="2">
-        <v>5.3525290489196804</v>
+        <v>5.35252904891968</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6725,13 +6713,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C367" s="2">
-        <v>90947.368421052597</v>
+        <v>90947.3684210526</v>
       </c>
       <c r="D367" s="2">
-        <v>43.989944458007798</v>
+        <v>43.9899444580078</v>
       </c>
       <c r="E367" s="2">
-        <v>5.3425197601318404</v>
+        <v>5.34251976013184</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6745,10 +6733,10 @@
         <v>109136.842105263</v>
       </c>
       <c r="D368" s="2">
-        <v>44.153396606445298</v>
+        <v>44.1533966064453</v>
       </c>
       <c r="E368" s="2">
-        <v>5.3324255943298304</v>
+        <v>5.33242559432983</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6762,10 +6750,10 @@
         <v>127326.315789474</v>
       </c>
       <c r="D369" s="2">
-        <v>44.316844940185497</v>
+        <v>44.3168449401855</v>
       </c>
       <c r="E369" s="2">
-        <v>5.3222460746765101</v>
+        <v>5.32224607467651</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6776,13 +6764,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C370" s="2">
-        <v>145515.78947368401</v>
+        <v>145515.789473684</v>
       </c>
       <c r="D370" s="2">
-        <v>44.480281829833999</v>
+        <v>44.480281829834</v>
       </c>
       <c r="E370" s="2">
-        <v>5.3119797706604004</v>
+        <v>5.3119797706604</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6793,13 +6781,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C371" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="D371" s="2">
-        <v>44.643718719482401</v>
+        <v>44.6437187194824</v>
       </c>
       <c r="E371" s="2">
-        <v>5.3016257286071804</v>
+        <v>5.30162572860718</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6810,13 +6798,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C372" s="2">
-        <v>181894.73684210499</v>
+        <v>181894.736842105</v>
       </c>
       <c r="D372" s="2">
         <v>44.8071479797363</v>
       </c>
       <c r="E372" s="2">
-        <v>5.2911834716796902</v>
+        <v>5.29118347167969</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6827,13 +6815,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C373" s="2">
-        <v>200084.21052631599</v>
+        <v>200084.210526316</v>
       </c>
       <c r="D373" s="2">
-        <v>44.970569610595703</v>
+        <v>44.9705696105957</v>
       </c>
       <c r="E373" s="2">
-        <v>5.2806515693664604</v>
+        <v>5.28065156936646</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6847,10 +6835,10 @@
         <v>218273.684210526</v>
       </c>
       <c r="D374" s="2">
-        <v>45.133983612060497</v>
+        <v>45.1339836120605</v>
       </c>
       <c r="E374" s="2">
-        <v>5.2700295448303196</v>
+        <v>5.27002954483032</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6864,7 +6852,7 @@
         <v>236463.157894737</v>
       </c>
       <c r="D375" s="2">
-        <v>45.297386169433601</v>
+        <v>45.2973861694336</v>
       </c>
       <c r="E375" s="2">
         <v>5.25931692123413</v>
@@ -6878,13 +6866,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C376" s="2">
-        <v>254652.63157894701</v>
+        <v>254652.631578947</v>
       </c>
       <c r="D376" s="2">
-        <v>45.460788726806598</v>
+        <v>45.4607887268066</v>
       </c>
       <c r="E376" s="2">
-        <v>5.2485113143920898</v>
+        <v>5.24851131439209</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6895,13 +6883,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C377" s="2">
-        <v>272842.10526315798</v>
+        <v>272842.105263158</v>
       </c>
       <c r="D377" s="2">
-        <v>45.624183654785199</v>
+        <v>45.6241836547852</v>
       </c>
       <c r="E377" s="2">
-        <v>5.2376127243042001</v>
+        <v>5.2376127243042</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6912,13 +6900,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C378" s="2">
-        <v>291031.57894736802</v>
+        <v>291031.578947368</v>
       </c>
       <c r="D378" s="2">
-        <v>45.787570953369098</v>
+        <v>45.7875709533691</v>
       </c>
       <c r="E378" s="2">
-        <v>5.2266201972961399</v>
+        <v>5.22662019729614</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6929,10 +6917,10 @@
         <v>196446.315789474</v>
       </c>
       <c r="C379" s="2">
-        <v>309221.05263157899</v>
+        <v>309221.052631579</v>
       </c>
       <c r="D379" s="2">
-        <v>45.950950622558601</v>
+        <v>45.9509506225586</v>
       </c>
       <c r="E379" s="2">
         <v>5.2155327796936</v>
@@ -6946,13 +6934,13 @@
         <v>196446.315789474</v>
       </c>
       <c r="C380" s="2">
-        <v>327410.52631578897</v>
+        <v>327410.526315789</v>
       </c>
       <c r="D380" s="2">
-        <v>46.114322662353501</v>
+        <v>46.1143226623535</v>
       </c>
       <c r="E380" s="2">
-        <v>5.2043490409851101</v>
+        <v>5.20434904098511</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6969,7 +6957,7 @@
         <v>46.2776908874512</v>
       </c>
       <c r="E381" s="2">
-        <v>5.1930675506591797</v>
+        <v>5.19306755065918</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6983,10 +6971,10 @@
         <v>0</v>
       </c>
       <c r="D382" s="2">
-        <v>43.168266296386697</v>
+        <v>43.1682662963867</v>
       </c>
       <c r="E382" s="2">
-        <v>5.2577404975891104</v>
+        <v>5.25774049758911</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6997,13 +6985,13 @@
         <v>207360</v>
       </c>
       <c r="C383" s="2">
-        <v>18189.473684210501</v>
+        <v>18189.4736842105</v>
       </c>
       <c r="D383" s="2">
-        <v>43.331729888916001</v>
+        <v>43.331729888916</v>
       </c>
       <c r="E383" s="2">
-        <v>5.2477049827575701</v>
+        <v>5.24770498275757</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -7014,13 +7002,13 @@
         <v>207360</v>
       </c>
       <c r="C384" s="2">
-        <v>36378.947368421097</v>
+        <v>36378.9473684211</v>
       </c>
       <c r="D384" s="2">
-        <v>43.495185852050803</v>
+        <v>43.4951858520508</v>
       </c>
       <c r="E384" s="2">
-        <v>5.2375850677490199</v>
+        <v>5.23758506774902</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -7031,13 +7019,13 @@
         <v>207360</v>
       </c>
       <c r="C385" s="2">
-        <v>54568.421052631602</v>
+        <v>54568.4210526316</v>
       </c>
       <c r="D385" s="2">
         <v>43.6586303710938</v>
       </c>
       <c r="E385" s="2">
-        <v>5.2273797988891602</v>
+        <v>5.22737979888916</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -7048,13 +7036,13 @@
         <v>207360</v>
       </c>
       <c r="C386" s="2">
-        <v>72757.894736842107</v>
+        <v>72757.8947368421</v>
       </c>
       <c r="D386" s="2">
-        <v>43.822071075439503</v>
+        <v>43.8220710754395</v>
       </c>
       <c r="E386" s="2">
-        <v>5.2170882225036603</v>
+        <v>5.21708822250366</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -7065,13 +7053,13 @@
         <v>207360</v>
       </c>
       <c r="C387" s="2">
-        <v>90947.368421052597</v>
+        <v>90947.3684210526</v>
       </c>
       <c r="D387" s="2">
-        <v>43.985507965087898</v>
+        <v>43.9855079650879</v>
       </c>
       <c r="E387" s="2">
-        <v>5.2067093849182102</v>
+        <v>5.20670938491821</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -7085,10 +7073,10 @@
         <v>109136.842105263</v>
       </c>
       <c r="D388" s="2">
-        <v>44.148937225341797</v>
+        <v>44.1489372253418</v>
       </c>
       <c r="E388" s="2">
-        <v>5.1962428092956499</v>
+        <v>5.19624280929565</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -7102,10 +7090,10 @@
         <v>127326.315789474</v>
       </c>
       <c r="D389" s="2">
-        <v>44.312362670898402</v>
+        <v>44.3123626708984</v>
       </c>
       <c r="E389" s="2">
-        <v>5.1856870651245099</v>
+        <v>5.18568706512451</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -7116,13 +7104,13 @@
         <v>207360</v>
       </c>
       <c r="C390" s="2">
-        <v>145515.78947368401</v>
+        <v>145515.789473684</v>
       </c>
       <c r="D390" s="2">
-        <v>44.475772857666001</v>
+        <v>44.475772857666</v>
       </c>
       <c r="E390" s="2">
-        <v>5.1750421524047896</v>
+        <v>5.17504215240479</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7133,10 +7121,10 @@
         <v>207360</v>
       </c>
       <c r="C391" s="2">
-        <v>163705.26315789501</v>
+        <v>163705.263157895</v>
       </c>
       <c r="D391" s="2">
-        <v>44.639183044433601</v>
+        <v>44.6391830444336</v>
       </c>
       <c r="E391" s="2">
         <v>5.16430568695068</v>
@@ -7150,13 +7138,13 @@
         <v>207360</v>
       </c>
       <c r="C392" s="2">
-        <v>181894.73684210499</v>
+        <v>181894.736842105</v>
       </c>
       <c r="D392" s="2">
-        <v>44.802585601806598</v>
+        <v>44.8025856018066</v>
       </c>
       <c r="E392" s="2">
-        <v>5.1534781455993697</v>
+        <v>5.15347814559937</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7167,13 +7155,13 @@
         <v>207360</v>
       </c>
       <c r="C393" s="2">
-        <v>200084.21052631599</v>
+        <v>200084.210526316</v>
       </c>
       <c r="D393" s="2">
-        <v>44.965980529785199</v>
+        <v>44.9659805297852</v>
       </c>
       <c r="E393" s="2">
-        <v>5.1425576210021999</v>
+        <v>5.1425576210022</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7187,10 +7175,10 @@
         <v>218273.684210526</v>
       </c>
       <c r="D394" s="2">
-        <v>45.129367828369098</v>
+        <v>45.1293678283691</v>
       </c>
       <c r="E394" s="2">
-        <v>5.1315436363220197</v>
+        <v>5.13154363632202</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -7204,10 +7192,10 @@
         <v>236463.157894737</v>
       </c>
       <c r="D395" s="2">
-        <v>45.292747497558601</v>
+        <v>45.2927474975586</v>
       </c>
       <c r="E395" s="2">
-        <v>5.1204352378845197</v>
+        <v>5.12043523788452</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7218,10 +7206,10 @@
         <v>207360</v>
       </c>
       <c r="C396" s="2">
-        <v>254652.63157894701</v>
+        <v>254652.631578947</v>
       </c>
       <c r="D396" s="2">
-        <v>45.456123352050803</v>
+        <v>45.4561233520508</v>
       </c>
       <c r="E396" s="2">
         <v>5.10923099517822</v>
@@ -7235,13 +7223,13 @@
         <v>207360</v>
       </c>
       <c r="C397" s="2">
-        <v>272842.10526315798</v>
+        <v>272842.105263158</v>
       </c>
       <c r="D397" s="2">
-        <v>45.619491577148402</v>
+        <v>45.6194915771484</v>
       </c>
       <c r="E397" s="2">
-        <v>5.0979304313659703</v>
+        <v>5.09793043136597</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7252,13 +7240,13 @@
         <v>207360</v>
       </c>
       <c r="C398" s="2">
-        <v>291031.57894736802</v>
+        <v>291031.578947368</v>
       </c>
       <c r="D398" s="2">
-        <v>45.782852172851598</v>
+        <v>45.7828521728516</v>
       </c>
       <c r="E398" s="2">
-        <v>5.0865321159362802</v>
+        <v>5.08653211593628</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7269,13 +7257,13 @@
         <v>207360</v>
       </c>
       <c r="C399" s="2">
-        <v>309221.05263157899</v>
+        <v>309221.052631579</v>
       </c>
       <c r="D399" s="2">
-        <v>45.946201324462898</v>
+        <v>45.9462013244629</v>
       </c>
       <c r="E399" s="2">
-        <v>5.0750355720520002</v>
+        <v>5.075035572052</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7286,13 +7274,13 @@
         <v>207360</v>
       </c>
       <c r="C400" s="2">
-        <v>327410.52631578897</v>
+        <v>327410.526315789</v>
       </c>
       <c r="D400" s="2">
-        <v>46.109550476074197</v>
+        <v>46.1095504760742</v>
       </c>
       <c r="E400" s="2">
-        <v>5.0634388923645002</v>
+        <v>5.0634388923645</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7306,18 +7294,13 @@
         <v>345600</v>
       </c>
       <c r="D401" s="2">
-        <v>46.272891998291001</v>
+        <v>46.272891998291</v>
       </c>
       <c r="E401" s="2">
-        <v>5.0517416000366202</v>
+        <v>5.05174160003662</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>